--- a/Comparision.xlsx
+++ b/Comparision.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/dev/uni/vision/AISSCV_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B54913-3BF7-0048-990C-2E212E23D6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6CE52-8748-5542-8B48-B20E58DE98D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="32080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="32080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Augment10" sheetId="2" r:id="rId2"/>
+    <sheet name="Class" sheetId="2" r:id="rId1"/>
+    <sheet name="Overall" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="51">
   <si>
     <t>run</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Alte Transform function Color</t>
   </si>
   <si>
-    <t>Alte Transform Color</t>
-  </si>
-  <si>
     <t>Neue Transform Color</t>
   </si>
   <si>
@@ -178,10 +175,16 @@
     <t>Occlude Color</t>
   </si>
   <si>
-    <t>10 Augmentations color</t>
+    <t>15 augmentations color</t>
   </si>
   <si>
-    <t>15 augmentations color</t>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>No Label, Occlude, Color</t>
   </si>
 </sst>
 </file>
@@ -189,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,17 +256,29 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -475,12 +490,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -494,25 +518,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -520,12 +539,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,6 +551,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,27 +618,438 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1076,2475 +1547,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T46"/>
-  <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="6">
-        <v>212</v>
-      </c>
-      <c r="G3" s="6">
-        <v>60</v>
-      </c>
-      <c r="H3" s="6">
-        <v>48</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.881992</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="P3" s="6">
-        <v>217</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>54</v>
-      </c>
-      <c r="R3" s="6">
-        <v>43</v>
-      </c>
-      <c r="S3" s="6">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="T3" s="6">
-        <v>0.89015900000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F4" s="6">
-        <v>212</v>
-      </c>
-      <c r="G4" s="6">
-        <v>53</v>
-      </c>
-      <c r="H4" s="6">
-        <v>51</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.88091900000000001</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="P4" s="6">
-        <v>208</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>64</v>
-      </c>
-      <c r="R4" s="6">
-        <v>55</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0.57879999999999998</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="F5" s="6">
-        <v>216</v>
-      </c>
-      <c r="G5" s="6">
-        <v>54</v>
-      </c>
-      <c r="H5" s="6">
-        <v>48</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.60189999999999999</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.87656500000000004</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="P5" s="6">
-        <v>218</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>40</v>
-      </c>
-      <c r="R5" s="6">
-        <v>46</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0.88409099999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="F6" s="6">
-        <v>221</v>
-      </c>
-      <c r="G6" s="6">
-        <v>46</v>
-      </c>
-      <c r="H6" s="6">
-        <v>47</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.62929999999999997</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.88683500000000004</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="P6" s="6">
-        <v>216</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>63</v>
-      </c>
-      <c r="R6" s="6">
-        <v>52</v>
-      </c>
-      <c r="S6" s="6">
-        <v>0.5917</v>
-      </c>
-      <c r="T6" s="6">
-        <v>0.88582399999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.78</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.77</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.78</v>
-      </c>
-      <c r="F7" s="16">
-        <v>200</v>
-      </c>
-      <c r="G7" s="16">
-        <v>57</v>
-      </c>
-      <c r="H7" s="16">
-        <v>59</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0.59689999999999999</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.85829699999999998</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0.79</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="P7" s="16">
-        <v>208</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>54</v>
-      </c>
-      <c r="R7" s="16">
-        <v>51</v>
-      </c>
-      <c r="S7" s="16">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0.87727599999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="20">
-        <f>MEDIAN(B3:B7)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="20">
-        <f t="shared" ref="C8:J8" si="0">MEDIAN(C3:C7)</f>
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="20">
-        <f t="shared" si="0"/>
-        <v>0.82</v>
-      </c>
-      <c r="E8" s="20">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="G8" s="20">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I8" s="20">
-        <f t="shared" si="0"/>
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="0"/>
-        <v>0.88091900000000001</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="13">
-        <f>MEDIAN(L3:L7)</f>
-        <v>0.25</v>
-      </c>
-      <c r="M8" s="13">
-        <f t="shared" ref="M8:T8" si="1">MEDIAN(M3:M7)</f>
-        <v>0.79</v>
-      </c>
-      <c r="N8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
-      <c r="O8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="P8" s="13">
-        <f t="shared" si="1"/>
-        <v>216</v>
-      </c>
-      <c r="Q8" s="13">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="R8" s="13">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="S8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="F12" s="6">
-        <v>102</v>
-      </c>
-      <c r="G12" s="6">
-        <v>71</v>
-      </c>
-      <c r="H12" s="6">
-        <v>158</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.39779999999999999</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0.58740099999999995</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="P12" s="6">
-        <v>217</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>54</v>
-      </c>
-      <c r="R12" s="6">
-        <v>43</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="T12" s="6">
-        <v>0.89015900000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.69</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F13" s="6">
-        <v>119</v>
-      </c>
-      <c r="G13" s="6">
-        <v>53</v>
-      </c>
-      <c r="H13" s="6">
-        <v>144</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.47589999999999999</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0.648254</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="P13" s="6">
-        <v>208</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>64</v>
-      </c>
-      <c r="R13" s="6">
-        <v>55</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0.57879999999999998</v>
-      </c>
-      <c r="T13" s="6">
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.42</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="F14" s="6">
-        <v>110</v>
-      </c>
-      <c r="G14" s="6">
-        <v>71</v>
-      </c>
-      <c r="H14" s="6">
-        <v>154</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.42070000000000002</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0.60589800000000005</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="P14" s="6">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>40</v>
-      </c>
-      <c r="R14" s="6">
-        <v>46</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0.88409099999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.69</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.42</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="F15" s="6">
-        <v>112</v>
-      </c>
-      <c r="G15" s="6">
-        <v>51</v>
-      </c>
-      <c r="H15" s="6">
-        <v>156</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.48130000000000001</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0.65812999999999999</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="P15" s="6">
-        <v>216</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>63</v>
-      </c>
-      <c r="R15" s="6">
-        <v>52</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0.5917</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0.88582399999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0.42</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="16">
-        <v>110</v>
-      </c>
-      <c r="G16" s="16">
-        <v>72</v>
-      </c>
-      <c r="H16" s="16">
-        <v>149</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0.41539999999999999</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0.60148800000000002</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="M16" s="16">
-        <v>0.79</v>
-      </c>
-      <c r="N16" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="P16" s="16">
-        <v>208</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>54</v>
-      </c>
-      <c r="R16" s="16">
-        <v>51</v>
-      </c>
-      <c r="S16" s="16">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T16" s="16">
-        <v>0.87727599999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13">
-        <f>MEDIAN(B12:B16)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C17" s="13">
-        <f t="shared" ref="C17:J17" si="2">MEDIAN(C12:C16)</f>
-        <v>0.61</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="2"/>
-        <v>0.42</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="G17" s="13">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="2"/>
-        <v>0.42070000000000002</v>
-      </c>
-      <c r="J17" s="14">
-        <f t="shared" si="2"/>
-        <v>0.60589800000000005</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="13">
-        <f>MEDIAN(L12:L16)</f>
-        <v>0.25</v>
-      </c>
-      <c r="M17" s="13">
-        <f t="shared" ref="M17:T17" si="3">MEDIAN(M12:M16)</f>
-        <v>0.79</v>
-      </c>
-      <c r="N17" s="22">
-        <f t="shared" si="3"/>
-        <v>0.81</v>
-      </c>
-      <c r="O17" s="13">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="P17" s="13">
-        <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="Q17" s="13">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="R17" s="13">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="S17" s="13">
-        <f t="shared" si="3"/>
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T17" s="13">
-        <f t="shared" si="3"/>
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="F21" s="6">
-        <v>207</v>
-      </c>
-      <c r="G21" s="6">
-        <v>66</v>
-      </c>
-      <c r="H21" s="6">
-        <v>53</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.57509999999999994</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0.86950799999999995</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="P21" s="6">
-        <v>217</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>54</v>
-      </c>
-      <c r="R21" s="6">
-        <v>43</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0.89015900000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F22" s="6">
-        <v>208</v>
-      </c>
-      <c r="G22" s="6">
-        <v>52</v>
-      </c>
-      <c r="H22" s="6">
-        <v>55</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.60060000000000002</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0.88469299999999995</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="P22" s="6">
-        <v>208</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>64</v>
-      </c>
-      <c r="R22" s="6">
-        <v>55</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0.57879999999999998</v>
-      </c>
-      <c r="T22" s="6">
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="F23" s="6">
-        <v>221</v>
-      </c>
-      <c r="G23" s="6">
-        <v>42</v>
-      </c>
-      <c r="H23" s="6">
-        <v>43</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.63470000000000004</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0.89224899999999996</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="P23" s="6">
-        <v>218</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>40</v>
-      </c>
-      <c r="R23" s="6">
-        <v>46</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0.88409099999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F24" s="6">
-        <v>216</v>
-      </c>
-      <c r="G24" s="6">
-        <v>58</v>
-      </c>
-      <c r="H24" s="6">
-        <v>52</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.60819999999999996</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0.86895999999999995</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="P24" s="6">
-        <v>216</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>63</v>
-      </c>
-      <c r="R24" s="6">
-        <v>52</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0.5917</v>
-      </c>
-      <c r="T24" s="6">
-        <v>0.88582399999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0.76</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0.78</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0.77</v>
-      </c>
-      <c r="F25" s="16">
-        <v>201</v>
-      </c>
-      <c r="G25" s="16">
-        <v>62</v>
-      </c>
-      <c r="H25" s="16">
-        <v>58</v>
-      </c>
-      <c r="I25" s="16">
-        <v>0.57579999999999998</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0.85969399999999996</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="M25" s="16">
-        <v>0.79</v>
-      </c>
-      <c r="N25" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O25" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="P25" s="16">
-        <v>208</v>
-      </c>
-      <c r="Q25" s="16">
-        <v>54</v>
-      </c>
-      <c r="R25" s="16">
-        <v>51</v>
-      </c>
-      <c r="S25" s="16">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T25" s="16">
-        <v>0.87727599999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="13">
-        <f>MEDIAN(B21:B25)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C26" s="13">
-        <f t="shared" ref="C26:J26" si="4">MEDIAN(C21:C25)</f>
-        <v>0.79</v>
-      </c>
-      <c r="D26" s="13">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="E26" s="13">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" si="4"/>
-        <v>208</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="H26" s="13">
-        <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="I26" s="13">
-        <f t="shared" si="4"/>
-        <v>0.60060000000000002</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="4"/>
-        <v>0.86950799999999995</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="13">
-        <f>MEDIAN(L21:L25)</f>
-        <v>0.25</v>
-      </c>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26:T26" si="5">MEDIAN(M21:M25)</f>
-        <v>0.79</v>
-      </c>
-      <c r="N26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.81</v>
-      </c>
-      <c r="O26" s="13">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="P26" s="13">
-        <f t="shared" si="5"/>
-        <v>216</v>
-      </c>
-      <c r="Q26" s="13">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="R26" s="13">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="S26" s="13">
-        <f t="shared" si="5"/>
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T26" s="13">
-        <f t="shared" si="5"/>
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="F31" s="6">
-        <v>205</v>
-      </c>
-      <c r="G31" s="6">
-        <v>53</v>
-      </c>
-      <c r="H31" s="6">
-        <v>55</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0.60019999999999996</v>
-      </c>
-      <c r="J31" s="7">
-        <v>0.85517200000000004</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="P31" s="6">
-        <v>217</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>54</v>
-      </c>
-      <c r="R31" s="6">
-        <v>43</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="T31" s="6">
-        <v>0.89015900000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="F32" s="6">
-        <v>201</v>
-      </c>
-      <c r="G32" s="6">
-        <v>47</v>
-      </c>
-      <c r="H32" s="6">
-        <v>62</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0.60929999999999995</v>
-      </c>
-      <c r="J32" s="7">
-        <v>0.86718600000000001</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="P32" s="6">
-        <v>208</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>64</v>
-      </c>
-      <c r="R32" s="6">
-        <v>55</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0.57879999999999998</v>
-      </c>
-      <c r="T32" s="6">
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="F33" s="6">
-        <v>212</v>
-      </c>
-      <c r="G33" s="6">
-        <v>49</v>
-      </c>
-      <c r="H33" s="6">
-        <v>52</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0.61550000000000005</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0.86414999999999997</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="P33" s="6">
-        <v>218</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>40</v>
-      </c>
-      <c r="R33" s="6">
-        <v>46</v>
-      </c>
-      <c r="S33" s="6">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="T33" s="6">
-        <v>0.88409099999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="F34" s="6">
-        <v>218</v>
-      </c>
-      <c r="G34" s="6">
-        <v>46</v>
-      </c>
-      <c r="H34" s="6">
-        <v>50</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0.63119999999999998</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0.86713600000000002</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="P34" s="6">
-        <v>216</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>63</v>
-      </c>
-      <c r="R34" s="6">
-        <v>52</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0.5917</v>
-      </c>
-      <c r="T34" s="6">
-        <v>0.88582399999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="C35" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="D35" s="16">
-        <v>0.78</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0.79</v>
-      </c>
-      <c r="F35" s="16">
-        <v>202</v>
-      </c>
-      <c r="G35" s="16">
-        <v>50</v>
-      </c>
-      <c r="H35" s="16">
-        <v>57</v>
-      </c>
-      <c r="I35" s="16">
-        <v>0.60709999999999997</v>
-      </c>
-      <c r="J35" s="17">
-        <v>0.871892</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="M35" s="16">
-        <v>0.79</v>
-      </c>
-      <c r="N35" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O35" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="P35" s="16">
-        <v>208</v>
-      </c>
-      <c r="Q35" s="16">
-        <v>54</v>
-      </c>
-      <c r="R35" s="16">
-        <v>51</v>
-      </c>
-      <c r="S35" s="16">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T35" s="16">
-        <v>0.87727599999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="13">
-        <f>MEDIAN(B31:B35)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C36" s="13">
-        <f t="shared" ref="C36:J36" si="6">MEDIAN(C31:C35)</f>
-        <v>0.81</v>
-      </c>
-      <c r="D36" s="22">
-        <f t="shared" si="6"/>
-        <v>0.79</v>
-      </c>
-      <c r="E36" s="13">
-        <f t="shared" si="6"/>
-        <v>0.79</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="6"/>
-        <v>205</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="H36" s="13">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="I36" s="13">
-        <f t="shared" si="6"/>
-        <v>0.60929999999999995</v>
-      </c>
-      <c r="J36" s="14">
-        <f t="shared" si="6"/>
-        <v>0.86713600000000002</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="13">
-        <f>MEDIAN(L31:L35)</f>
-        <v>0.25</v>
-      </c>
-      <c r="M36" s="13">
-        <f t="shared" ref="M36:T36" si="7">MEDIAN(M31:M35)</f>
-        <v>0.79</v>
-      </c>
-      <c r="N36" s="22">
-        <f t="shared" si="7"/>
-        <v>0.81</v>
-      </c>
-      <c r="O36" s="13">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="P36" s="13">
-        <f t="shared" si="7"/>
-        <v>216</v>
-      </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="R36" s="13">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="S36" s="13">
-        <f t="shared" si="7"/>
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T36" s="13">
-        <f t="shared" si="7"/>
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F41" s="6">
-        <v>214</v>
-      </c>
-      <c r="G41" s="6">
-        <v>62</v>
-      </c>
-      <c r="H41" s="6">
-        <v>46</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0.59030000000000005</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0.88597400000000004</v>
-      </c>
-      <c r="K41" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="P41" s="6">
-        <v>217</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>54</v>
-      </c>
-      <c r="R41" s="6">
-        <v>43</v>
-      </c>
-      <c r="S41" s="6">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="T41" s="6">
-        <v>0.89015900000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="F42" s="6">
-        <v>210</v>
-      </c>
-      <c r="G42" s="6">
-        <v>57</v>
-      </c>
-      <c r="H42" s="6">
-        <v>53</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0.58950000000000002</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0.88109400000000004</v>
-      </c>
-      <c r="K42" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="O42" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="P42" s="6">
-        <v>208</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>64</v>
-      </c>
-      <c r="R42" s="6">
-        <v>55</v>
-      </c>
-      <c r="S42" s="6">
-        <v>0.57879999999999998</v>
-      </c>
-      <c r="T42" s="6">
-        <v>0.88544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="F43" s="6">
-        <v>213</v>
-      </c>
-      <c r="G43" s="6">
-        <v>44</v>
-      </c>
-      <c r="H43" s="6">
-        <v>51</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0.63470000000000004</v>
-      </c>
-      <c r="J43" s="7">
-        <v>0.87643499999999996</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="O43" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="P43" s="6">
-        <v>218</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>40</v>
-      </c>
-      <c r="R43" s="6">
-        <v>46</v>
-      </c>
-      <c r="S43" s="6">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="T43" s="6">
-        <v>0.88409099999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="F44" s="6">
-        <v>213</v>
-      </c>
-      <c r="G44" s="6">
-        <v>65</v>
-      </c>
-      <c r="H44" s="6">
-        <v>55</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0.5857</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0.88539299999999999</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="N44" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="O44" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="P44" s="6">
-        <v>216</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>63</v>
-      </c>
-      <c r="R44" s="6">
-        <v>52</v>
-      </c>
-      <c r="S44" s="6">
-        <v>0.5917</v>
-      </c>
-      <c r="T44" s="6">
-        <v>0.88582399999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="C45" s="16">
-        <v>0.77</v>
-      </c>
-      <c r="D45" s="16">
-        <v>0.77</v>
-      </c>
-      <c r="E45" s="16">
-        <v>0.77</v>
-      </c>
-      <c r="F45" s="16">
-        <v>199</v>
-      </c>
-      <c r="G45" s="16">
-        <v>58</v>
-      </c>
-      <c r="H45" s="16">
-        <v>60</v>
-      </c>
-      <c r="I45" s="16">
-        <v>0.58989999999999998</v>
-      </c>
-      <c r="J45" s="17">
-        <v>0.87203699999999995</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="M45" s="16">
-        <v>0.79</v>
-      </c>
-      <c r="N45" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="O45" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="P45" s="16">
-        <v>208</v>
-      </c>
-      <c r="Q45" s="16">
-        <v>54</v>
-      </c>
-      <c r="R45" s="16">
-        <v>51</v>
-      </c>
-      <c r="S45" s="16">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T45" s="16">
-        <v>0.87727599999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="13">
-        <f>MEDIAN(B41:B45)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C46" s="13">
-        <f t="shared" ref="C46:J46" si="8">MEDIAN(C41:C45)</f>
-        <v>0.78</v>
-      </c>
-      <c r="D46" s="22">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="E46" s="13">
-        <f t="shared" si="8"/>
-        <v>0.79</v>
-      </c>
-      <c r="F46" s="13">
-        <f t="shared" si="8"/>
-        <v>213</v>
-      </c>
-      <c r="G46" s="13">
-        <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="H46" s="13">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-      <c r="I46" s="13">
-        <f t="shared" si="8"/>
-        <v>0.58989999999999998</v>
-      </c>
-      <c r="J46" s="14">
-        <f t="shared" si="8"/>
-        <v>0.88109400000000004</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" s="13">
-        <f>MEDIAN(L41:L45)</f>
-        <v>0.25</v>
-      </c>
-      <c r="M46" s="13">
-        <f t="shared" ref="M46:T46" si="9">MEDIAN(M41:M45)</f>
-        <v>0.79</v>
-      </c>
-      <c r="N46" s="22">
-        <f t="shared" si="9"/>
-        <v>0.81</v>
-      </c>
-      <c r="O46" s="13">
-        <f t="shared" si="9"/>
-        <v>0.8</v>
-      </c>
-      <c r="P46" s="13">
-        <f t="shared" si="9"/>
-        <v>216</v>
-      </c>
-      <c r="Q46" s="13">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="R46" s="13">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="S46" s="13">
-        <f t="shared" si="9"/>
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="T46" s="13">
-        <f t="shared" si="9"/>
-        <v>0.88544</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="K19:T19"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA797B32-600C-0641-A3A4-0EF41EFFA5E0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="60"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="60"/>
     <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="A1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="58" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="61" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3553,7 +1606,8 @@
       <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="66"/>
+      <c r="J2" s="63" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -3567,19 +1621,19 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="59">
         <v>0.92427999999999988</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>13.8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="60">
         <v>0.93066000000000015</v>
       </c>
       <c r="G3">
@@ -3588,7 +1642,8 @@
       <c r="H3">
         <v>6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="I3" s="66"/>
+      <c r="J3" s="60">
         <f t="shared" ref="J3:J16" si="0">B3-F3</f>
         <v>-6.3800000000002743E-3</v>
       </c>
@@ -3605,19 +1660,19 @@
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="59">
         <v>0.79608000000000012</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>21.6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>5.4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="60">
         <v>0.82050000000000001</v>
       </c>
       <c r="G4">
@@ -3626,7 +1681,8 @@
       <c r="H4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J4" s="5">
+      <c r="I4" s="66"/>
+      <c r="J4" s="60">
         <f t="shared" si="0"/>
         <v>-2.4419999999999886E-2</v>
       </c>
@@ -3643,19 +1699,19 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="59">
         <v>0.7980600000000001</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>10.8</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="60">
         <v>0.79600000000000004</v>
       </c>
       <c r="G5">
@@ -3664,7 +1720,8 @@
       <c r="H5">
         <v>4.2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="I5" s="66"/>
+      <c r="J5" s="60">
         <f t="shared" si="0"/>
         <v>2.0600000000000618E-3</v>
       </c>
@@ -3681,19 +1738,19 @@
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="59">
         <v>0.98074000000000017</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>10.4</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>0.6</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="60">
         <v>0.99393999999999993</v>
       </c>
       <c r="G6">
@@ -3702,7 +1759,8 @@
       <c r="H6">
         <v>0.4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="I6" s="66"/>
+      <c r="J6" s="60">
         <f t="shared" si="0"/>
         <v>-1.3199999999999767E-2</v>
       </c>
@@ -3719,19 +1777,19 @@
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="59">
         <v>0.97360000000000002</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>13.2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>1.2</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="60">
         <v>0.95017999999999991</v>
       </c>
       <c r="G7">
@@ -3740,7 +1798,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="I7" s="66"/>
+      <c r="J7" s="60">
         <f t="shared" si="0"/>
         <v>2.3420000000000107E-2</v>
       </c>
@@ -3757,19 +1816,19 @@
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="59">
         <v>0.84252000000000005</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>21</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>5.6</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="60">
         <v>0.83878000000000008</v>
       </c>
       <c r="G8">
@@ -3778,7 +1837,8 @@
       <c r="H8">
         <v>6.8</v>
       </c>
-      <c r="J8" s="5">
+      <c r="I8" s="66"/>
+      <c r="J8" s="60">
         <f t="shared" si="0"/>
         <v>3.7399999999999656E-3</v>
       </c>
@@ -3795,19 +1855,19 @@
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="59">
         <v>0.87331999999999999</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>11.4</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>1.8</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="60">
         <v>0.90058000000000005</v>
       </c>
       <c r="G9">
@@ -3816,7 +1876,8 @@
       <c r="H9">
         <v>1.2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="I9" s="66"/>
+      <c r="J9" s="60">
         <f t="shared" si="0"/>
         <v>-2.7260000000000062E-2</v>
       </c>
@@ -3833,19 +1894,19 @@
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="59">
         <v>0.96111999999999997</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="60">
         <v>0.96264000000000005</v>
       </c>
       <c r="G10">
@@ -3854,7 +1915,8 @@
       <c r="H10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J10" s="5">
+      <c r="I10" s="66"/>
+      <c r="J10" s="60">
         <f t="shared" si="0"/>
         <v>-1.5200000000000768E-3</v>
       </c>
@@ -3871,19 +1933,19 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="59">
         <v>0.96652000000000005</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>10.8</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="60">
         <v>0.94891999999999999</v>
       </c>
       <c r="G11">
@@ -3892,7 +1954,8 @@
       <c r="H11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J11" s="5">
+      <c r="I11" s="66"/>
+      <c r="J11" s="60">
         <f t="shared" si="0"/>
         <v>1.760000000000006E-2</v>
       </c>
@@ -3909,19 +1972,19 @@
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="59">
         <v>0.73433999999999999</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>8.8000000000000007</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="60">
         <v>0.75853999999999999</v>
       </c>
       <c r="G12">
@@ -3930,7 +1993,8 @@
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="J12" s="5">
+      <c r="I12" s="66"/>
+      <c r="J12" s="60">
         <f t="shared" si="0"/>
         <v>-2.4199999999999999E-2</v>
       </c>
@@ -3947,19 +2011,19 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="59">
         <v>0.75403999999999993</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>17.399999999999999</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>6.4</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="60">
         <v>0.78142</v>
       </c>
       <c r="G13">
@@ -3968,7 +2032,8 @@
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="J13" s="5">
+      <c r="I13" s="66"/>
+      <c r="J13" s="60">
         <f t="shared" si="0"/>
         <v>-2.7380000000000071E-2</v>
       </c>
@@ -3985,19 +2050,19 @@
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="59">
         <v>0.92145999999999995</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>14.8</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="60">
         <v>0.94423999999999997</v>
       </c>
       <c r="G14">
@@ -4006,7 +2071,8 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="J14" s="5">
+      <c r="I14" s="66"/>
+      <c r="J14" s="60">
         <f t="shared" si="0"/>
         <v>-2.2780000000000022E-2</v>
       </c>
@@ -4023,19 +2089,19 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="59">
         <v>0.77636000000000005</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>13.4</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="60">
         <v>0.80137999999999998</v>
       </c>
       <c r="G15">
@@ -4044,7 +2110,8 @@
       <c r="H15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J15" s="5">
+      <c r="I15" s="66"/>
+      <c r="J15" s="60">
         <f t="shared" si="0"/>
         <v>-2.5019999999999931E-2</v>
       </c>
@@ -4057,23 +2124,23 @@
         <v>-1.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="59">
         <v>0.97445999999999999</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>18.2</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="60">
         <v>0.95601999999999998</v>
       </c>
       <c r="G16">
@@ -4082,7 +2149,8 @@
       <c r="H16">
         <v>1.4</v>
       </c>
-      <c r="J16" s="5">
+      <c r="I16" s="66"/>
+      <c r="J16" s="64">
         <f t="shared" si="0"/>
         <v>1.8440000000000012E-2</v>
       </c>
@@ -4095,25 +2163,34 @@
         <v>-0.39999999999999991</v>
       </c>
     </row>
+    <row r="17" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="65">
+        <f>SUM(J3:J16)</f>
+        <v>-0.10689999999999988</v>
+      </c>
+    </row>
     <row r="19" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="61" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4125,7 +2202,7 @@
       <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="61" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -4134,7 +2211,8 @@
       <c r="H20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="63" t="s">
         <v>34</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -4148,19 +2226,19 @@
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="62">
         <v>0.67977999999999994</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>5.4</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="60">
         <v>0.93066000000000015</v>
       </c>
       <c r="G21">
@@ -4169,7 +2247,8 @@
       <c r="H21">
         <v>6</v>
       </c>
-      <c r="J21" s="5">
+      <c r="I21" s="66"/>
+      <c r="J21" s="60">
         <f>B21-F21</f>
         <v>-0.25088000000000021</v>
       </c>
@@ -4186,19 +2265,19 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="62">
         <v>0.47252</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>11.8</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>8.1999999999999993</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="60">
         <v>0.82050000000000001</v>
       </c>
       <c r="G22">
@@ -4207,7 +2286,8 @@
       <c r="H22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J22" s="5">
+      <c r="I22" s="66"/>
+      <c r="J22" s="60">
         <f t="shared" ref="J22:J34" si="4">B22-F22</f>
         <v>-0.34798000000000001</v>
       </c>
@@ -4224,19 +2304,19 @@
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="62">
         <v>0.55556000000000005</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>5.2</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="60">
         <v>0.79600000000000004</v>
       </c>
       <c r="G23">
@@ -4245,7 +2325,8 @@
       <c r="H23">
         <v>4.2</v>
       </c>
-      <c r="J23" s="5">
+      <c r="I23" s="66"/>
+      <c r="J23" s="60">
         <f t="shared" si="4"/>
         <v>-0.24043999999999999</v>
       </c>
@@ -4262,19 +2343,19 @@
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="62">
         <v>0.85475999999999996</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>8.4</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>2.4</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="60">
         <v>0.99393999999999993</v>
       </c>
       <c r="G24">
@@ -4283,7 +2364,8 @@
       <c r="H24">
         <v>0.4</v>
       </c>
-      <c r="J24" s="5">
+      <c r="I24" s="66"/>
+      <c r="J24" s="60">
         <f t="shared" si="4"/>
         <v>-0.13917999999999997</v>
       </c>
@@ -4300,19 +2382,19 @@
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="62">
         <v>0.76783999999999997</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="60">
         <v>0.95017999999999991</v>
       </c>
       <c r="G25">
@@ -4321,7 +2403,8 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="J25" s="5">
+      <c r="I25" s="66"/>
+      <c r="J25" s="60">
         <f t="shared" si="4"/>
         <v>-0.18233999999999995</v>
       </c>
@@ -4338,19 +2421,19 @@
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="62">
         <v>0.55669999999999997</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>10.8</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>6.4</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="60">
         <v>0.83878000000000008</v>
       </c>
       <c r="G26">
@@ -4359,7 +2442,8 @@
       <c r="H26">
         <v>6.8</v>
       </c>
-      <c r="J26" s="5">
+      <c r="I26" s="66"/>
+      <c r="J26" s="60">
         <f t="shared" si="4"/>
         <v>-0.28208000000000011</v>
       </c>
@@ -4376,19 +2460,19 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="62">
         <v>0.62538000000000005</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>7</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>1.2</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="60">
         <v>0.90058000000000005</v>
       </c>
       <c r="G27">
@@ -4397,7 +2481,8 @@
       <c r="H27">
         <v>1.2</v>
       </c>
-      <c r="J27" s="5">
+      <c r="I27" s="66"/>
+      <c r="J27" s="60">
         <f t="shared" si="4"/>
         <v>-0.2752</v>
       </c>
@@ -4414,19 +2499,19 @@
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="62">
         <v>0.88683999999999996</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>10.8</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="60">
         <v>0.96264000000000005</v>
       </c>
       <c r="G28">
@@ -4435,7 +2520,8 @@
       <c r="H28">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J28" s="5">
+      <c r="I28" s="66"/>
+      <c r="J28" s="60">
         <f t="shared" si="4"/>
         <v>-7.580000000000009E-2</v>
       </c>
@@ -4452,19 +2538,19 @@
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="62">
         <v>0.78746000000000005</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>7.6</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="60">
         <v>0.94891999999999999</v>
       </c>
       <c r="G29">
@@ -4473,7 +2559,8 @@
       <c r="H29">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J29" s="5">
+      <c r="I29" s="66"/>
+      <c r="J29" s="60">
         <f t="shared" si="4"/>
         <v>-0.16145999999999994</v>
       </c>
@@ -4490,19 +2577,19 @@
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="62">
         <v>0.48627999999999999</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>8</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>6.2</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="60">
         <v>0.75853999999999999</v>
       </c>
       <c r="G30">
@@ -4511,7 +2598,8 @@
       <c r="H30">
         <v>10</v>
       </c>
-      <c r="J30" s="5">
+      <c r="I30" s="66"/>
+      <c r="J30" s="60">
         <f t="shared" si="4"/>
         <v>-0.27226</v>
       </c>
@@ -4528,19 +2616,19 @@
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="62">
         <v>0.33400000000000002</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>2.6</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="60">
         <v>0.78142</v>
       </c>
       <c r="G31">
@@ -4549,7 +2637,8 @@
       <c r="H31">
         <v>5</v>
       </c>
-      <c r="J31" s="5">
+      <c r="I31" s="66"/>
+      <c r="J31" s="60">
         <f t="shared" si="4"/>
         <v>-0.44741999999999998</v>
       </c>
@@ -4566,19 +2655,19 @@
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="62">
         <v>0.53225999999999996</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>5.4</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="60">
         <v>0.94423999999999997</v>
       </c>
       <c r="G32">
@@ -4587,7 +2676,8 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="J32" s="5">
+      <c r="I32" s="66"/>
+      <c r="J32" s="60">
         <f t="shared" si="4"/>
         <v>-0.41198000000000001</v>
       </c>
@@ -4604,19 +2694,19 @@
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="62">
         <v>0.45218000000000008</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>6.6</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>3.4</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="60">
         <v>0.80137999999999998</v>
       </c>
       <c r="G33">
@@ -4625,7 +2715,8 @@
       <c r="H33">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J33" s="5">
+      <c r="I33" s="66"/>
+      <c r="J33" s="60">
         <f t="shared" si="4"/>
         <v>-0.3491999999999999</v>
       </c>
@@ -4638,23 +2729,23 @@
         <v>-1.0000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="62">
         <v>0.69170000000000009</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>11</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="60">
         <v>0.95601999999999998</v>
       </c>
       <c r="G34">
@@ -4663,7 +2754,8 @@
       <c r="H34">
         <v>1.4</v>
       </c>
-      <c r="J34" s="5">
+      <c r="I34" s="66"/>
+      <c r="J34" s="64">
         <f t="shared" si="4"/>
         <v>-0.26431999999999989</v>
       </c>
@@ -4676,25 +2768,34 @@
         <v>3.6</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="65">
+        <f>SUM(J21:J34)</f>
+        <v>-3.7005400000000002</v>
+      </c>
+    </row>
     <row r="36" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="35" t="s">
+      <c r="A36" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="61" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4703,10 +2804,10 @@
       <c r="D37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="61" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -4715,7 +2816,8 @@
       <c r="H37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="I37" s="66"/>
+      <c r="J37" s="63" t="s">
         <v>34</v>
       </c>
       <c r="K37" s="4" t="s">
@@ -4729,19 +2831,19 @@
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="62">
         <v>0.93889999999999996</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>14</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>4.2</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="60">
         <v>0.93066000000000015</v>
       </c>
       <c r="G38">
@@ -4750,7 +2852,8 @@
       <c r="H38">
         <v>6</v>
       </c>
-      <c r="J38" s="5">
+      <c r="I38" s="66"/>
+      <c r="J38" s="60">
         <f t="shared" ref="J38:J51" si="6">B38-F38</f>
         <v>8.239999999999803E-3</v>
       </c>
@@ -4767,19 +2870,19 @@
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="62">
         <v>0.80285999999999991</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>21.2</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>5.4</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="60">
         <v>0.82050000000000001</v>
       </c>
       <c r="G39">
@@ -4788,7 +2891,8 @@
       <c r="H39">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J39" s="5">
+      <c r="I39" s="66"/>
+      <c r="J39" s="60">
         <f t="shared" si="6"/>
         <v>-1.76400000000001E-2</v>
       </c>
@@ -4805,19 +2909,19 @@
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="62">
         <v>0.79766000000000004</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>10.6</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>5</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="60">
         <v>0.79600000000000004</v>
       </c>
       <c r="G40">
@@ -4826,7 +2930,8 @@
       <c r="H40">
         <v>4.2</v>
       </c>
-      <c r="J40" s="5">
+      <c r="I40" s="66"/>
+      <c r="J40" s="60">
         <f t="shared" si="6"/>
         <v>1.6599999999999948E-3</v>
       </c>
@@ -4843,19 +2948,19 @@
       <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="62">
         <v>0.99329999999999996</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>0.6</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="60">
         <v>0.99393999999999993</v>
       </c>
       <c r="G41">
@@ -4864,7 +2969,8 @@
       <c r="H41">
         <v>0.4</v>
       </c>
-      <c r="J41" s="5">
+      <c r="I41" s="66"/>
+      <c r="J41" s="60">
         <f t="shared" si="6"/>
         <v>-6.3999999999997392E-4</v>
       </c>
@@ -4881,19 +2987,19 @@
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="62">
         <v>0.96856000000000009</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>13.4</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="8">
         <v>1.6</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="60">
         <v>0.95017999999999991</v>
       </c>
       <c r="G42">
@@ -4902,7 +3008,8 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="J42" s="5">
+      <c r="I42" s="66"/>
+      <c r="J42" s="60">
         <f t="shared" si="6"/>
         <v>1.8380000000000174E-2</v>
       </c>
@@ -4919,19 +3026,19 @@
       <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="62">
         <v>0.79531999999999992</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>19.600000000000001</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="8">
         <v>8</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="60">
         <v>0.83878000000000008</v>
       </c>
       <c r="G43">
@@ -4940,7 +3047,8 @@
       <c r="H43">
         <v>6.8</v>
       </c>
-      <c r="J43" s="5">
+      <c r="I43" s="66"/>
+      <c r="J43" s="60">
         <f t="shared" si="6"/>
         <v>-4.3460000000000165E-2</v>
       </c>
@@ -4957,19 +3065,19 @@
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="62">
         <v>0.89892000000000005</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>11.8</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="8">
         <v>0.8</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="60">
         <v>0.90058000000000005</v>
       </c>
       <c r="G44">
@@ -4978,7 +3086,8 @@
       <c r="H44">
         <v>1.2</v>
       </c>
-      <c r="J44" s="5">
+      <c r="I44" s="66"/>
+      <c r="J44" s="60">
         <f t="shared" si="6"/>
         <v>-1.6599999999999948E-3</v>
       </c>
@@ -4995,19 +3104,19 @@
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="62">
         <v>0.9529399999999999</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>14.8</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="8">
         <v>4.8</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="60">
         <v>0.96264000000000005</v>
       </c>
       <c r="G45">
@@ -5016,7 +3125,8 @@
       <c r="H45">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J45" s="5">
+      <c r="I45" s="66"/>
+      <c r="J45" s="60">
         <f t="shared" si="6"/>
         <v>-9.7000000000001529E-3</v>
       </c>
@@ -5033,19 +3143,19 @@
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="62">
         <v>0.92471999999999999</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>10.8</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="8">
         <v>5.2</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="60">
         <v>0.94891999999999999</v>
       </c>
       <c r="G46">
@@ -5054,7 +3164,8 @@
       <c r="H46">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J46" s="5">
+      <c r="I46" s="66"/>
+      <c r="J46" s="60">
         <f t="shared" si="6"/>
         <v>-2.4199999999999999E-2</v>
       </c>
@@ -5071,19 +3182,19 @@
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="62">
         <v>0.76082000000000005</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="8">
         <v>7.4</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="60">
         <v>0.75853999999999999</v>
       </c>
       <c r="G47">
@@ -5092,7 +3203,8 @@
       <c r="H47">
         <v>10</v>
       </c>
-      <c r="J47" s="5">
+      <c r="I47" s="66"/>
+      <c r="J47" s="60">
         <f t="shared" si="6"/>
         <v>2.2800000000000598E-3</v>
       </c>
@@ -5109,19 +3221,19 @@
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="62">
         <v>0.75497999999999998</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>17.2</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="8">
         <v>6.4</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="60">
         <v>0.78142</v>
       </c>
       <c r="G48">
@@ -5130,7 +3242,8 @@
       <c r="H48">
         <v>5</v>
       </c>
-      <c r="J48" s="5">
+      <c r="I48" s="66"/>
+      <c r="J48" s="60">
         <f t="shared" si="6"/>
         <v>-2.6440000000000019E-2</v>
       </c>
@@ -5147,19 +3260,19 @@
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="62">
         <v>0.93222000000000005</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>14.6</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="8">
         <v>1.2</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="60">
         <v>0.94423999999999997</v>
       </c>
       <c r="G49">
@@ -5168,7 +3281,8 @@
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="J49" s="5">
+      <c r="I49" s="66"/>
+      <c r="J49" s="60">
         <f t="shared" si="6"/>
         <v>-1.201999999999992E-2</v>
       </c>
@@ -5185,19 +3299,19 @@
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="62">
         <v>0.76956000000000002</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>14</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="8">
         <v>3.4</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="60">
         <v>0.80137999999999998</v>
       </c>
       <c r="G50">
@@ -5206,7 +3320,8 @@
       <c r="H50">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J50" s="5">
+      <c r="I50" s="66"/>
+      <c r="J50" s="60">
         <f t="shared" si="6"/>
         <v>-3.1819999999999959E-2</v>
       </c>
@@ -5219,23 +3334,23 @@
         <v>-1.0000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="62">
         <v>0.95957999999999988</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="7">
         <v>18</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="8">
         <v>2</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="60">
         <v>0.95601999999999998</v>
       </c>
       <c r="G51">
@@ -5244,7 +3359,8 @@
       <c r="H51">
         <v>1.4</v>
       </c>
-      <c r="J51" s="5">
+      <c r="I51" s="66"/>
+      <c r="J51" s="64">
         <f t="shared" si="6"/>
         <v>3.5599999999998966E-3</v>
       </c>
@@ -5257,25 +3373,34 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
+    <row r="52" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="65">
+        <f>SUM(J38:J51)</f>
+        <v>-0.13346000000000036</v>
+      </c>
+    </row>
     <row r="55" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="35" t="s">
+      <c r="A55" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="61" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -5284,10 +3409,10 @@
       <c r="D56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="61" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -5296,7 +3421,8 @@
       <c r="H56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="I56" s="66"/>
+      <c r="J56" s="63" t="s">
         <v>34</v>
       </c>
       <c r="K56" s="4" t="s">
@@ -5310,19 +3436,19 @@
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="62">
         <v>0.92374000000000012</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="7">
         <v>13.8</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="8">
         <v>4.2</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="60">
         <v>0.93066000000000015</v>
       </c>
       <c r="G57">
@@ -5331,7 +3457,8 @@
       <c r="H57">
         <v>6</v>
       </c>
-      <c r="J57" s="5">
+      <c r="I57" s="66"/>
+      <c r="J57" s="60">
         <f t="shared" ref="J57:J70" si="9">B57-F57</f>
         <v>-6.9200000000000372E-3</v>
       </c>
@@ -5348,19 +3475,19 @@
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="62">
         <v>0.78288000000000002</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="7">
         <v>21.2</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="8">
         <v>4</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="60">
         <v>0.82050000000000001</v>
       </c>
       <c r="G58">
@@ -5369,7 +3496,8 @@
       <c r="H58">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J58" s="5">
+      <c r="I58" s="66"/>
+      <c r="J58" s="60">
         <f t="shared" si="9"/>
         <v>-3.7619999999999987E-2</v>
       </c>
@@ -5386,19 +3514,19 @@
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="62">
         <v>0.76169999999999993</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="8">
         <v>4.8</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="60">
         <v>0.79600000000000004</v>
       </c>
       <c r="G59">
@@ -5407,7 +3535,8 @@
       <c r="H59">
         <v>4.2</v>
       </c>
-      <c r="J59" s="5">
+      <c r="I59" s="66"/>
+      <c r="J59" s="60">
         <f t="shared" si="9"/>
         <v>-3.4300000000000108E-2</v>
       </c>
@@ -5424,19 +3553,19 @@
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="62">
         <v>0.97606000000000004</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="8">
         <v>1.4</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="60">
         <v>0.99393999999999993</v>
       </c>
       <c r="G60">
@@ -5445,7 +3574,8 @@
       <c r="H60">
         <v>0.4</v>
       </c>
-      <c r="J60" s="5">
+      <c r="I60" s="66"/>
+      <c r="J60" s="60">
         <f t="shared" si="9"/>
         <v>-1.7879999999999896E-2</v>
       </c>
@@ -5462,19 +3592,19 @@
       <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="62">
         <v>0.95329999999999993</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="7">
         <v>13</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="8">
         <v>1.4</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="60">
         <v>0.95017999999999991</v>
       </c>
       <c r="G61">
@@ -5483,7 +3613,8 @@
       <c r="H61">
         <v>1</v>
       </c>
-      <c r="J61" s="5">
+      <c r="I61" s="66"/>
+      <c r="J61" s="60">
         <f t="shared" si="9"/>
         <v>3.1200000000000117E-3</v>
       </c>
@@ -5500,19 +3631,19 @@
       <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="62">
         <v>0.81372</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="7">
         <v>20.2</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="8">
         <v>6.6</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="60">
         <v>0.83878000000000008</v>
       </c>
       <c r="G62">
@@ -5521,7 +3652,8 @@
       <c r="H62">
         <v>6.8</v>
       </c>
-      <c r="J62" s="5">
+      <c r="I62" s="66"/>
+      <c r="J62" s="60">
         <f t="shared" si="9"/>
         <v>-2.5060000000000082E-2</v>
       </c>
@@ -5538,19 +3670,19 @@
       <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="62">
         <v>0.88797999999999999</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="7">
         <v>11.2</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="8">
         <v>0.8</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="60">
         <v>0.90058000000000005</v>
       </c>
       <c r="G63">
@@ -5559,7 +3691,8 @@
       <c r="H63">
         <v>1.2</v>
       </c>
-      <c r="J63" s="5">
+      <c r="I63" s="66"/>
+      <c r="J63" s="60">
         <f t="shared" si="9"/>
         <v>-1.2600000000000056E-2</v>
       </c>
@@ -5576,19 +3709,19 @@
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="62">
         <v>0.94869999999999999</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="7">
         <v>14.8</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="8">
         <v>4.2</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="60">
         <v>0.96264000000000005</v>
       </c>
       <c r="G64">
@@ -5597,7 +3730,8 @@
       <c r="H64">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J64" s="5">
+      <c r="I64" s="66"/>
+      <c r="J64" s="60">
         <f t="shared" si="9"/>
         <v>-1.3940000000000063E-2</v>
       </c>
@@ -5614,19 +3748,19 @@
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="62">
         <v>0.92312000000000016</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="7">
         <v>10.8</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="8">
         <v>5</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="60">
         <v>0.94891999999999999</v>
       </c>
       <c r="G65">
@@ -5635,7 +3769,8 @@
       <c r="H65">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J65" s="5">
+      <c r="I65" s="66"/>
+      <c r="J65" s="60">
         <f t="shared" si="9"/>
         <v>-2.5799999999999823E-2</v>
       </c>
@@ -5652,19 +3787,19 @@
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="62">
         <v>0.74240000000000006</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="7">
         <v>20</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="8">
         <v>6.6</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="60">
         <v>0.75853999999999999</v>
       </c>
       <c r="G66">
@@ -5673,7 +3808,8 @@
       <c r="H66">
         <v>10</v>
       </c>
-      <c r="J66" s="5">
+      <c r="I66" s="66"/>
+      <c r="J66" s="60">
         <f t="shared" si="9"/>
         <v>-1.6139999999999932E-2</v>
       </c>
@@ -5690,19 +3826,19 @@
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="62">
         <v>0.76169999999999993</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="7">
         <v>16.8</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="8">
         <v>4.8</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="60">
         <v>0.78142</v>
       </c>
       <c r="G67">
@@ -5711,7 +3847,8 @@
       <c r="H67">
         <v>5</v>
       </c>
-      <c r="J67" s="5">
+      <c r="I67" s="66"/>
+      <c r="J67" s="60">
         <f t="shared" si="9"/>
         <v>-1.9720000000000071E-2</v>
       </c>
@@ -5728,19 +3865,19 @@
       <c r="A68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="62">
         <v>0.92157999999999995</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="7">
         <v>15</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="8">
         <v>1.2</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="60">
         <v>0.94423999999999997</v>
       </c>
       <c r="G68">
@@ -5749,7 +3886,8 @@
       <c r="H68">
         <v>1</v>
       </c>
-      <c r="J68" s="5">
+      <c r="I68" s="66"/>
+      <c r="J68" s="60">
         <f t="shared" si="9"/>
         <v>-2.2660000000000013E-2</v>
       </c>
@@ -5766,19 +3904,19 @@
       <c r="A69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="62">
         <v>0.75543999999999989</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="7">
         <v>12.4</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="8">
         <v>3.4</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="60">
         <v>0.80137999999999998</v>
       </c>
       <c r="G69">
@@ -5787,7 +3925,8 @@
       <c r="H69">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J69" s="5">
+      <c r="I69" s="66"/>
+      <c r="J69" s="60">
         <f t="shared" si="9"/>
         <v>-4.5940000000000092E-2</v>
       </c>
@@ -5800,23 +3939,23 @@
         <v>-1.0000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="62">
         <v>0.95920000000000005</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="7">
         <v>18</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="8">
         <v>0.6</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="60">
         <v>0.95601999999999998</v>
       </c>
       <c r="G70">
@@ -5825,7 +3964,8 @@
       <c r="H70">
         <v>1.4</v>
       </c>
-      <c r="J70" s="5">
+      <c r="I70" s="66"/>
+      <c r="J70" s="64">
         <f t="shared" si="9"/>
         <v>3.1800000000000717E-3</v>
       </c>
@@ -5838,25 +3978,34 @@
         <v>-0.79999999999999993</v>
       </c>
     </row>
+    <row r="71" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="60">
+        <f>SUM(J57:J70)</f>
+        <v>-0.27228000000000008</v>
+      </c>
+    </row>
     <row r="76" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A76" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="35" t="s">
+      <c r="A76" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="61" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5865,10 +4014,10 @@
       <c r="D77" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="61" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -5877,7 +4026,8 @@
       <c r="H77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="I77" s="66"/>
+      <c r="J77" s="63" t="s">
         <v>34</v>
       </c>
       <c r="K77" s="4" t="s">
@@ -5891,19 +4041,19 @@
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="62">
         <v>0.93057999999999996</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="7">
         <v>14.2</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="8">
         <v>5.2</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="60">
         <v>0.93066000000000015</v>
       </c>
       <c r="G78">
@@ -5912,7 +4062,8 @@
       <c r="H78">
         <v>6</v>
       </c>
-      <c r="J78" s="5">
+      <c r="I78" s="66"/>
+      <c r="J78" s="60">
         <f t="shared" ref="J78:J91" si="12">B78-F78</f>
         <v>-8.0000000000191029E-5</v>
       </c>
@@ -5929,19 +4080,19 @@
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="62">
         <v>0.7879799999999999</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="7">
         <v>21.8</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="8">
         <v>6</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="60">
         <v>0.82050000000000001</v>
       </c>
       <c r="G79">
@@ -5950,7 +4101,8 @@
       <c r="H79">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J79" s="5">
+      <c r="I79" s="66"/>
+      <c r="J79" s="60">
         <f t="shared" si="12"/>
         <v>-3.2520000000000104E-2</v>
       </c>
@@ -5967,19 +4119,19 @@
       <c r="A80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="62">
         <v>0.80220000000000002</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="8">
         <v>5.2</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="60">
         <v>0.79600000000000004</v>
       </c>
       <c r="G80">
@@ -5988,7 +4140,8 @@
       <c r="H80">
         <v>4.2</v>
       </c>
-      <c r="J80" s="5">
+      <c r="I80" s="66"/>
+      <c r="J80" s="60">
         <f t="shared" si="12"/>
         <v>6.1999999999999833E-3</v>
       </c>
@@ -6005,19 +4158,19 @@
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="62">
         <v>0.99390000000000001</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="7">
         <v>10.8</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="8">
         <v>0.6</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="60">
         <v>0.99393999999999993</v>
       </c>
       <c r="G81">
@@ -6026,7 +4179,8 @@
       <c r="H81">
         <v>0.4</v>
       </c>
-      <c r="J81" s="5">
+      <c r="I81" s="66"/>
+      <c r="J81" s="60">
         <f t="shared" si="12"/>
         <v>-3.9999999999928981E-5</v>
       </c>
@@ -6043,19 +4197,19 @@
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="62">
         <v>0.98309999999999997</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="7">
         <v>13.2</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="8">
         <v>1.2</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="60">
         <v>0.95017999999999991</v>
       </c>
       <c r="G82">
@@ -6064,7 +4218,8 @@
       <c r="H82">
         <v>1</v>
       </c>
-      <c r="J82" s="5">
+      <c r="I82" s="66"/>
+      <c r="J82" s="60">
         <f t="shared" si="12"/>
         <v>3.292000000000006E-2</v>
       </c>
@@ -6081,19 +4236,19 @@
       <c r="A83" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="62">
         <v>0.84375999999999995</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="7">
         <v>20.8</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="8">
         <v>6</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="60">
         <v>0.83878000000000008</v>
       </c>
       <c r="G83">
@@ -6102,7 +4257,8 @@
       <c r="H83">
         <v>6.8</v>
       </c>
-      <c r="J83" s="5">
+      <c r="I83" s="66"/>
+      <c r="J83" s="60">
         <f t="shared" si="12"/>
         <v>4.9799999999998734E-3</v>
       </c>
@@ -6119,19 +4275,19 @@
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="62">
         <v>0.89296000000000009</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="7">
         <v>12</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="8">
         <v>1</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="60">
         <v>0.90058000000000005</v>
       </c>
       <c r="G84">
@@ -6140,7 +4296,8 @@
       <c r="H84">
         <v>1.2</v>
       </c>
-      <c r="J84" s="5">
+      <c r="I84" s="66"/>
+      <c r="J84" s="60">
         <f t="shared" si="12"/>
         <v>-7.6199999999999601E-3</v>
       </c>
@@ -6157,19 +4314,19 @@
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="62">
         <v>0.9650399999999999</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="7">
         <v>14.6</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="8">
         <v>5.2</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="60">
         <v>0.96264000000000005</v>
       </c>
       <c r="G85">
@@ -6178,7 +4335,8 @@
       <c r="H85">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J85" s="5">
+      <c r="I85" s="66"/>
+      <c r="J85" s="60">
         <f t="shared" si="12"/>
         <v>2.3999999999998467E-3</v>
       </c>
@@ -6195,19 +4353,19 @@
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="62">
         <v>0.93393999999999999</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="7">
         <v>10.8</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="8">
         <v>5.2</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="60">
         <v>0.94891999999999999</v>
       </c>
       <c r="G86">
@@ -6216,7 +4374,8 @@
       <c r="H86">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J86" s="5">
+      <c r="I86" s="66"/>
+      <c r="J86" s="60">
         <f t="shared" si="12"/>
         <v>-1.4979999999999993E-2</v>
       </c>
@@ -6233,19 +4392,19 @@
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="62">
         <v>0.74157999999999991</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="7">
         <v>19</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="8">
         <v>8.4</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="60">
         <v>0.75853999999999999</v>
       </c>
       <c r="G87">
@@ -6254,7 +4413,8 @@
       <c r="H87">
         <v>10</v>
       </c>
-      <c r="J87" s="5">
+      <c r="I87" s="66"/>
+      <c r="J87" s="60">
         <f t="shared" si="12"/>
         <v>-1.6960000000000086E-2</v>
       </c>
@@ -6271,19 +4431,19 @@
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="62">
         <v>0.7513200000000001</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="8">
         <v>5.6</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="60">
         <v>0.78142</v>
       </c>
       <c r="G88">
@@ -6292,7 +4452,8 @@
       <c r="H88">
         <v>5</v>
       </c>
-      <c r="J88" s="5">
+      <c r="I88" s="66"/>
+      <c r="J88" s="60">
         <f t="shared" si="12"/>
         <v>-3.0099999999999905E-2</v>
       </c>
@@ -6309,19 +4470,19 @@
       <c r="A89" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="62">
         <v>0.91867999999999994</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="7">
         <v>14.8</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="8">
         <v>1.8</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="60">
         <v>0.94423999999999997</v>
       </c>
       <c r="G89">
@@ -6330,7 +4491,8 @@
       <c r="H89">
         <v>1</v>
       </c>
-      <c r="J89" s="5">
+      <c r="I89" s="66"/>
+      <c r="J89" s="60">
         <f t="shared" si="12"/>
         <v>-2.5560000000000027E-2</v>
       </c>
@@ -6347,19 +4509,19 @@
       <c r="A90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="62">
         <v>0.80605999999999989</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="7">
         <v>13.4</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="8">
         <v>4.2</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="60">
         <v>0.80137999999999998</v>
       </c>
       <c r="G90">
@@ -6368,7 +4530,8 @@
       <c r="H90">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J90" s="5">
+      <c r="I90" s="66"/>
+      <c r="J90" s="60">
         <f t="shared" si="12"/>
         <v>4.6799999999999065E-3</v>
       </c>
@@ -6381,23 +4544,23 @@
         <v>-0.20000000000000018</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="62">
         <v>0.97148000000000001</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="7">
         <v>18</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="8">
         <v>1.6</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="60">
         <v>0.95601999999999998</v>
       </c>
       <c r="G91">
@@ -6406,7 +4569,8 @@
       <c r="H91">
         <v>1.4</v>
       </c>
-      <c r="J91" s="5">
+      <c r="I91" s="66"/>
+      <c r="J91" s="64">
         <f t="shared" si="12"/>
         <v>1.5460000000000029E-2</v>
       </c>
@@ -6419,8 +4583,624 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
+    <row r="92" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I92" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" s="65">
+        <f>SUM(J78:J91)</f>
+        <v>-6.1220000000000496E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="A94" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="66"/>
+      <c r="J95" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="62">
+        <v>0.92731999999999992</v>
+      </c>
+      <c r="C96" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="D96" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="60">
+        <v>0.93066000000000015</v>
+      </c>
+      <c r="G96">
+        <v>14</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96" s="66"/>
+      <c r="J96" s="60">
+        <f t="shared" ref="J96:J109" si="15">B96-F96</f>
+        <v>-3.3400000000002317E-3</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ref="K96:K109" si="16">C96-G96</f>
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="L96">
+        <f t="shared" ref="L96:L109" si="17">D96-H96</f>
+        <v>-0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="62">
+        <v>0.78935999999999995</v>
+      </c>
+      <c r="C97" s="7">
+        <v>21.2</v>
+      </c>
+      <c r="D97" s="8">
+        <v>6</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="60">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="G97">
+        <v>22.8</v>
+      </c>
+      <c r="H97">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I97" s="66"/>
+      <c r="J97" s="60">
+        <f t="shared" si="15"/>
+        <v>-3.1140000000000057E-2</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="16"/>
+        <v>-1.6000000000000014</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="17"/>
+        <v>1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="62">
+        <v>0.76917999999999997</v>
+      </c>
+      <c r="C98" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="D98" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="60">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G98">
+        <v>10.6</v>
+      </c>
+      <c r="H98">
+        <v>4.2</v>
+      </c>
+      <c r="I98" s="66"/>
+      <c r="J98" s="60">
+        <f t="shared" si="15"/>
+        <v>-2.6820000000000066E-2</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="16"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="62">
+        <v>0.9956799999999999</v>
+      </c>
+      <c r="C99" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="60">
+        <v>0.99393999999999993</v>
+      </c>
+      <c r="G99">
+        <v>10.4</v>
+      </c>
+      <c r="H99">
+        <v>0.4</v>
+      </c>
+      <c r="I99" s="66"/>
+      <c r="J99" s="60">
+        <f t="shared" si="15"/>
+        <v>1.7399999999999638E-3</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="16"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="62">
+        <v>0.95516000000000001</v>
+      </c>
+      <c r="C100" s="7">
+        <v>13</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="60">
+        <v>0.95017999999999991</v>
+      </c>
+      <c r="G100">
+        <v>13</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" s="66"/>
+      <c r="J100" s="60">
+        <f t="shared" si="15"/>
+        <v>4.9800000000000955E-3</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="62">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="C101" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="D101" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="60">
+        <v>0.83878000000000008</v>
+      </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
+      <c r="H101">
+        <v>6.8</v>
+      </c>
+      <c r="I101" s="66"/>
+      <c r="J101" s="60">
+        <f t="shared" si="15"/>
+        <v>-9.380000000000055E-3</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="16"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="17"/>
+        <v>0.60000000000000053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="62">
+        <v>0.90388000000000002</v>
+      </c>
+      <c r="C102" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="60">
+        <v>0.90058000000000005</v>
+      </c>
+      <c r="G102">
+        <v>12</v>
+      </c>
+      <c r="H102">
+        <v>1.2</v>
+      </c>
+      <c r="I102" s="66"/>
+      <c r="J102" s="60">
+        <f t="shared" si="15"/>
+        <v>3.2999999999999696E-3</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="16"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="17"/>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="62">
+        <v>0.96282000000000001</v>
+      </c>
+      <c r="C103" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="D103" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="60">
+        <v>0.96264000000000005</v>
+      </c>
+      <c r="G103">
+        <v>14.8</v>
+      </c>
+      <c r="H103">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I103" s="66"/>
+      <c r="J103" s="60">
+        <f t="shared" si="15"/>
+        <v>1.7999999999995797E-4</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="16"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="17"/>
+        <v>-0.39999999999999947</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="62">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="C104" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D104" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="60">
+        <v>0.94891999999999999</v>
+      </c>
+      <c r="G104">
+        <v>10.6</v>
+      </c>
+      <c r="H104">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I104" s="66"/>
+      <c r="J104" s="60">
+        <f t="shared" si="15"/>
+        <v>-3.8199999999999346E-3</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="16"/>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="17"/>
+        <v>0.60000000000000053</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" s="62">
+        <v>0.76362000000000008</v>
+      </c>
+      <c r="C105" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="D105" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="60">
+        <v>0.75853999999999999</v>
+      </c>
+      <c r="G105">
+        <v>21</v>
+      </c>
+      <c r="H105">
+        <v>10</v>
+      </c>
+      <c r="I105" s="66"/>
+      <c r="J105" s="60">
+        <f t="shared" si="15"/>
+        <v>5.0800000000000844E-3</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="16"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="17"/>
+        <v>-1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="62">
+        <v>0.74498000000000009</v>
+      </c>
+      <c r="C106" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="D106" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="60">
+        <v>0.78142</v>
+      </c>
+      <c r="G106">
+        <v>18</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106" s="66"/>
+      <c r="J106" s="60">
+        <f t="shared" si="15"/>
+        <v>-3.6439999999999917E-2</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="16"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="17"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="62">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="C107" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="D107" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" s="60">
+        <v>0.94423999999999997</v>
+      </c>
+      <c r="G107">
+        <v>15</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" s="66"/>
+      <c r="J107" s="60">
+        <f t="shared" si="15"/>
+        <v>-1.4739999999999975E-2</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="16"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="17"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="62">
+        <v>0.76840000000000008</v>
+      </c>
+      <c r="C108" s="7">
+        <v>13.6</v>
+      </c>
+      <c r="D108" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="60">
+        <v>0.80137999999999998</v>
+      </c>
+      <c r="G108">
+        <v>13.4</v>
+      </c>
+      <c r="H108">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I108" s="66"/>
+      <c r="J108" s="60">
+        <f t="shared" si="15"/>
+        <v>-3.2979999999999898E-2</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="16"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="17"/>
+        <v>0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="62">
+        <v>0.97197999999999996</v>
+      </c>
+      <c r="C109" s="7">
+        <v>18</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="60">
+        <v>0.95601999999999998</v>
+      </c>
+      <c r="G109">
+        <v>17.8</v>
+      </c>
+      <c r="H109">
+        <v>1.4</v>
+      </c>
+      <c r="I109" s="66"/>
+      <c r="J109" s="64">
+        <f t="shared" si="15"/>
+        <v>1.5959999999999974E-2</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="16"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="17"/>
+        <v>-0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I110" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J110" s="65">
+        <f>SUM(J96:J109)</f>
+        <v>-0.12742000000000009</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:H94"/>
     <mergeCell ref="E76:H76"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="E55:H55"/>
@@ -6433,70 +5213,86 @@
     <mergeCell ref="A36:D36"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L16">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K16">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K34">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L34">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K51">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L51">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:K70">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L70">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78:K91">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L78:L91">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96:K109">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6504,7 +5300,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L78:L91">
+  <conditionalFormatting sqref="L96:L109">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6515,4 +5311,3267 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>212</v>
+      </c>
+      <c r="G3" s="5">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0.881992</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P3" s="5">
+        <v>217</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>54</v>
+      </c>
+      <c r="R3" s="5">
+        <v>43</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="T3" s="36">
+        <v>0.89015900000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>212</v>
+      </c>
+      <c r="G4" s="5">
+        <v>53</v>
+      </c>
+      <c r="H4" s="5">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0.88091900000000001</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P4" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>64</v>
+      </c>
+      <c r="R4" s="5">
+        <v>55</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="T4" s="36">
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="F5" s="5">
+        <v>216</v>
+      </c>
+      <c r="G5" s="5">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5">
+        <v>48</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0.87656500000000004</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P5" s="5">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>40</v>
+      </c>
+      <c r="R5" s="5">
+        <v>46</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="T5" s="36">
+        <v>0.88409099999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="F6" s="5">
+        <v>221</v>
+      </c>
+      <c r="G6" s="5">
+        <v>46</v>
+      </c>
+      <c r="H6" s="5">
+        <v>47</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.62929999999999997</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0.88683500000000004</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P6" s="5">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>63</v>
+      </c>
+      <c r="R6" s="5">
+        <v>52</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.5917</v>
+      </c>
+      <c r="T6" s="36">
+        <v>0.88582399999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F7" s="12">
+        <v>200</v>
+      </c>
+      <c r="G7" s="12">
+        <v>57</v>
+      </c>
+      <c r="H7" s="12">
+        <v>59</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0.85829699999999998</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="P7" s="12">
+        <v>208</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>54</v>
+      </c>
+      <c r="R7" s="12">
+        <v>51</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T7" s="37">
+        <v>0.87727599999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15">
+        <f>MEDIAN(B3:B7)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" ref="C8:J8" si="0">MEDIAN(C3:C7)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J8" s="30">
+        <f t="shared" si="0"/>
+        <v>0.88091900000000001</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="10">
+        <f>MEDIAN(L3:L7)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" ref="M8:T8" si="1">MEDIAN(M3:M7)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T8" s="38">
+        <f t="shared" si="1"/>
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42">
+        <f>C8-M8</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D9" s="42">
+        <f t="shared" ref="D9" si="2">D8-N8</f>
+        <v>9.9999999999998979E-3</v>
+      </c>
+      <c r="E9" s="42">
+        <f t="shared" ref="E9" si="3">E8-O8</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="42">
+        <f t="shared" ref="F9" si="4">F8-P8</f>
+        <v>-4</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" ref="G9" si="5">G8-Q8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" ref="H9" si="6">H8-R8</f>
+        <v>-3</v>
+      </c>
+      <c r="I9" s="42">
+        <f t="shared" ref="I9" si="7">I8-S8</f>
+        <v>-3.1999999999999806E-3</v>
+      </c>
+      <c r="J9" s="43">
+        <f t="shared" ref="J9" si="8">J8-T8</f>
+        <v>-4.5209999999999972E-3</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="11" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="F13" s="5">
+        <v>102</v>
+      </c>
+      <c r="G13" s="5">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5">
+        <v>158</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0.58740099999999995</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P13" s="5">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>54</v>
+      </c>
+      <c r="R13" s="5">
+        <v>43</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="T13" s="36">
+        <v>0.89015900000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14" s="5">
+        <v>119</v>
+      </c>
+      <c r="G14" s="5">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5">
+        <v>144</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="J14" s="28">
+        <v>0.648254</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P14" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>64</v>
+      </c>
+      <c r="R14" s="5">
+        <v>55</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="T14" s="36">
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="F15" s="5">
+        <v>110</v>
+      </c>
+      <c r="G15" s="5">
+        <v>71</v>
+      </c>
+      <c r="H15" s="5">
+        <v>154</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="J15" s="28">
+        <v>0.60589800000000005</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P15" s="5">
+        <v>218</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>40</v>
+      </c>
+      <c r="R15" s="5">
+        <v>46</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="T15" s="36">
+        <v>0.88409099999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="F16" s="5">
+        <v>112</v>
+      </c>
+      <c r="G16" s="5">
+        <v>51</v>
+      </c>
+      <c r="H16" s="5">
+        <v>156</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="J16" s="28">
+        <v>0.65812999999999999</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P16" s="5">
+        <v>216</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>63</v>
+      </c>
+      <c r="R16" s="5">
+        <v>52</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.5917</v>
+      </c>
+      <c r="T16" s="36">
+        <v>0.88582399999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>110</v>
+      </c>
+      <c r="G17" s="12">
+        <v>72</v>
+      </c>
+      <c r="H17" s="12">
+        <v>149</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="J17" s="29">
+        <v>0.60148800000000002</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="P17" s="12">
+        <v>208</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>54</v>
+      </c>
+      <c r="R17" s="12">
+        <v>51</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T17" s="37">
+        <v>0.87727599999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10">
+        <f>MEDIAN(B13:B17)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:J18" si="9">MEDIAN(C13:C17)</f>
+        <v>0.61</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="9"/>
+        <v>0.42</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="9"/>
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="J18" s="32">
+        <f t="shared" si="9"/>
+        <v>0.60589800000000005</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="10">
+        <f>MEDIAN(L13:L17)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" ref="M18:T18" si="10">MEDIAN(M13:M17)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="10"/>
+        <v>0.81</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="10"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T18" s="38">
+        <f t="shared" si="10"/>
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42">
+        <f>C18-M18</f>
+        <v>-0.18000000000000005</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" ref="D19" si="11">D18-N18</f>
+        <v>-0.39000000000000007</v>
+      </c>
+      <c r="E19" s="42">
+        <f t="shared" ref="E19" si="12">E18-O18</f>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F19" s="42">
+        <f t="shared" ref="F19" si="13">F18-P18</f>
+        <v>-106</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" ref="G19" si="14">G18-Q18</f>
+        <v>17</v>
+      </c>
+      <c r="H19" s="42">
+        <f t="shared" ref="H19" si="15">H18-R18</f>
+        <v>103</v>
+      </c>
+      <c r="I19" s="42">
+        <f t="shared" ref="I19" si="16">I18-S18</f>
+        <v>-0.18349999999999994</v>
+      </c>
+      <c r="J19" s="43">
+        <f t="shared" ref="J19" si="17">J18-T18</f>
+        <v>-0.27954199999999996</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="39"/>
+    </row>
+    <row r="21" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="F23" s="5">
+        <v>207</v>
+      </c>
+      <c r="G23" s="5">
+        <v>66</v>
+      </c>
+      <c r="H23" s="5">
+        <v>53</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="J23" s="28">
+        <v>0.86950799999999995</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P23" s="5">
+        <v>217</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>54</v>
+      </c>
+      <c r="R23" s="5">
+        <v>43</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="T23" s="36">
+        <v>0.89015900000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="5">
+        <v>208</v>
+      </c>
+      <c r="G24" s="5">
+        <v>52</v>
+      </c>
+      <c r="H24" s="5">
+        <v>55</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="J24" s="28">
+        <v>0.88469299999999995</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P24" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>64</v>
+      </c>
+      <c r="R24" s="5">
+        <v>55</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="T24" s="36">
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="F25" s="5">
+        <v>221</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42</v>
+      </c>
+      <c r="H25" s="5">
+        <v>43</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="J25" s="28">
+        <v>0.89224899999999996</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P25" s="5">
+        <v>218</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>40</v>
+      </c>
+      <c r="R25" s="5">
+        <v>46</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="T25" s="36">
+        <v>0.88409099999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="5">
+        <v>216</v>
+      </c>
+      <c r="G26" s="5">
+        <v>58</v>
+      </c>
+      <c r="H26" s="5">
+        <v>52</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.60819999999999996</v>
+      </c>
+      <c r="J26" s="28">
+        <v>0.86895999999999995</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P26" s="5">
+        <v>216</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>63</v>
+      </c>
+      <c r="R26" s="5">
+        <v>52</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.5917</v>
+      </c>
+      <c r="T26" s="36">
+        <v>0.88582399999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F27" s="12">
+        <v>201</v>
+      </c>
+      <c r="G27" s="12">
+        <v>62</v>
+      </c>
+      <c r="H27" s="12">
+        <v>58</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="J27" s="29">
+        <v>0.85969399999999996</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="P27" s="12">
+        <v>208</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>54</v>
+      </c>
+      <c r="R27" s="12">
+        <v>51</v>
+      </c>
+      <c r="S27" s="12">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T27" s="37">
+        <v>0.87727599999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="10">
+        <f>MEDIAN(B23:B27)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28:J28" si="18">MEDIAN(C23:C27)</f>
+        <v>0.79</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="18"/>
+        <v>208</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="18"/>
+        <v>53</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="18"/>
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="J28" s="32">
+        <f t="shared" si="18"/>
+        <v>0.86950799999999995</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="10">
+        <f>MEDIAN(L23:L27)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" ref="M28:T28" si="19">MEDIAN(M23:M27)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="19"/>
+        <v>0.81</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="19"/>
+        <v>216</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="19"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T28" s="38">
+        <f t="shared" si="19"/>
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42">
+        <f>C28-M28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="42">
+        <f t="shared" ref="D29" si="20">D28-N28</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="E29" s="42">
+        <f t="shared" ref="E29" si="21">E28-O28</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="42">
+        <f t="shared" ref="F29" si="22">F28-P28</f>
+        <v>-8</v>
+      </c>
+      <c r="G29" s="42">
+        <f t="shared" ref="G29" si="23">G28-Q28</f>
+        <v>4</v>
+      </c>
+      <c r="H29" s="42">
+        <f t="shared" ref="H29" si="24">H28-R28</f>
+        <v>2</v>
+      </c>
+      <c r="I29" s="42">
+        <f t="shared" ref="I29" si="25">I28-S28</f>
+        <v>-3.5999999999999366E-3</v>
+      </c>
+      <c r="J29" s="43">
+        <f t="shared" ref="J29" si="26">J28-T28</f>
+        <v>-1.5932000000000057E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="F33" s="5">
+        <v>205</v>
+      </c>
+      <c r="G33" s="5">
+        <v>53</v>
+      </c>
+      <c r="H33" s="5">
+        <v>55</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.60019999999999996</v>
+      </c>
+      <c r="J33" s="28">
+        <v>0.85517200000000004</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P33" s="5">
+        <v>217</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>54</v>
+      </c>
+      <c r="R33" s="5">
+        <v>43</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="T33" s="36">
+        <v>0.89015900000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="F34" s="5">
+        <v>201</v>
+      </c>
+      <c r="G34" s="5">
+        <v>47</v>
+      </c>
+      <c r="H34" s="5">
+        <v>62</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="J34" s="28">
+        <v>0.86718600000000001</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P34" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>64</v>
+      </c>
+      <c r="R34" s="5">
+        <v>55</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="T34" s="36">
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="F35" s="5">
+        <v>212</v>
+      </c>
+      <c r="G35" s="5">
+        <v>49</v>
+      </c>
+      <c r="H35" s="5">
+        <v>52</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="J35" s="28">
+        <v>0.86414999999999997</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P35" s="5">
+        <v>218</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>40</v>
+      </c>
+      <c r="R35" s="5">
+        <v>46</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="T35" s="36">
+        <v>0.88409099999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F36" s="5">
+        <v>218</v>
+      </c>
+      <c r="G36" s="5">
+        <v>46</v>
+      </c>
+      <c r="H36" s="5">
+        <v>50</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="J36" s="28">
+        <v>0.86713600000000002</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P36" s="5">
+        <v>216</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>63</v>
+      </c>
+      <c r="R36" s="5">
+        <v>52</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.5917</v>
+      </c>
+      <c r="T36" s="36">
+        <v>0.88582399999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F37" s="12">
+        <v>202</v>
+      </c>
+      <c r="G37" s="12">
+        <v>50</v>
+      </c>
+      <c r="H37" s="12">
+        <v>57</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="J37" s="29">
+        <v>0.871892</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M37" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="N37" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="P37" s="12">
+        <v>208</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>54</v>
+      </c>
+      <c r="R37" s="12">
+        <v>51</v>
+      </c>
+      <c r="S37" s="12">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T37" s="37">
+        <v>0.87727599999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="10">
+        <f>MEDIAN(B33:B37)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:J38" si="27">MEDIAN(C33:C37)</f>
+        <v>0.81</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="27"/>
+        <v>0.79</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="27"/>
+        <v>0.79</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="27"/>
+        <v>205</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="27"/>
+        <v>55</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="27"/>
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="J38" s="32">
+        <f t="shared" si="27"/>
+        <v>0.86713600000000002</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="10">
+        <f>MEDIAN(L33:L37)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" ref="M38:T38" si="28">MEDIAN(M33:M37)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N38" s="16">
+        <f t="shared" si="28"/>
+        <v>0.81</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="28"/>
+        <v>0.8</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" si="28"/>
+        <v>216</v>
+      </c>
+      <c r="Q38" s="10">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" si="28"/>
+        <v>51</v>
+      </c>
+      <c r="S38" s="10">
+        <f t="shared" si="28"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T38" s="38">
+        <f t="shared" si="28"/>
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42">
+        <f>C38-M38</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="D39" s="42">
+        <f t="shared" ref="D39" si="29">D38-N38</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E39" s="42">
+        <f t="shared" ref="E39" si="30">E38-O38</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F39" s="42">
+        <f t="shared" ref="F39" si="31">F38-P38</f>
+        <v>-11</v>
+      </c>
+      <c r="G39" s="42">
+        <f t="shared" ref="G39" si="32">G38-Q38</f>
+        <v>-5</v>
+      </c>
+      <c r="H39" s="42">
+        <f t="shared" ref="H39" si="33">H38-R38</f>
+        <v>4</v>
+      </c>
+      <c r="I39" s="42">
+        <f t="shared" ref="I39" si="34">I38-S38</f>
+        <v>5.0999999999999934E-3</v>
+      </c>
+      <c r="J39" s="43">
+        <f t="shared" ref="J39" si="35">J38-T38</f>
+        <v>-1.8303999999999987E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F43" s="5">
+        <v>214</v>
+      </c>
+      <c r="G43" s="5">
+        <v>62</v>
+      </c>
+      <c r="H43" s="5">
+        <v>46</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="J43" s="28">
+        <v>0.88597400000000004</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P43" s="5">
+        <v>217</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>54</v>
+      </c>
+      <c r="R43" s="5">
+        <v>43</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="T43" s="36">
+        <v>0.89015900000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="F44" s="5">
+        <v>210</v>
+      </c>
+      <c r="G44" s="5">
+        <v>57</v>
+      </c>
+      <c r="H44" s="5">
+        <v>53</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="J44" s="28">
+        <v>0.88109400000000004</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P44" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>64</v>
+      </c>
+      <c r="R44" s="5">
+        <v>55</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="T44" s="36">
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F45" s="5">
+        <v>213</v>
+      </c>
+      <c r="G45" s="5">
+        <v>44</v>
+      </c>
+      <c r="H45" s="5">
+        <v>51</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="J45" s="28">
+        <v>0.87643499999999996</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P45" s="5">
+        <v>218</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>40</v>
+      </c>
+      <c r="R45" s="5">
+        <v>46</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="T45" s="36">
+        <v>0.88409099999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="F46" s="5">
+        <v>213</v>
+      </c>
+      <c r="G46" s="5">
+        <v>65</v>
+      </c>
+      <c r="H46" s="5">
+        <v>55</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.5857</v>
+      </c>
+      <c r="J46" s="28">
+        <v>0.88539299999999999</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P46" s="5">
+        <v>216</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>63</v>
+      </c>
+      <c r="R46" s="5">
+        <v>52</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0.5917</v>
+      </c>
+      <c r="T46" s="36">
+        <v>0.88582399999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F47" s="12">
+        <v>199</v>
+      </c>
+      <c r="G47" s="12">
+        <v>58</v>
+      </c>
+      <c r="H47" s="12">
+        <v>60</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="J47" s="29">
+        <v>0.87203699999999995</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M47" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="N47" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O47" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="P47" s="12">
+        <v>208</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>54</v>
+      </c>
+      <c r="R47" s="12">
+        <v>51</v>
+      </c>
+      <c r="S47" s="12">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T47" s="37">
+        <v>0.87727599999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="10">
+        <f>MEDIAN(B43:B47)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" ref="C48:J48" si="36">MEDIAN(C43:C47)</f>
+        <v>0.78</v>
+      </c>
+      <c r="D48" s="16">
+        <f t="shared" si="36"/>
+        <v>0.8</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="36"/>
+        <v>0.79</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="36"/>
+        <v>213</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="36"/>
+        <v>58</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="36"/>
+        <v>53</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="36"/>
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="J48" s="32">
+        <f t="shared" si="36"/>
+        <v>0.88109400000000004</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="10">
+        <f>MEDIAN(L43:L47)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" ref="M48:T48" si="37">MEDIAN(M43:M47)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N48" s="16">
+        <f t="shared" si="37"/>
+        <v>0.81</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" si="37"/>
+        <v>0.8</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="37"/>
+        <v>216</v>
+      </c>
+      <c r="Q48" s="10">
+        <f t="shared" si="37"/>
+        <v>54</v>
+      </c>
+      <c r="R48" s="10">
+        <f t="shared" si="37"/>
+        <v>51</v>
+      </c>
+      <c r="S48" s="10">
+        <f t="shared" si="37"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T48" s="38">
+        <f t="shared" si="37"/>
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42">
+        <f>C48-M48</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="D49" s="42">
+        <f t="shared" ref="D49" si="38">D48-N48</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="E49" s="42">
+        <f t="shared" ref="E49" si="39">E48-O48</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F49" s="42">
+        <f t="shared" ref="F49" si="40">F48-P48</f>
+        <v>-3</v>
+      </c>
+      <c r="G49" s="42">
+        <f t="shared" ref="G49" si="41">G48-Q48</f>
+        <v>4</v>
+      </c>
+      <c r="H49" s="42">
+        <f t="shared" ref="H49" si="42">H48-R48</f>
+        <v>2</v>
+      </c>
+      <c r="I49" s="42">
+        <f t="shared" ref="I49" si="43">I48-S48</f>
+        <v>-1.4299999999999979E-2</v>
+      </c>
+      <c r="J49" s="43">
+        <f t="shared" ref="J49" si="44">J48-T48</f>
+        <v>-4.345999999999961E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="A51" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="F53" s="5">
+        <v>215</v>
+      </c>
+      <c r="G53" s="5">
+        <v>69</v>
+      </c>
+      <c r="H53" s="5">
+        <v>45</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.5665</v>
+      </c>
+      <c r="J53" s="55">
+        <v>0.88320600000000005</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P53" s="5">
+        <v>217</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>54</v>
+      </c>
+      <c r="R53" s="5">
+        <v>43</v>
+      </c>
+      <c r="S53" s="5">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="T53" s="36">
+        <v>0.89015900000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="F54" s="5">
+        <v>204</v>
+      </c>
+      <c r="G54" s="5">
+        <v>55</v>
+      </c>
+      <c r="H54" s="5">
+        <v>59</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="J54" s="55">
+        <v>0.881803</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P54" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>64</v>
+      </c>
+      <c r="R54" s="5">
+        <v>55</v>
+      </c>
+      <c r="S54" s="5">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="T54" s="36">
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F55" s="5">
+        <v>211</v>
+      </c>
+      <c r="G55" s="5">
+        <v>54</v>
+      </c>
+      <c r="H55" s="5">
+        <v>53</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="J55" s="55">
+        <v>0.86524000000000001</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P55" s="5">
+        <v>218</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>40</v>
+      </c>
+      <c r="R55" s="5">
+        <v>46</v>
+      </c>
+      <c r="S55" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="T55" s="36">
+        <v>0.88409099999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F56" s="5">
+        <v>219</v>
+      </c>
+      <c r="G56" s="5">
+        <v>49</v>
+      </c>
+      <c r="H56" s="5">
+        <v>49</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="J56" s="55">
+        <v>0.88288199999999994</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P56" s="5">
+        <v>216</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>63</v>
+      </c>
+      <c r="R56" s="5">
+        <v>52</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0.5917</v>
+      </c>
+      <c r="T56" s="36">
+        <v>0.88582399999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F57" s="12">
+        <v>205</v>
+      </c>
+      <c r="G57" s="12">
+        <v>64</v>
+      </c>
+      <c r="H57" s="12">
+        <v>54</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="J57" s="57">
+        <v>0.86414899999999994</v>
+      </c>
+      <c r="K57" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M57" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="N57" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O57" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="P57" s="12">
+        <v>208</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>54</v>
+      </c>
+      <c r="R57" s="12">
+        <v>51</v>
+      </c>
+      <c r="S57" s="12">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T57" s="37">
+        <v>0.87727599999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="10">
+        <f>MEDIAN(B53:B57)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" ref="C58:J58" si="45">MEDIAN(C53:C57)</f>
+        <v>0.79</v>
+      </c>
+      <c r="D58" s="16">
+        <f t="shared" si="45"/>
+        <v>0.8</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="45"/>
+        <v>0.79</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="45"/>
+        <v>211</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="45"/>
+        <v>55</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" si="45"/>
+        <v>53</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" si="45"/>
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="J58" s="32">
+        <f t="shared" si="45"/>
+        <v>0.881803</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="10">
+        <f>MEDIAN(L53:L57)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M58" s="10">
+        <f t="shared" ref="M58:T58" si="46">MEDIAN(M53:M57)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N58" s="16">
+        <f t="shared" si="46"/>
+        <v>0.81</v>
+      </c>
+      <c r="O58" s="10">
+        <f t="shared" si="46"/>
+        <v>0.8</v>
+      </c>
+      <c r="P58" s="10">
+        <f t="shared" si="46"/>
+        <v>216</v>
+      </c>
+      <c r="Q58" s="10">
+        <f t="shared" si="46"/>
+        <v>54</v>
+      </c>
+      <c r="R58" s="10">
+        <f t="shared" si="46"/>
+        <v>51</v>
+      </c>
+      <c r="S58" s="10">
+        <f t="shared" si="46"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T58" s="38">
+        <f t="shared" si="46"/>
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42">
+        <f>C58-M58</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="42">
+        <f t="shared" ref="D59" si="47">D58-N58</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="E59" s="42">
+        <f t="shared" ref="E59" si="48">E58-O58</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F59" s="42">
+        <f t="shared" ref="F59" si="49">F58-P58</f>
+        <v>-5</v>
+      </c>
+      <c r="G59" s="42">
+        <f t="shared" ref="G59" si="50">G58-Q58</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="42">
+        <f t="shared" ref="H59" si="51">H58-R58</f>
+        <v>2</v>
+      </c>
+      <c r="I59" s="42">
+        <f t="shared" ref="I59" si="52">I58-S58</f>
+        <v>-1.9100000000000006E-2</v>
+      </c>
+      <c r="J59" s="43">
+        <f t="shared" ref="J59" si="53">J58-T58</f>
+        <v>-3.6370000000000013E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="K51:T51"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:T21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C19:F19 I19:J19">
+    <cfRule type="cellIs" dxfId="39" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:F19 I19:J19">
+    <cfRule type="cellIs" dxfId="38" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="cellIs" dxfId="37" priority="26" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9 I9:J9">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9 I9:J9">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:F29 I29:J29">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:F29 I29:J29">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:F39 I39:J39">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:F39 I39:J39">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:H39">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:F49 I49:J49">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:F49 I49:J49">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:H49">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:F59 I59:J59">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:F59 I59:J59">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:H59">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Comparision.xlsx
+++ b/Comparision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/dev/uni/vision/AISSCV_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1876B56-F7BF-494D-B1A9-1B91A9EB2EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F3E22F-29D7-2F49-BCB3-77CFCD922BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20700" yWindow="1360" windowWidth="27320" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="65">
   <si>
     <t>run</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>No Label, Occlude 50% smaller size, batch size 3500</t>
   </si>
+  <si>
+    <t>5 transformations</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +237,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +311,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -550,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -670,6 +678,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,14 +707,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="92">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1903,18 +1959,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2508,18 +2564,18 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="61" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -3113,18 +3169,18 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="61" t="s">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -3718,18 +3774,18 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="61" t="s">
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -4323,18 +4379,18 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="61"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="61" t="s">
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -4928,18 +4984,18 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A94" s="61" t="s">
+      <c r="A94" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="61" t="s">
+      <c r="B94" s="63"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -5537,18 +5593,18 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A112" s="61" t="s">
+      <c r="A112" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="61" t="s">
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F112" s="61"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="44" t="s">
@@ -6142,18 +6198,18 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A131" s="61" t="s">
+      <c r="A131" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B131" s="61"/>
-      <c r="C131" s="61"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="61" t="s">
+      <c r="B131" s="63"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F131" s="61"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="63"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
@@ -6747,18 +6803,18 @@
       </c>
     </row>
     <row r="149" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A149" s="61" t="s">
+      <c r="A149" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B149" s="61"/>
-      <c r="C149" s="61"/>
-      <c r="D149" s="62"/>
-      <c r="E149" s="61" t="s">
+      <c r="B149" s="63"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F149" s="61"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="61"/>
+      <c r="F149" s="63"/>
+      <c r="G149" s="63"/>
+      <c r="H149" s="63"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="59" t="s">
@@ -7352,18 +7408,18 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A167" s="61" t="s">
+      <c r="A167" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B167" s="61"/>
-      <c r="C167" s="61"/>
-      <c r="D167" s="62"/>
-      <c r="E167" s="61" t="s">
+      <c r="B167" s="63"/>
+      <c r="C167" s="63"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F167" s="61"/>
-      <c r="G167" s="61"/>
-      <c r="H167" s="61"/>
+      <c r="F167" s="63"/>
+      <c r="G167" s="63"/>
+      <c r="H167" s="63"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
@@ -7957,18 +8013,18 @@
       </c>
     </row>
     <row r="185" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A185" s="61" t="s">
+      <c r="A185" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B185" s="61"/>
-      <c r="C185" s="61"/>
-      <c r="D185" s="62"/>
-      <c r="E185" s="61" t="s">
+      <c r="B185" s="63"/>
+      <c r="C185" s="63"/>
+      <c r="D185" s="64"/>
+      <c r="E185" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F185" s="61"/>
-      <c r="G185" s="61"/>
-      <c r="H185" s="61"/>
+      <c r="F185" s="63"/>
+      <c r="G185" s="63"/>
+      <c r="H185" s="63"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
@@ -8563,12 +8619,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="E167:H167"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="E185:H185"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:H94"/>
     <mergeCell ref="E76:H76"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="E55:H55"/>
@@ -8579,6 +8629,12 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="E167:H167"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="E185:H185"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:H94"/>
     <mergeCell ref="E149:H149"/>
     <mergeCell ref="A149:D149"/>
     <mergeCell ref="A131:D131"/>
@@ -8587,178 +8643,178 @@
     <mergeCell ref="E112:H112"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L16">
-    <cfRule type="cellIs" dxfId="87" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K16">
-    <cfRule type="cellIs" dxfId="85" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K34">
-    <cfRule type="cellIs" dxfId="83" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L34">
-    <cfRule type="cellIs" dxfId="81" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K51">
-    <cfRule type="cellIs" dxfId="79" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L51">
-    <cfRule type="cellIs" dxfId="77" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:K70">
-    <cfRule type="cellIs" dxfId="75" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L70">
-    <cfRule type="cellIs" dxfId="73" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78:K91">
-    <cfRule type="cellIs" dxfId="71" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L78:L91">
-    <cfRule type="cellIs" dxfId="69" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96:K109">
-    <cfRule type="cellIs" dxfId="67" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96:L109">
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J114:K127">
-    <cfRule type="cellIs" dxfId="63" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L114:L127">
-    <cfRule type="cellIs" dxfId="61" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133:K146">
-    <cfRule type="cellIs" dxfId="59" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L133:L146">
-    <cfRule type="cellIs" dxfId="57" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151:K164">
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L151:L164">
-    <cfRule type="cellIs" dxfId="53" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169:K182">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L169:L182">
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187:K200">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L187:L200">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8772,10 +8828,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8787,30 +8843,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="69" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9196,7 +9252,7 @@
         <f t="shared" ref="C8:J8" si="0">MEDIAN(C3:C7)</f>
         <v>0.8</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="61">
         <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
@@ -9235,11 +9291,11 @@
         <f t="shared" ref="M8:T8" si="1">MEDIAN(M3:M7)</f>
         <v>0.79</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="62">
         <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-      <c r="O8" s="71">
+      <c r="O8" s="62">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -9313,30 +9369,30 @@
       <c r="T9" s="39"/>
     </row>
     <row r="11" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9839,30 +9895,30 @@
       <c r="T19" s="39"/>
     </row>
     <row r="21" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="66" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
@@ -10355,30 +10411,30 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="66" t="s">
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -10871,30 +10927,30 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="66" t="s">
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
@@ -11387,30 +11443,30 @@
       </c>
     </row>
     <row r="51" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="66" t="s">
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
@@ -11903,30 +11959,30 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="66" t="s">
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="69"/>
+      <c r="S63" s="69"/>
+      <c r="T63" s="69"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="44" t="s">
@@ -12419,30 +12475,30 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A74" s="66" t="s">
+      <c r="A74" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="66" t="s">
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="69"/>
+      <c r="S74" s="69"/>
+      <c r="T74" s="69"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -12935,30 +12991,30 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A85" s="63" t="s">
+      <c r="A85" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="66" t="s">
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="67"/>
-      <c r="S85" s="67"/>
-      <c r="T85" s="67"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="69"/>
+      <c r="O85" s="69"/>
+      <c r="P85" s="69"/>
+      <c r="Q85" s="69"/>
+      <c r="R85" s="69"/>
+      <c r="S85" s="69"/>
+      <c r="T85" s="69"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="59" t="s">
@@ -13451,30 +13507,30 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A96" s="63" t="s">
+      <c r="A96" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="64"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="66" t="s">
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L96" s="67"/>
-      <c r="M96" s="67"/>
-      <c r="N96" s="67"/>
-      <c r="O96" s="67"/>
-      <c r="P96" s="67"/>
-      <c r="Q96" s="67"/>
-      <c r="R96" s="67"/>
-      <c r="S96" s="67"/>
-      <c r="T96" s="67"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
+      <c r="O96" s="69"/>
+      <c r="P96" s="69"/>
+      <c r="Q96" s="69"/>
+      <c r="R96" s="69"/>
+      <c r="S96" s="69"/>
+      <c r="T96" s="69"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -13967,30 +14023,30 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A107" s="63" t="s">
+      <c r="A107" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="66" t="s">
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L107" s="67"/>
-      <c r="M107" s="67"/>
-      <c r="N107" s="67"/>
-      <c r="O107" s="67"/>
-      <c r="P107" s="67"/>
-      <c r="Q107" s="67"/>
-      <c r="R107" s="67"/>
-      <c r="S107" s="67"/>
-      <c r="T107" s="67"/>
+      <c r="L107" s="69"/>
+      <c r="M107" s="69"/>
+      <c r="N107" s="69"/>
+      <c r="O107" s="69"/>
+      <c r="P107" s="69"/>
+      <c r="Q107" s="69"/>
+      <c r="R107" s="69"/>
+      <c r="S107" s="69"/>
+      <c r="T107" s="69"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
@@ -14082,7 +14138,7 @@
       <c r="I109">
         <v>0.57689999999999997</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="51">
         <v>0.85596499999999998</v>
       </c>
       <c r="K109" s="19" t="s">
@@ -14144,7 +14200,7 @@
       <c r="I110">
         <v>0.64649999999999996</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="51">
         <v>0.91751099999999997</v>
       </c>
       <c r="K110" s="19" t="s">
@@ -14206,7 +14262,7 @@
       <c r="I111">
         <v>0.6008</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="51">
         <v>0.86405200000000004</v>
       </c>
       <c r="K111" s="19" t="s">
@@ -14268,7 +14324,7 @@
       <c r="I112">
         <v>0.63200000000000001</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="51">
         <v>0.93553500000000001</v>
       </c>
       <c r="K112" s="19" t="s">
@@ -14330,7 +14386,7 @@
       <c r="I113">
         <v>0.62780000000000002</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="51">
         <v>0.87906499999999999</v>
       </c>
       <c r="K113" s="20" t="s">
@@ -14392,7 +14448,7 @@
       <c r="I114">
         <v>0.61639999999999995</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="51">
         <v>0.89048000000000005</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -14463,7 +14519,7 @@
       <c r="I115">
         <v>0.57740000000000002</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="51">
         <v>0.900536</v>
       </c>
     </row>
@@ -14495,7 +14551,7 @@
       <c r="I116">
         <v>0.62429999999999997</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="51">
         <v>0.88706300000000005</v>
       </c>
     </row>
@@ -14527,7 +14583,7 @@
       <c r="I117">
         <v>0.61650000000000005</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="51">
         <v>0.89604200000000001</v>
       </c>
     </row>
@@ -14559,7 +14615,7 @@
       <c r="I118">
         <v>0.59919999999999995</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="51">
         <v>0.905003</v>
       </c>
     </row>
@@ -14572,12 +14628,12 @@
         <v>0.25</v>
       </c>
       <c r="C119" s="10">
-        <f t="shared" ref="C119:J119" si="91">MEDIAN(C114:C118)</f>
+        <f>MEDIAN(C109:C118)</f>
         <v>0.8</v>
       </c>
-      <c r="D119" s="16">
-        <f t="shared" si="91"/>
-        <v>0.81</v>
+      <c r="D119" s="10">
+        <f t="shared" ref="D119:J119" si="91">MEDIAN(D109:D118)</f>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E119" s="10">
         <f t="shared" si="91"/>
@@ -14585,23 +14641,23 @@
       </c>
       <c r="F119" s="10">
         <f t="shared" si="91"/>
-        <v>106</v>
+        <v>108.5</v>
       </c>
       <c r="G119" s="10">
         <f t="shared" si="91"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H119" s="10">
         <f t="shared" si="91"/>
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="I119" s="10">
         <f t="shared" si="91"/>
-        <v>0.61639999999999995</v>
-      </c>
-      <c r="J119" s="32">
+        <v>0.61644999999999994</v>
+      </c>
+      <c r="J119" s="73">
         <f t="shared" si="91"/>
-        <v>0.89604200000000001</v>
+        <v>0.89326100000000008</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
@@ -14615,7 +14671,7 @@
       </c>
       <c r="D120" s="42">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>4.9999999999998934E-3</v>
       </c>
       <c r="E120" s="42">
         <f t="shared" si="92"/>
@@ -14626,21 +14682,535 @@
       <c r="H120" s="42"/>
       <c r="I120" s="43">
         <f>I119-S114</f>
-        <v>1.2199999999999989E-2</v>
+        <v>1.2249999999999983E-2</v>
       </c>
       <c r="J120" s="43">
         <f>J119-T114</f>
-        <v>1.0602E-2</v>
+        <v>7.8210000000000779E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="K124" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124" s="69"/>
+      <c r="M124" s="69"/>
+      <c r="N124" s="69"/>
+      <c r="O124" s="69"/>
+      <c r="P124" s="69"/>
+      <c r="Q124" s="69"/>
+      <c r="R124" s="69"/>
+      <c r="S124" s="69"/>
+      <c r="T124" s="69"/>
+    </row>
+    <row r="125" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="A125" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="66"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T125" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="J126" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K126" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L126" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M126" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O126" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P126" s="5">
+        <v>217</v>
+      </c>
+      <c r="Q126" s="5">
+        <v>54</v>
+      </c>
+      <c r="R126" s="5">
+        <v>43</v>
+      </c>
+      <c r="S126" s="5">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="T126" s="36">
+        <v>0.89015900000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D127" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F127" s="5">
+        <v>219</v>
+      </c>
+      <c r="G127" s="5">
+        <v>54</v>
+      </c>
+      <c r="H127" s="5">
+        <v>41</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="J127" s="75">
+        <v>0.89701200000000003</v>
+      </c>
+      <c r="K127" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L127" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M127" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N127" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="O127" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P127" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q127" s="5">
+        <v>64</v>
+      </c>
+      <c r="R127" s="5">
+        <v>55</v>
+      </c>
+      <c r="S127" s="5">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="T127" s="36">
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D128" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F128" s="5">
+        <v>214</v>
+      </c>
+      <c r="G128" s="5">
+        <v>61</v>
+      </c>
+      <c r="H128" s="5">
+        <v>49</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J128" s="75">
+        <v>0.89201299999999994</v>
+      </c>
+      <c r="K128" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L128" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M128" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N128" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="O128" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P128" s="5">
+        <v>218</v>
+      </c>
+      <c r="Q128" s="5">
+        <v>40</v>
+      </c>
+      <c r="R128" s="5">
+        <v>46</v>
+      </c>
+      <c r="S128" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="T128" s="36">
+        <v>0.88409099999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D129" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="F129" s="5">
+        <v>222</v>
+      </c>
+      <c r="G129" s="5">
+        <v>44</v>
+      </c>
+      <c r="H129" s="5">
+        <v>42</v>
+      </c>
+      <c r="I129" s="5">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="J129" s="75">
+        <v>0.89219300000000001</v>
+      </c>
+      <c r="K129" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L129" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M129" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="N129" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="O129" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P129" s="5">
+        <v>216</v>
+      </c>
+      <c r="Q129" s="5">
+        <v>63</v>
+      </c>
+      <c r="R129" s="5">
+        <v>52</v>
+      </c>
+      <c r="S129" s="5">
+        <v>0.5917</v>
+      </c>
+      <c r="T129" s="36">
+        <v>0.88582399999999994</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="D130" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F130" s="5">
+        <v>223</v>
+      </c>
+      <c r="G130" s="5">
+        <v>53</v>
+      </c>
+      <c r="H130" s="5">
+        <v>45</v>
+      </c>
+      <c r="I130" s="5">
+        <v>0.62109999999999999</v>
+      </c>
+      <c r="J130" s="75">
+        <v>0.89007400000000003</v>
+      </c>
+      <c r="K130" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M130" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="N130" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O130" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="P130" s="12">
+        <v>208</v>
+      </c>
+      <c r="Q130" s="12">
+        <v>54</v>
+      </c>
+      <c r="R130" s="12">
+        <v>51</v>
+      </c>
+      <c r="S130" s="12">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T130" s="37">
+        <v>0.87727599999999994</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="D131" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="F131" s="5">
+        <v>199</v>
+      </c>
+      <c r="G131" s="5">
+        <v>59</v>
+      </c>
+      <c r="H131" s="5">
+        <v>60</v>
+      </c>
+      <c r="I131" s="5">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="J131" s="75">
+        <v>0.874251</v>
+      </c>
+      <c r="K131" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L131" s="10">
+        <f>MEDIAN(L126:L130)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M131" s="10">
+        <f t="shared" ref="M131:T131" si="93">MEDIAN(M126:M130)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N131" s="16">
+        <f t="shared" si="93"/>
+        <v>0.81</v>
+      </c>
+      <c r="O131" s="10">
+        <f t="shared" si="93"/>
+        <v>0.8</v>
+      </c>
+      <c r="P131" s="10">
+        <f t="shared" si="93"/>
+        <v>216</v>
+      </c>
+      <c r="Q131" s="10">
+        <f t="shared" si="93"/>
+        <v>54</v>
+      </c>
+      <c r="R131" s="10">
+        <f t="shared" si="93"/>
+        <v>51</v>
+      </c>
+      <c r="S131" s="10">
+        <f t="shared" si="93"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="T131" s="38">
+        <f t="shared" si="93"/>
+        <v>0.88544</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="10">
+        <f>MEDIAN(B127:B131)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C132" s="10">
+        <f t="shared" ref="C132:J132" si="94">MEDIAN(C127:C131)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D132" s="16">
+        <f t="shared" si="94"/>
+        <v>0.83</v>
+      </c>
+      <c r="E132" s="10">
+        <f t="shared" si="94"/>
+        <v>0.82</v>
+      </c>
+      <c r="F132" s="10">
+        <f t="shared" si="94"/>
+        <v>219</v>
+      </c>
+      <c r="G132" s="10">
+        <f t="shared" si="94"/>
+        <v>54</v>
+      </c>
+      <c r="H132" s="10">
+        <f t="shared" si="94"/>
+        <v>45</v>
+      </c>
+      <c r="I132" s="10">
+        <f t="shared" si="94"/>
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="J132" s="32">
+        <f t="shared" si="94"/>
+        <v>0.89201299999999994</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" s="41"/>
+      <c r="C133" s="42">
+        <f>C132-M131</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D133" s="42">
+        <f>D132-N131</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="E133" s="42">
+        <f>E132-O131</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="F133" s="42">
+        <f>F132-P131</f>
+        <v>3</v>
+      </c>
+      <c r="G133" s="42">
+        <f>G132-Q131</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="42">
+        <f>H132-R131</f>
+        <v>-6</v>
+      </c>
+      <c r="I133" s="42">
+        <f>I132-S131</f>
+        <v>4.2000000000000925E-3</v>
+      </c>
+      <c r="J133" s="43">
+        <f>J132-T131</f>
+        <v>6.57299999999994E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A96:J96"/>
-    <mergeCell ref="K96:T96"/>
-    <mergeCell ref="A107:J107"/>
-    <mergeCell ref="K107:T107"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="K51:T51"/>
+  <mergeCells count="24">
+    <mergeCell ref="K124:T124"/>
+    <mergeCell ref="A125:J125"/>
     <mergeCell ref="A41:J41"/>
     <mergeCell ref="K41:T41"/>
     <mergeCell ref="K31:T31"/>
@@ -14651,6 +15221,12 @@
     <mergeCell ref="K11:T11"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="K21:T21"/>
+    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="K96:T96"/>
+    <mergeCell ref="A107:J107"/>
+    <mergeCell ref="K107:T107"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="K51:T51"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="K85:T85"/>
     <mergeCell ref="A74:J74"/>
@@ -14659,16 +15235,34 @@
     <mergeCell ref="A63:J63"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:F19 I19:J19">
-    <cfRule type="cellIs" dxfId="43" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19 I19:J19">
-    <cfRule type="cellIs" dxfId="42" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="50" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9 I9:J9">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9 I9:J9">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
     <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14676,17 +15270,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9 I9:J9">
+  <conditionalFormatting sqref="C29:F29 I29:J29">
     <cfRule type="cellIs" dxfId="39" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9 I9:J9">
+  <conditionalFormatting sqref="C29:F29 I29:J29">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9">
+  <conditionalFormatting sqref="G29:H29">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14694,17 +15288,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:F29 I29:J29">
+  <conditionalFormatting sqref="C39:F39 I39:J39">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:F29 I29:J29">
+  <conditionalFormatting sqref="C39:F39 I39:J39">
     <cfRule type="cellIs" dxfId="34" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
+  <conditionalFormatting sqref="G39:H39">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14712,17 +15306,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:F39 I39:J39">
+  <conditionalFormatting sqref="C49:F49 I49:J49">
     <cfRule type="cellIs" dxfId="31" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:F39 I39:J39">
+  <conditionalFormatting sqref="C49:F49 I49:J49">
     <cfRule type="cellIs" dxfId="30" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39">
+  <conditionalFormatting sqref="G49:H49">
     <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14730,35 +15324,35 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:F49 I49:J49">
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:F49 I49:J49">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49:H49">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="greaterThan">
+  <conditionalFormatting sqref="C59:F59 I59:J59">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:F59 I59:J59">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:H59">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:F71 I71:J71">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:F59 I59:J59">
+  <conditionalFormatting sqref="C71:F71 I71:J71">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:H59">
+  <conditionalFormatting sqref="G71:H71">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14766,17 +15360,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:F71 I71:J71">
+  <conditionalFormatting sqref="C82:F82 I82:J82">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:F71 I71:J71">
+  <conditionalFormatting sqref="C82:F82 I82:J82">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:H71">
+  <conditionalFormatting sqref="G82:H82">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14784,17 +15378,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:F82 I82:J82">
+  <conditionalFormatting sqref="C93:F93 I93:J93">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:F82 I82:J82">
+  <conditionalFormatting sqref="C93:F93 I93:J93">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:H82">
+  <conditionalFormatting sqref="G93:H93">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14802,17 +15396,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93:F93 I93:J93">
+  <conditionalFormatting sqref="C104:F104 I104:J104">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93:F93 I93:J93">
+  <conditionalFormatting sqref="C104:F104 I104:J104">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G93:H93">
+  <conditionalFormatting sqref="G104:H104">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14820,17 +15414,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104:F104 I104:J104">
+  <conditionalFormatting sqref="I120:J120 C120:F120">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104:F104 I104:J104">
+  <conditionalFormatting sqref="I120:J120 C120:F120">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104:H104">
+  <conditionalFormatting sqref="G120:H120">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14838,17 +15432,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I120:J120 C120:F120">
+  <conditionalFormatting sqref="C133:F133 I133:J133">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I120:J120 C120:F120">
+  <conditionalFormatting sqref="C133:F133 I133:J133">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G120:H120">
+  <conditionalFormatting sqref="G133:H133">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Comparision.xlsx
+++ b/Comparision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/dev/uni/vision/AISSCV_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C80C37-72C4-8C40-93FC-3CE6191D6330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF60D5-4489-004B-9735-32AE42575189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1340" windowWidth="43740" windowHeight="29460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26040" yWindow="2940" windowWidth="43740" windowHeight="29460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -291,9 +291,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -735,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -864,33 +865,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -911,12 +885,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -930,9 +898,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -948,6 +913,44 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,18 +2235,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="66" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2841,18 +2844,18 @@
       <c r="J18" s="56"/>
     </row>
     <row r="20" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="66" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3450,18 +3453,18 @@
       <c r="J37" s="56"/>
     </row>
     <row r="39" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="66" t="s">
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -4055,18 +4058,18 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="66" t="s">
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4660,18 +4663,18 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A75" s="66" t="s">
+      <c r="A75" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="66" t="s">
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5265,18 +5268,18 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A96" s="66" t="s">
+      <c r="A96" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="66" t="s">
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
+      <c r="F96" s="96"/>
+      <c r="G96" s="96"/>
+      <c r="H96" s="96"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -5870,18 +5873,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A114" s="66" t="s">
+      <c r="A114" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="66" t="s">
+      <c r="B114" s="96"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="97"/>
+      <c r="E114" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
+      <c r="F114" s="96"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="96"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -6479,18 +6482,18 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A132" s="66" t="s">
+      <c r="A132" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B132" s="66"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="66" t="s">
+      <c r="B132" s="96"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="97"/>
+      <c r="E132" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F132" s="66"/>
-      <c r="G132" s="66"/>
-      <c r="H132" s="66"/>
+      <c r="F132" s="96"/>
+      <c r="G132" s="96"/>
+      <c r="H132" s="96"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="44" t="s">
@@ -7084,18 +7087,18 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A151" s="66" t="s">
+      <c r="A151" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="66"/>
-      <c r="C151" s="66"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="66" t="s">
+      <c r="B151" s="96"/>
+      <c r="C151" s="96"/>
+      <c r="D151" s="97"/>
+      <c r="E151" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F151" s="66"/>
-      <c r="G151" s="66"/>
-      <c r="H151" s="66"/>
+      <c r="F151" s="96"/>
+      <c r="G151" s="96"/>
+      <c r="H151" s="96"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -7689,18 +7692,18 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A169" s="66" t="s">
+      <c r="A169" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B169" s="66"/>
-      <c r="C169" s="66"/>
-      <c r="D169" s="67"/>
-      <c r="E169" s="66" t="s">
+      <c r="B169" s="96"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="97"/>
+      <c r="E169" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F169" s="66"/>
-      <c r="G169" s="66"/>
-      <c r="H169" s="66"/>
+      <c r="F169" s="96"/>
+      <c r="G169" s="96"/>
+      <c r="H169" s="96"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="59" t="s">
@@ -8294,18 +8297,18 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A187" s="66" t="s">
+      <c r="A187" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B187" s="66"/>
-      <c r="C187" s="66"/>
-      <c r="D187" s="67"/>
-      <c r="E187" s="66" t="s">
+      <c r="B187" s="96"/>
+      <c r="C187" s="96"/>
+      <c r="D187" s="97"/>
+      <c r="E187" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F187" s="66"/>
-      <c r="G187" s="66"/>
-      <c r="H187" s="66"/>
+      <c r="F187" s="96"/>
+      <c r="G187" s="96"/>
+      <c r="H187" s="96"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
@@ -8899,18 +8902,18 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="87" t="s">
+      <c r="A205" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B205" s="87"/>
-      <c r="C205" s="87"/>
-      <c r="D205" s="88"/>
-      <c r="E205" s="66" t="s">
+      <c r="B205" s="98"/>
+      <c r="C205" s="98"/>
+      <c r="D205" s="99"/>
+      <c r="E205" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F205" s="66"/>
-      <c r="G205" s="66"/>
-      <c r="H205" s="66"/>
+      <c r="F205" s="96"/>
+      <c r="G205" s="96"/>
+      <c r="H205" s="96"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
@@ -9505,6 +9508,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="A56:D56"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A187:D187"/>
@@ -9521,14 +9532,6 @@
     <mergeCell ref="E132:H132"/>
     <mergeCell ref="E96:H96"/>
     <mergeCell ref="A96:D96"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L16">
     <cfRule type="cellIs" dxfId="95" priority="51" operator="lessThan">
@@ -9734,8 +9737,8 @@
   </sheetPr>
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9747,30 +9750,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="74" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10145,81 +10148,81 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="67">
         <f>STDEV(B3:B7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="67">
         <f t="shared" ref="C8:J8" si="0">STDEV(C3:C7)</f>
         <v>2.049390153191917E-2</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="67">
         <f t="shared" si="0"/>
         <v>2.1679483388678773E-2</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="67">
         <f t="shared" si="0"/>
         <v>1.8165902124584927E-2</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="67">
         <f t="shared" si="0"/>
         <v>7.758865896508329</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="67">
         <f t="shared" si="0"/>
         <v>5.2440442408507577</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="67">
         <f t="shared" si="0"/>
         <v>4.9295030175464944</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="67">
         <f t="shared" si="0"/>
         <v>1.4274277564906727E-2</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="68">
         <f t="shared" si="0"/>
         <v>1.1033659311398028E-2</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="76">
+      <c r="L8" s="67">
         <f>STDEV(L3:L7)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="67">
         <f t="shared" ref="M8" si="1">STDEV(M3:M7)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N8" s="76">
+      <c r="N8" s="67">
         <f t="shared" ref="N8" si="2">STDEV(N3:N7)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="67">
         <f t="shared" ref="O8" si="3">STDEV(O3:O7)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="67">
         <f t="shared" ref="P8" si="4">STDEV(P3:P7)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="67">
         <f t="shared" ref="Q8" si="5">STDEV(Q3:Q7)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R8" s="76">
+      <c r="R8" s="67">
         <f t="shared" ref="R8" si="6">STDEV(R3:R7)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S8" s="76">
+      <c r="S8" s="67">
         <f t="shared" ref="S8" si="7">STDEV(S3:S7)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="67">
         <f t="shared" ref="T8" si="8">STDEV(T3:T7)</f>
         <v>4.6636223582104362E-3</v>
       </c>
@@ -10353,8 +10356,8 @@
       <c r="T10" s="39"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -10375,8 +10378,8 @@
       <c r="T11" s="39"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -10397,30 +10400,30 @@
       <c r="T12" s="39"/>
     </row>
     <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="68" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
@@ -10733,7 +10736,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="12">
@@ -10760,7 +10763,7 @@
       <c r="I19" s="12">
         <v>0.59309999999999996</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="76">
         <v>0.874251</v>
       </c>
       <c r="K19" s="20" t="s">
@@ -10795,82 +10798,82 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="76">
-        <f>STDEV(B15:B19)</f>
+      <c r="B20" s="67">
+        <f t="shared" ref="B20:J20" si="18">STDEV(B15:B19)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="76">
-        <f>STDEV(C15:C19)</f>
+      <c r="C20" s="67">
+        <f t="shared" si="18"/>
         <v>2.3874672772626629E-2</v>
       </c>
-      <c r="D20" s="76">
-        <f>STDEV(D15:D19)</f>
+      <c r="D20" s="67">
+        <f t="shared" si="18"/>
         <v>2.9495762407505226E-2</v>
       </c>
-      <c r="E20" s="76">
-        <f>STDEV(E15:E19)</f>
+      <c r="E20" s="67">
+        <f t="shared" si="18"/>
         <v>2.645751311064588E-2</v>
       </c>
-      <c r="F20" s="76">
-        <f>STDEV(F15:F19)</f>
+      <c r="F20" s="67">
+        <f t="shared" si="18"/>
         <v>9.8132563402776753</v>
       </c>
-      <c r="G20" s="76">
-        <f>STDEV(G15:G19)</f>
+      <c r="G20" s="67">
+        <f t="shared" si="18"/>
         <v>6.6105975524153502</v>
       </c>
-      <c r="H20" s="76">
-        <f>STDEV(H15:H19)</f>
+      <c r="H20" s="67">
+        <f t="shared" si="18"/>
         <v>7.700649323271394</v>
       </c>
-      <c r="I20" s="76">
-        <f>STDEV(I15:I19)</f>
+      <c r="I20" s="67">
+        <f t="shared" si="18"/>
         <v>2.0475912678071306E-2</v>
       </c>
-      <c r="J20" s="77">
-        <f>STDEV(J15:J19)</f>
+      <c r="J20" s="68">
+        <f t="shared" si="18"/>
         <v>8.6904123780175164E-3</v>
       </c>
-      <c r="K20" s="78" t="s">
+      <c r="K20" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="76">
-        <f>STDEV(L15:L19)</f>
+      <c r="L20" s="67">
+        <f t="shared" ref="L20:T20" si="19">STDEV(L15:L19)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="76">
-        <f>STDEV(M15:M19)</f>
+      <c r="M20" s="67">
+        <f t="shared" si="19"/>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N20" s="76">
-        <f>STDEV(N15:N19)</f>
+      <c r="N20" s="67">
+        <f t="shared" si="19"/>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O20" s="76">
-        <f>STDEV(O15:O19)</f>
+      <c r="O20" s="67">
+        <f t="shared" si="19"/>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P20" s="76">
-        <f>STDEV(P15:P19)</f>
+      <c r="P20" s="67">
+        <f t="shared" si="19"/>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q20" s="76">
-        <f>STDEV(Q15:Q19)</f>
+      <c r="Q20" s="67">
+        <f t="shared" si="19"/>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R20" s="76">
-        <f>STDEV(R15:R19)</f>
+      <c r="R20" s="67">
+        <f t="shared" si="19"/>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S20" s="76">
-        <f>STDEV(S15:S19)</f>
+      <c r="S20" s="67">
+        <f t="shared" si="19"/>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T20" s="76">
-        <f>STDEV(T15:T19)</f>
+      <c r="T20" s="67">
+        <f t="shared" si="19"/>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -10879,78 +10882,78 @@
         <v>15</v>
       </c>
       <c r="B21" s="10">
-        <f>MEDIAN(B15:B19)</f>
+        <f t="shared" ref="B21:J21" si="20">MEDIAN(B15:B19)</f>
         <v>0.25</v>
       </c>
       <c r="C21" s="10">
-        <f>MEDIAN(C15:C19)</f>
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
       <c r="D21" s="16">
-        <f>MEDIAN(D15:D19)</f>
+        <f t="shared" si="20"/>
         <v>0.83</v>
       </c>
       <c r="E21" s="10">
-        <f>MEDIAN(E15:E19)</f>
+        <f t="shared" si="20"/>
         <v>0.82</v>
       </c>
       <c r="F21" s="10">
-        <f>MEDIAN(F15:F19)</f>
+        <f t="shared" si="20"/>
         <v>219</v>
       </c>
       <c r="G21" s="10">
-        <f>MEDIAN(G15:G19)</f>
+        <f t="shared" si="20"/>
         <v>54</v>
       </c>
       <c r="H21" s="10">
-        <f>MEDIAN(H15:H19)</f>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="I21" s="10">
-        <f>MEDIAN(I15:I19)</f>
+        <f t="shared" si="20"/>
         <v>0.60840000000000005</v>
       </c>
       <c r="J21" s="32">
-        <f>MEDIAN(J15:J19)</f>
+        <f t="shared" si="20"/>
         <v>0.89201299999999994</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="10">
-        <f>MEDIAN(L15:L19)</f>
+        <f t="shared" ref="L21:T21" si="21">MEDIAN(L15:L19)</f>
         <v>0.25</v>
       </c>
       <c r="M21" s="10">
-        <f>MEDIAN(M15:M19)</f>
+        <f t="shared" si="21"/>
         <v>0.79</v>
       </c>
       <c r="N21" s="16">
-        <f>MEDIAN(N15:N19)</f>
+        <f t="shared" si="21"/>
         <v>0.81</v>
       </c>
       <c r="O21" s="10">
-        <f>MEDIAN(O15:O19)</f>
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
       <c r="P21" s="10">
-        <f>MEDIAN(P15:P19)</f>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="Q21" s="10">
-        <f>MEDIAN(Q15:Q19)</f>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
       <c r="R21" s="10">
-        <f>MEDIAN(R15:R19)</f>
+        <f t="shared" si="21"/>
         <v>51</v>
       </c>
       <c r="S21" s="10">
-        <f>MEDIAN(S15:S19)</f>
+        <f t="shared" si="21"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T21" s="38">
-        <f>MEDIAN(T15:T19)</f>
+        <f t="shared" si="21"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -10960,41 +10963,41 @@
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42">
-        <f>C21-M21</f>
+        <f t="shared" ref="C22:J22" si="22">C21-M21</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="D22" s="42">
-        <f>D21-N21</f>
+        <f t="shared" si="22"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="E22" s="42">
-        <f>E21-O21</f>
+        <f t="shared" si="22"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="F22" s="42">
-        <f>F21-P21</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="G22" s="42">
-        <f>G21-Q21</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H22" s="42">
-        <f>H21-R21</f>
+        <f t="shared" si="22"/>
         <v>-6</v>
       </c>
       <c r="I22" s="42">
-        <f>I21-S21</f>
+        <f t="shared" si="22"/>
         <v>4.2000000000000925E-3</v>
       </c>
       <c r="J22" s="43">
-        <f>J21-T21</f>
+        <f t="shared" si="22"/>
         <v>6.57299999999994E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -11015,30 +11018,30 @@
       <c r="T23" s="39"/>
     </row>
     <row r="25" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="68" t="s">
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -11413,82 +11416,82 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="67">
         <f>STDEV(B27:B31)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="76">
-        <f t="shared" ref="C32" si="18">STDEV(C27:C31)</f>
+      <c r="C32" s="67">
+        <f t="shared" ref="C32" si="23">STDEV(C27:C31)</f>
         <v>4.9799598391954913E-2</v>
       </c>
-      <c r="D32" s="76">
-        <f t="shared" ref="D32" si="19">STDEV(D27:D31)</f>
+      <c r="D32" s="67">
+        <f t="shared" ref="D32" si="24">STDEV(D27:D31)</f>
         <v>2.1213203435596427E-2</v>
       </c>
-      <c r="E32" s="76">
-        <f t="shared" ref="E32" si="20">STDEV(E27:E31)</f>
+      <c r="E32" s="67">
+        <f t="shared" ref="E32" si="25">STDEV(E27:E31)</f>
         <v>3.0495901363953842E-2</v>
       </c>
-      <c r="F32" s="76">
-        <f t="shared" ref="F32" si="21">STDEV(F27:F31)</f>
+      <c r="F32" s="67">
+        <f t="shared" ref="F32" si="26">STDEV(F27:F31)</f>
         <v>6.06630035524124</v>
       </c>
-      <c r="G32" s="76">
-        <f t="shared" ref="G32" si="22">STDEV(G27:G31)</f>
+      <c r="G32" s="67">
+        <f t="shared" ref="G32" si="27">STDEV(G27:G31)</f>
         <v>10.620734437881412</v>
       </c>
-      <c r="H32" s="76">
-        <f t="shared" ref="H32" si="23">STDEV(H27:H31)</f>
+      <c r="H32" s="67">
+        <f t="shared" ref="H32" si="28">STDEV(H27:H31)</f>
         <v>5.6745043836444422</v>
       </c>
-      <c r="I32" s="76">
-        <f t="shared" ref="I32" si="24">STDEV(I27:I31)</f>
+      <c r="I32" s="67">
+        <f t="shared" ref="I32" si="29">STDEV(I27:I31)</f>
         <v>3.7871981727921236E-2</v>
       </c>
-      <c r="J32" s="77">
-        <f t="shared" ref="J32" si="25">STDEV(J27:J31)</f>
+      <c r="J32" s="68">
+        <f t="shared" ref="J32" si="30">STDEV(J27:J31)</f>
         <v>3.1049019778408463E-2</v>
       </c>
-      <c r="K32" s="78" t="s">
+      <c r="K32" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="76">
+      <c r="L32" s="67">
         <f>STDEV(L27:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="76">
-        <f t="shared" ref="M32" si="26">STDEV(M27:M31)</f>
+      <c r="M32" s="67">
+        <f t="shared" ref="M32" si="31">STDEV(M27:M31)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N32" s="76">
-        <f t="shared" ref="N32" si="27">STDEV(N27:N31)</f>
+      <c r="N32" s="67">
+        <f t="shared" ref="N32" si="32">STDEV(N27:N31)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O32" s="76">
-        <f t="shared" ref="O32" si="28">STDEV(O27:O31)</f>
+      <c r="O32" s="67">
+        <f t="shared" ref="O32" si="33">STDEV(O27:O31)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P32" s="76">
-        <f t="shared" ref="P32" si="29">STDEV(P27:P31)</f>
+      <c r="P32" s="67">
+        <f t="shared" ref="P32" si="34">STDEV(P27:P31)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q32" s="76">
-        <f t="shared" ref="Q32" si="30">STDEV(Q27:Q31)</f>
+      <c r="Q32" s="67">
+        <f t="shared" ref="Q32" si="35">STDEV(Q27:Q31)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R32" s="76">
-        <f t="shared" ref="R32" si="31">STDEV(R27:R31)</f>
+      <c r="R32" s="67">
+        <f t="shared" ref="R32" si="36">STDEV(R27:R31)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S32" s="76">
-        <f t="shared" ref="S32" si="32">STDEV(S27:S31)</f>
+      <c r="S32" s="67">
+        <f t="shared" ref="S32" si="37">STDEV(S27:S31)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T32" s="76">
-        <f t="shared" ref="T32" si="33">STDEV(T27:T31)</f>
+      <c r="T32" s="67">
+        <f t="shared" ref="T32" si="38">STDEV(T27:T31)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -11501,35 +11504,35 @@
         <v>0.25</v>
       </c>
       <c r="C33" s="10">
-        <f t="shared" ref="C33:J33" si="34">MEDIAN(C27:C31)</f>
+        <f t="shared" ref="C33:J33" si="39">MEDIAN(C27:C31)</f>
         <v>0.61</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.42</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>110</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>71</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>154</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.42070000000000002</v>
       </c>
       <c r="J33" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.60589800000000005</v>
       </c>
       <c r="K33" s="13" t="s">
@@ -11540,35 +11543,35 @@
         <v>0.25</v>
       </c>
       <c r="M33" s="10">
-        <f t="shared" ref="M33:T33" si="35">MEDIAN(M27:M31)</f>
+        <f t="shared" ref="M33:T33" si="40">MEDIAN(M27:M31)</f>
         <v>0.79</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.81</v>
       </c>
       <c r="O33" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.8</v>
       </c>
       <c r="P33" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>216</v>
       </c>
       <c r="Q33" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>54</v>
       </c>
       <c r="R33" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>51</v>
       </c>
       <c r="S33" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T33" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -11582,31 +11585,31 @@
         <v>-0.18000000000000005</v>
       </c>
       <c r="D34" s="42">
-        <f t="shared" ref="D34" si="36">D33-N33</f>
+        <f t="shared" ref="D34" si="41">D33-N33</f>
         <v>-0.39000000000000007</v>
       </c>
       <c r="E34" s="42">
-        <f t="shared" ref="E34" si="37">E33-O33</f>
+        <f t="shared" ref="E34" si="42">E33-O33</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="F34" s="42">
-        <f t="shared" ref="F34" si="38">F33-P33</f>
+        <f t="shared" ref="F34" si="43">F33-P33</f>
         <v>-106</v>
       </c>
       <c r="G34" s="42">
-        <f t="shared" ref="G34" si="39">G33-Q33</f>
+        <f t="shared" ref="G34" si="44">G33-Q33</f>
         <v>17</v>
       </c>
       <c r="H34" s="42">
-        <f t="shared" ref="H34" si="40">H33-R33</f>
+        <f t="shared" ref="H34" si="45">H33-R33</f>
         <v>103</v>
       </c>
       <c r="I34" s="42">
-        <f t="shared" ref="I34" si="41">I33-S33</f>
+        <f t="shared" ref="I34" si="46">I33-S33</f>
         <v>-0.18349999999999994</v>
       </c>
       <c r="J34" s="43">
-        <f t="shared" ref="J34" si="42">J33-T33</f>
+        <f t="shared" ref="J34" si="47">J33-T33</f>
         <v>-0.27954199999999996</v>
       </c>
       <c r="K34" s="25"/>
@@ -11621,30 +11624,30 @@
       <c r="T34" s="39"/>
     </row>
     <row r="36" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="68" t="s">
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
@@ -12019,82 +12022,82 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="67">
         <f>STDEV(B38:B42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="76">
-        <f t="shared" ref="C43" si="43">STDEV(C38:C42)</f>
+      <c r="C43" s="67">
+        <f t="shared" ref="C43" si="48">STDEV(C38:C42)</f>
         <v>3.3166247903553984E-2</v>
       </c>
-      <c r="D43" s="76">
-        <f t="shared" ref="D43" si="44">STDEV(D38:D42)</f>
+      <c r="D43" s="67">
+        <f t="shared" ref="D43" si="49">STDEV(D38:D42)</f>
         <v>2.3021728866442652E-2</v>
       </c>
-      <c r="E43" s="76">
-        <f t="shared" ref="E43" si="45">STDEV(E38:E42)</f>
+      <c r="E43" s="67">
+        <f t="shared" ref="E43" si="50">STDEV(E38:E42)</f>
         <v>2.6832815729997458E-2</v>
       </c>
-      <c r="F43" s="76">
-        <f t="shared" ref="F43" si="46">STDEV(F38:F42)</f>
+      <c r="F43" s="67">
+        <f t="shared" ref="F43" si="51">STDEV(F38:F42)</f>
         <v>7.893034904268446</v>
       </c>
-      <c r="G43" s="76">
-        <f t="shared" ref="G43" si="47">STDEV(G38:G42)</f>
+      <c r="G43" s="67">
+        <f t="shared" ref="G43" si="52">STDEV(G38:G42)</f>
         <v>9.3808315196468595</v>
       </c>
-      <c r="H43" s="76">
-        <f t="shared" ref="H43" si="48">STDEV(H38:H42)</f>
+      <c r="H43" s="67">
+        <f t="shared" ref="H43" si="53">STDEV(H38:H42)</f>
         <v>5.6302753041036988</v>
       </c>
-      <c r="I43" s="76">
-        <f t="shared" ref="I43" si="49">STDEV(I38:I42)</f>
+      <c r="I43" s="67">
+        <f t="shared" ref="I43" si="54">STDEV(I38:I42)</f>
         <v>2.4854919030244324E-2</v>
       </c>
-      <c r="J43" s="77">
-        <f t="shared" ref="J43" si="50">STDEV(J38:J42)</f>
+      <c r="J43" s="68">
+        <f t="shared" ref="J43" si="55">STDEV(J38:J42)</f>
         <v>1.3156722490802944E-2</v>
       </c>
-      <c r="K43" s="78" t="s">
+      <c r="K43" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L43" s="76">
+      <c r="L43" s="67">
         <f>STDEV(L38:L42)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="76">
-        <f t="shared" ref="M43" si="51">STDEV(M38:M42)</f>
+      <c r="M43" s="67">
+        <f t="shared" ref="M43" si="56">STDEV(M38:M42)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N43" s="76">
-        <f t="shared" ref="N43" si="52">STDEV(N38:N42)</f>
+      <c r="N43" s="67">
+        <f t="shared" ref="N43" si="57">STDEV(N38:N42)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O43" s="76">
-        <f t="shared" ref="O43" si="53">STDEV(O38:O42)</f>
+      <c r="O43" s="67">
+        <f t="shared" ref="O43" si="58">STDEV(O38:O42)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P43" s="76">
-        <f t="shared" ref="P43" si="54">STDEV(P38:P42)</f>
+      <c r="P43" s="67">
+        <f t="shared" ref="P43" si="59">STDEV(P38:P42)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q43" s="76">
-        <f t="shared" ref="Q43" si="55">STDEV(Q38:Q42)</f>
+      <c r="Q43" s="67">
+        <f t="shared" ref="Q43" si="60">STDEV(Q38:Q42)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R43" s="76">
-        <f t="shared" ref="R43" si="56">STDEV(R38:R42)</f>
+      <c r="R43" s="67">
+        <f t="shared" ref="R43" si="61">STDEV(R38:R42)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S43" s="76">
-        <f t="shared" ref="S43" si="57">STDEV(S38:S42)</f>
+      <c r="S43" s="67">
+        <f t="shared" ref="S43" si="62">STDEV(S38:S42)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T43" s="76">
-        <f t="shared" ref="T43" si="58">STDEV(T38:T42)</f>
+      <c r="T43" s="67">
+        <f t="shared" ref="T43" si="63">STDEV(T38:T42)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -12107,35 +12110,35 @@
         <v>0.25</v>
       </c>
       <c r="C44" s="10">
-        <f t="shared" ref="C44:J44" si="59">MEDIAN(C38:C42)</f>
+        <f t="shared" ref="C44:J44" si="64">MEDIAN(C38:C42)</f>
         <v>0.79</v>
       </c>
       <c r="D44" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.8</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.8</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>208</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>58</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>53</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.60060000000000002</v>
       </c>
       <c r="J44" s="32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.86950799999999995</v>
       </c>
       <c r="K44" s="13" t="s">
@@ -12146,35 +12149,35 @@
         <v>0.25</v>
       </c>
       <c r="M44" s="10">
-        <f t="shared" ref="M44:T44" si="60">MEDIAN(M38:M42)</f>
+        <f t="shared" ref="M44:T44" si="65">MEDIAN(M38:M42)</f>
         <v>0.79</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.81</v>
       </c>
       <c r="O44" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.8</v>
       </c>
       <c r="P44" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>216</v>
       </c>
       <c r="Q44" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>54</v>
       </c>
       <c r="R44" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>51</v>
       </c>
       <c r="S44" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T44" s="38">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -12188,59 +12191,59 @@
         <v>0</v>
       </c>
       <c r="D45" s="42">
-        <f t="shared" ref="D45" si="61">D44-N44</f>
+        <f t="shared" ref="D45" si="66">D44-N44</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="E45" s="42">
-        <f t="shared" ref="E45" si="62">E44-O44</f>
+        <f t="shared" ref="E45" si="67">E44-O44</f>
         <v>0</v>
       </c>
       <c r="F45" s="42">
-        <f t="shared" ref="F45" si="63">F44-P44</f>
+        <f t="shared" ref="F45" si="68">F44-P44</f>
         <v>-8</v>
       </c>
       <c r="G45" s="42">
-        <f t="shared" ref="G45" si="64">G44-Q44</f>
+        <f t="shared" ref="G45" si="69">G44-Q44</f>
         <v>4</v>
       </c>
       <c r="H45" s="42">
-        <f t="shared" ref="H45" si="65">H44-R44</f>
+        <f t="shared" ref="H45" si="70">H44-R44</f>
         <v>2</v>
       </c>
       <c r="I45" s="42">
-        <f t="shared" ref="I45" si="66">I44-S44</f>
+        <f t="shared" ref="I45" si="71">I44-S44</f>
         <v>-3.5999999999999366E-3</v>
       </c>
       <c r="J45" s="43">
-        <f t="shared" ref="J45" si="67">J44-T44</f>
+        <f t="shared" ref="J45" si="72">J44-T44</f>
         <v>-1.5932000000000057E-2</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="68" t="s">
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="69"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="101"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -12615,82 +12618,82 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="67">
         <f>STDEV(B49:B53)</f>
         <v>0</v>
       </c>
-      <c r="C54" s="76">
-        <f t="shared" ref="C54" si="68">STDEV(C49:C53)</f>
+      <c r="C54" s="67">
+        <f t="shared" ref="C54" si="73">STDEV(C49:C53)</f>
         <v>1.4832396974191298E-2</v>
       </c>
-      <c r="D54" s="76">
-        <f t="shared" ref="D54" si="69">STDEV(D49:D53)</f>
+      <c r="D54" s="67">
+        <f t="shared" ref="D54" si="74">STDEV(D49:D53)</f>
         <v>1.923538406167136E-2</v>
       </c>
-      <c r="E54" s="76">
-        <f t="shared" ref="E54" si="70">STDEV(E49:E53)</f>
+      <c r="E54" s="67">
+        <f t="shared" ref="E54" si="75">STDEV(E49:E53)</f>
         <v>1.4142135623730925E-2</v>
       </c>
-      <c r="F54" s="76">
-        <f t="shared" ref="F54" si="71">STDEV(F49:F53)</f>
+      <c r="F54" s="67">
+        <f t="shared" ref="F54" si="76">STDEV(F49:F53)</f>
         <v>7.2318738927058179</v>
       </c>
-      <c r="G54" s="76">
-        <f t="shared" ref="G54" si="72">STDEV(G49:G53)</f>
+      <c r="G54" s="67">
+        <f t="shared" ref="G54" si="77">STDEV(G49:G53)</f>
         <v>2.7386127875258306</v>
       </c>
-      <c r="H54" s="76">
-        <f t="shared" ref="H54" si="73">STDEV(H49:H53)</f>
+      <c r="H54" s="67">
+        <f t="shared" ref="H54" si="78">STDEV(H49:H53)</f>
         <v>4.658325879540846</v>
       </c>
-      <c r="I54" s="76">
-        <f t="shared" ref="I54" si="74">STDEV(I49:I53)</f>
+      <c r="I54" s="67">
+        <f t="shared" ref="I54" si="79">STDEV(I49:I53)</f>
         <v>1.171806297986149E-2</v>
       </c>
-      <c r="J54" s="77">
-        <f t="shared" ref="J54" si="75">STDEV(J49:J53)</f>
+      <c r="J54" s="68">
+        <f t="shared" ref="J54" si="80">STDEV(J49:J53)</f>
         <v>6.2067580265384786E-3</v>
       </c>
-      <c r="K54" s="78" t="s">
+      <c r="K54" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L54" s="76">
+      <c r="L54" s="67">
         <f>STDEV(L49:L53)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="76">
-        <f t="shared" ref="M54" si="76">STDEV(M49:M53)</f>
+      <c r="M54" s="67">
+        <f t="shared" ref="M54" si="81">STDEV(M49:M53)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N54" s="76">
-        <f t="shared" ref="N54" si="77">STDEV(N49:N53)</f>
+      <c r="N54" s="67">
+        <f t="shared" ref="N54" si="82">STDEV(N49:N53)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O54" s="76">
-        <f t="shared" ref="O54" si="78">STDEV(O49:O53)</f>
+      <c r="O54" s="67">
+        <f t="shared" ref="O54" si="83">STDEV(O49:O53)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P54" s="76">
-        <f t="shared" ref="P54" si="79">STDEV(P49:P53)</f>
+      <c r="P54" s="67">
+        <f t="shared" ref="P54" si="84">STDEV(P49:P53)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q54" s="76">
-        <f t="shared" ref="Q54" si="80">STDEV(Q49:Q53)</f>
+      <c r="Q54" s="67">
+        <f t="shared" ref="Q54" si="85">STDEV(Q49:Q53)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R54" s="76">
-        <f t="shared" ref="R54" si="81">STDEV(R49:R53)</f>
+      <c r="R54" s="67">
+        <f t="shared" ref="R54" si="86">STDEV(R49:R53)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S54" s="76">
-        <f t="shared" ref="S54" si="82">STDEV(S49:S53)</f>
+      <c r="S54" s="67">
+        <f t="shared" ref="S54" si="87">STDEV(S49:S53)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T54" s="76">
-        <f t="shared" ref="T54" si="83">STDEV(T49:T53)</f>
+      <c r="T54" s="67">
+        <f t="shared" ref="T54" si="88">STDEV(T49:T53)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -12703,35 +12706,35 @@
         <v>0.25</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" ref="C55:J55" si="84">MEDIAN(C49:C53)</f>
+        <f t="shared" ref="C55:J55" si="89">MEDIAN(C49:C53)</f>
         <v>0.81</v>
       </c>
       <c r="D55" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.79</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.79</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>205</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>49</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>55</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.60929999999999995</v>
       </c>
       <c r="J55" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>0.86713600000000002</v>
       </c>
       <c r="K55" s="13" t="s">
@@ -12742,35 +12745,35 @@
         <v>0.25</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" ref="M55:T55" si="85">MEDIAN(M49:M53)</f>
+        <f t="shared" ref="M55:T55" si="90">MEDIAN(M49:M53)</f>
         <v>0.79</v>
       </c>
       <c r="N55" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.81</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.8</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>216</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>54</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>51</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T55" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -12784,59 +12787,59 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="D56" s="42">
-        <f t="shared" ref="D56" si="86">D55-N55</f>
+        <f t="shared" ref="D56" si="91">D55-N55</f>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E56" s="42">
-        <f t="shared" ref="E56" si="87">E55-O55</f>
+        <f t="shared" ref="E56" si="92">E55-O55</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="F56" s="42">
-        <f t="shared" ref="F56" si="88">F55-P55</f>
+        <f t="shared" ref="F56" si="93">F55-P55</f>
         <v>-11</v>
       </c>
       <c r="G56" s="42">
-        <f t="shared" ref="G56" si="89">G55-Q55</f>
+        <f t="shared" ref="G56" si="94">G55-Q55</f>
         <v>-5</v>
       </c>
       <c r="H56" s="42">
-        <f t="shared" ref="H56" si="90">H55-R55</f>
+        <f t="shared" ref="H56" si="95">H55-R55</f>
         <v>4</v>
       </c>
       <c r="I56" s="42">
-        <f t="shared" ref="I56" si="91">I55-S55</f>
+        <f t="shared" ref="I56" si="96">I55-S55</f>
         <v>5.0999999999999934E-3</v>
       </c>
       <c r="J56" s="43">
-        <f t="shared" ref="J56" si="92">J55-T55</f>
+        <f t="shared" ref="J56" si="97">J55-T55</f>
         <v>-1.8303999999999987E-2</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A58" s="68" t="s">
+      <c r="A58" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="68" t="s">
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="101"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
@@ -13211,82 +13214,82 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="76">
+      <c r="B65" s="67">
         <f>STDEV(B60:B64)</f>
         <v>0</v>
       </c>
-      <c r="C65" s="76">
-        <f t="shared" ref="C65" si="93">STDEV(C60:C64)</f>
+      <c r="C65" s="67">
+        <f t="shared" ref="C65" si="98">STDEV(C60:C64)</f>
         <v>2.4899799195977439E-2</v>
       </c>
-      <c r="D65" s="76">
-        <f t="shared" ref="D65" si="94">STDEV(D60:D64)</f>
+      <c r="D65" s="67">
+        <f t="shared" ref="D65" si="99">STDEV(D60:D64)</f>
         <v>1.9235384061671329E-2</v>
       </c>
-      <c r="E65" s="76">
-        <f t="shared" ref="E65" si="95">STDEV(E60:E64)</f>
+      <c r="E65" s="67">
+        <f t="shared" ref="E65" si="100">STDEV(E60:E64)</f>
         <v>1.9235384061671322E-2</v>
       </c>
-      <c r="F65" s="76">
-        <f t="shared" ref="F65" si="96">STDEV(F60:F64)</f>
+      <c r="F65" s="67">
+        <f t="shared" ref="F65" si="101">STDEV(F60:F64)</f>
         <v>6.2209324059983162</v>
       </c>
-      <c r="G65" s="76">
-        <f t="shared" ref="G65" si="97">STDEV(G60:G64)</f>
+      <c r="G65" s="67">
+        <f t="shared" ref="G65" si="102">STDEV(G60:G64)</f>
         <v>8.0436310208760702</v>
       </c>
-      <c r="H65" s="76">
-        <f t="shared" ref="H65" si="98">STDEV(H60:H64)</f>
+      <c r="H65" s="67">
+        <f t="shared" ref="H65" si="103">STDEV(H60:H64)</f>
         <v>5.1478150704935004</v>
       </c>
-      <c r="I65" s="76">
-        <f t="shared" ref="I65" si="99">STDEV(I60:I64)</f>
+      <c r="I65" s="67">
+        <f t="shared" ref="I65" si="104">STDEV(I60:I64)</f>
         <v>2.0587180477180465E-2</v>
       </c>
-      <c r="J65" s="77">
-        <f t="shared" ref="J65" si="100">STDEV(J60:J64)</f>
+      <c r="J65" s="68">
+        <f t="shared" ref="J65" si="105">STDEV(J60:J64)</f>
         <v>5.9563927254673498E-3</v>
       </c>
-      <c r="K65" s="78" t="s">
+      <c r="K65" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L65" s="76">
+      <c r="L65" s="67">
         <f>STDEV(L60:L64)</f>
         <v>0</v>
       </c>
-      <c r="M65" s="76">
-        <f t="shared" ref="M65" si="101">STDEV(M60:M64)</f>
+      <c r="M65" s="67">
+        <f t="shared" ref="M65" si="106">STDEV(M60:M64)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N65" s="76">
-        <f t="shared" ref="N65" si="102">STDEV(N60:N64)</f>
+      <c r="N65" s="67">
+        <f t="shared" ref="N65" si="107">STDEV(N60:N64)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O65" s="76">
-        <f t="shared" ref="O65" si="103">STDEV(O60:O64)</f>
+      <c r="O65" s="67">
+        <f t="shared" ref="O65" si="108">STDEV(O60:O64)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P65" s="76">
-        <f t="shared" ref="P65" si="104">STDEV(P60:P64)</f>
+      <c r="P65" s="67">
+        <f t="shared" ref="P65" si="109">STDEV(P60:P64)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q65" s="76">
-        <f t="shared" ref="Q65" si="105">STDEV(Q60:Q64)</f>
+      <c r="Q65" s="67">
+        <f t="shared" ref="Q65" si="110">STDEV(Q60:Q64)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R65" s="76">
-        <f t="shared" ref="R65" si="106">STDEV(R60:R64)</f>
+      <c r="R65" s="67">
+        <f t="shared" ref="R65" si="111">STDEV(R60:R64)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S65" s="76">
-        <f t="shared" ref="S65" si="107">STDEV(S60:S64)</f>
+      <c r="S65" s="67">
+        <f t="shared" ref="S65" si="112">STDEV(S60:S64)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T65" s="76">
-        <f t="shared" ref="T65" si="108">STDEV(T60:T64)</f>
+      <c r="T65" s="67">
+        <f t="shared" ref="T65" si="113">STDEV(T60:T64)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -13299,35 +13302,35 @@
         <v>0.25</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66:J66" si="109">MEDIAN(C60:C64)</f>
+        <f t="shared" ref="C66:J66" si="114">MEDIAN(C60:C64)</f>
         <v>0.78</v>
       </c>
       <c r="D66" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.8</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.79</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>213</v>
       </c>
       <c r="G66" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>58</v>
       </c>
       <c r="H66" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>53</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.58989999999999998</v>
       </c>
       <c r="J66" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0.88109400000000004</v>
       </c>
       <c r="K66" s="13" t="s">
@@ -13338,35 +13341,35 @@
         <v>0.25</v>
       </c>
       <c r="M66" s="10">
-        <f t="shared" ref="M66:T66" si="110">MEDIAN(M60:M64)</f>
+        <f t="shared" ref="M66:T66" si="115">MEDIAN(M60:M64)</f>
         <v>0.79</v>
       </c>
       <c r="N66" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.81</v>
       </c>
       <c r="O66" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.8</v>
       </c>
       <c r="P66" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>216</v>
       </c>
       <c r="Q66" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>54</v>
       </c>
       <c r="R66" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>51</v>
       </c>
       <c r="S66" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T66" s="38">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -13380,59 +13383,59 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="D67" s="42">
-        <f t="shared" ref="D67" si="111">D66-N66</f>
+        <f t="shared" ref="D67" si="116">D66-N66</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="E67" s="42">
-        <f t="shared" ref="E67" si="112">E66-O66</f>
+        <f t="shared" ref="E67" si="117">E66-O66</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="F67" s="42">
-        <f t="shared" ref="F67" si="113">F66-P66</f>
+        <f t="shared" ref="F67" si="118">F66-P66</f>
         <v>-3</v>
       </c>
       <c r="G67" s="42">
-        <f t="shared" ref="G67" si="114">G66-Q66</f>
+        <f t="shared" ref="G67" si="119">G66-Q66</f>
         <v>4</v>
       </c>
       <c r="H67" s="42">
-        <f t="shared" ref="H67" si="115">H66-R66</f>
+        <f t="shared" ref="H67" si="120">H66-R66</f>
         <v>2</v>
       </c>
       <c r="I67" s="42">
-        <f t="shared" ref="I67" si="116">I66-S66</f>
+        <f t="shared" ref="I67" si="121">I66-S66</f>
         <v>-1.4299999999999979E-2</v>
       </c>
       <c r="J67" s="43">
-        <f t="shared" ref="J67" si="117">J66-T66</f>
+        <f t="shared" ref="J67" si="122">J66-T66</f>
         <v>-4.345999999999961E-3</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="68" t="s">
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="69"/>
-      <c r="R69" s="69"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="69"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="101"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="101"/>
+      <c r="R69" s="101"/>
+      <c r="S69" s="101"/>
+      <c r="T69" s="101"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
@@ -13807,82 +13810,82 @@
       </c>
     </row>
     <row r="76" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="75" t="s">
+      <c r="A76" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="76">
+      <c r="B76" s="67">
         <f>STDEV(B71:B75)</f>
         <v>0</v>
       </c>
-      <c r="C76" s="76">
-        <f t="shared" ref="C76" si="118">STDEV(C71:C75)</f>
+      <c r="C76" s="67">
+        <f t="shared" ref="C76" si="123">STDEV(C71:C75)</f>
         <v>2.6076809620810583E-2</v>
       </c>
-      <c r="D76" s="76">
-        <f t="shared" ref="D76" si="119">STDEV(D71:D75)</f>
+      <c r="D76" s="67">
+        <f t="shared" ref="D76" si="124">STDEV(D71:D75)</f>
         <v>2.0736441353327684E-2</v>
       </c>
-      <c r="E76" s="76">
-        <f t="shared" ref="E76" si="120">STDEV(E71:E75)</f>
+      <c r="E76" s="67">
+        <f t="shared" ref="E76" si="125">STDEV(E71:E75)</f>
         <v>1.6733200530681482E-2</v>
       </c>
-      <c r="F76" s="76">
-        <f t="shared" ref="F76" si="121">STDEV(F71:F75)</f>
+      <c r="F76" s="67">
+        <f t="shared" ref="F76" si="126">STDEV(F71:F75)</f>
         <v>6.4187226143524843</v>
       </c>
-      <c r="G76" s="76">
-        <f t="shared" ref="G76" si="122">STDEV(G71:G75)</f>
+      <c r="G76" s="67">
+        <f t="shared" ref="G76" si="127">STDEV(G71:G75)</f>
         <v>8.105553651663767</v>
       </c>
-      <c r="H76" s="76">
-        <f t="shared" ref="H76" si="123">STDEV(H71:H75)</f>
+      <c r="H76" s="67">
+        <f t="shared" ref="H76" si="128">STDEV(H71:H75)</f>
         <v>5.2915026221291814</v>
       </c>
-      <c r="I76" s="76">
-        <f t="shared" ref="I76" si="124">STDEV(I71:I75)</f>
+      <c r="I76" s="67">
+        <f t="shared" ref="I76" si="129">STDEV(I71:I75)</f>
         <v>2.1685594296675399E-2</v>
       </c>
-      <c r="J76" s="77">
-        <f t="shared" ref="J76" si="125">STDEV(J71:J75)</f>
+      <c r="J76" s="68">
+        <f t="shared" ref="J76" si="130">STDEV(J71:J75)</f>
         <v>9.8451420761713863E-3</v>
       </c>
-      <c r="K76" s="78" t="s">
+      <c r="K76" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L76" s="76">
+      <c r="L76" s="67">
         <f>STDEV(L71:L75)</f>
         <v>0</v>
       </c>
-      <c r="M76" s="76">
-        <f t="shared" ref="M76" si="126">STDEV(M71:M75)</f>
+      <c r="M76" s="67">
+        <f t="shared" ref="M76" si="131">STDEV(M71:M75)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N76" s="76">
-        <f t="shared" ref="N76" si="127">STDEV(N71:N75)</f>
+      <c r="N76" s="67">
+        <f t="shared" ref="N76" si="132">STDEV(N71:N75)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O76" s="76">
-        <f t="shared" ref="O76" si="128">STDEV(O71:O75)</f>
+      <c r="O76" s="67">
+        <f t="shared" ref="O76" si="133">STDEV(O71:O75)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P76" s="76">
-        <f t="shared" ref="P76" si="129">STDEV(P71:P75)</f>
+      <c r="P76" s="67">
+        <f t="shared" ref="P76" si="134">STDEV(P71:P75)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q76" s="76">
-        <f t="shared" ref="Q76" si="130">STDEV(Q71:Q75)</f>
+      <c r="Q76" s="67">
+        <f t="shared" ref="Q76" si="135">STDEV(Q71:Q75)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R76" s="76">
-        <f t="shared" ref="R76" si="131">STDEV(R71:R75)</f>
+      <c r="R76" s="67">
+        <f t="shared" ref="R76" si="136">STDEV(R71:R75)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S76" s="76">
-        <f t="shared" ref="S76" si="132">STDEV(S71:S75)</f>
+      <c r="S76" s="67">
+        <f t="shared" ref="S76" si="137">STDEV(S71:S75)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T76" s="76">
-        <f t="shared" ref="T76" si="133">STDEV(T71:T75)</f>
+      <c r="T76" s="67">
+        <f t="shared" ref="T76" si="138">STDEV(T71:T75)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -13895,35 +13898,35 @@
         <v>0.25</v>
       </c>
       <c r="C77" s="10">
-        <f t="shared" ref="C77:J77" si="134">MEDIAN(C71:C75)</f>
+        <f t="shared" ref="C77:J77" si="139">MEDIAN(C71:C75)</f>
         <v>0.79</v>
       </c>
       <c r="D77" s="16">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.8</v>
       </c>
       <c r="E77" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.79</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>211</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>55</v>
       </c>
       <c r="H77" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>53</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.58509999999999995</v>
       </c>
       <c r="J77" s="32">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.881803</v>
       </c>
       <c r="K77" s="13" t="s">
@@ -13934,35 +13937,35 @@
         <v>0.25</v>
       </c>
       <c r="M77" s="10">
-        <f t="shared" ref="M77:T77" si="135">MEDIAN(M71:M75)</f>
+        <f t="shared" ref="M77:T77" si="140">MEDIAN(M71:M75)</f>
         <v>0.79</v>
       </c>
       <c r="N77" s="16">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0.81</v>
       </c>
       <c r="O77" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0.8</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>216</v>
       </c>
       <c r="Q77" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>54</v>
       </c>
       <c r="R77" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>51</v>
       </c>
       <c r="S77" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T77" s="38">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -13976,59 +13979,59 @@
         <v>0</v>
       </c>
       <c r="D78" s="42">
-        <f t="shared" ref="D78" si="136">D77-N77</f>
+        <f t="shared" ref="D78" si="141">D77-N77</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="E78" s="42">
-        <f t="shared" ref="E78" si="137">E77-O77</f>
+        <f t="shared" ref="E78" si="142">E77-O77</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="F78" s="42">
-        <f t="shared" ref="F78" si="138">F77-P77</f>
+        <f t="shared" ref="F78" si="143">F77-P77</f>
         <v>-5</v>
       </c>
       <c r="G78" s="42">
-        <f t="shared" ref="G78" si="139">G77-Q77</f>
+        <f t="shared" ref="G78" si="144">G77-Q77</f>
         <v>1</v>
       </c>
       <c r="H78" s="42">
-        <f t="shared" ref="H78" si="140">H77-R77</f>
+        <f t="shared" ref="H78" si="145">H77-R77</f>
         <v>2</v>
       </c>
       <c r="I78" s="42">
-        <f t="shared" ref="I78" si="141">I77-S77</f>
+        <f t="shared" ref="I78" si="146">I77-S77</f>
         <v>-1.9100000000000006E-2</v>
       </c>
       <c r="J78" s="43">
-        <f t="shared" ref="J78" si="142">J77-T77</f>
+        <f t="shared" ref="J78" si="147">J77-T77</f>
         <v>-3.6370000000000013E-3</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A82" s="68" t="s">
+      <c r="A82" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="73"/>
-      <c r="K82" s="68" t="s">
+      <c r="B82" s="101"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="101"/>
+      <c r="G82" s="101"/>
+      <c r="H82" s="101"/>
+      <c r="I82" s="101"/>
+      <c r="J82" s="102"/>
+      <c r="K82" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="69"/>
-      <c r="O82" s="69"/>
-      <c r="P82" s="69"/>
-      <c r="Q82" s="69"/>
-      <c r="R82" s="69"/>
-      <c r="S82" s="69"/>
-      <c r="T82" s="69"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="101"/>
+      <c r="O82" s="101"/>
+      <c r="P82" s="101"/>
+      <c r="Q82" s="101"/>
+      <c r="R82" s="101"/>
+      <c r="S82" s="101"/>
+      <c r="T82" s="101"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
@@ -14120,7 +14123,7 @@
       <c r="I84" s="5">
         <v>0.60319999999999996</v>
       </c>
-      <c r="J84" s="79">
+      <c r="J84" s="70">
         <v>0.90247900000000003</v>
       </c>
       <c r="K84" s="19" t="s">
@@ -14182,7 +14185,7 @@
       <c r="I85" s="5">
         <v>0.56869999999999998</v>
       </c>
-      <c r="J85" s="79">
+      <c r="J85" s="70">
         <v>0.89002999999999999</v>
       </c>
       <c r="K85" s="19" t="s">
@@ -14244,7 +14247,7 @@
       <c r="I86" s="5">
         <v>0.6421</v>
       </c>
-      <c r="J86" s="79">
+      <c r="J86" s="70">
         <v>0.90405599999999997</v>
       </c>
       <c r="K86" s="19" t="s">
@@ -14306,7 +14309,7 @@
       <c r="I87" s="5">
         <v>0.60829999999999995</v>
       </c>
-      <c r="J87" s="79">
+      <c r="J87" s="70">
         <v>0.88749100000000003</v>
       </c>
       <c r="K87" s="19" t="s">
@@ -14368,7 +14371,7 @@
       <c r="I88" s="12">
         <v>0.61539999999999995</v>
       </c>
-      <c r="J88" s="83">
+      <c r="J88" s="74">
         <v>0.90214899999999998</v>
       </c>
       <c r="K88" s="20" t="s">
@@ -14403,82 +14406,82 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="75" t="s">
+      <c r="A89" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="76">
+      <c r="B89" s="67">
         <f>STDEV(B84:B88)</f>
         <v>0</v>
       </c>
-      <c r="C89" s="76">
-        <f t="shared" ref="C89" si="143">STDEV(C84:C88)</f>
+      <c r="C89" s="67">
+        <f t="shared" ref="C89" si="148">STDEV(C84:C88)</f>
         <v>3.5637059362410919E-2</v>
       </c>
-      <c r="D89" s="76">
-        <f t="shared" ref="D89" si="144">STDEV(D84:D88)</f>
+      <c r="D89" s="67">
+        <f t="shared" ref="D89" si="149">STDEV(D84:D88)</f>
         <v>2.236067977499788E-2</v>
       </c>
-      <c r="E89" s="76">
-        <f t="shared" ref="E89" si="145">STDEV(E84:E88)</f>
+      <c r="E89" s="67">
+        <f t="shared" ref="E89" si="150">STDEV(E84:E88)</f>
         <v>2.645751311064588E-2</v>
       </c>
-      <c r="F89" s="76">
-        <f t="shared" ref="F89" si="146">STDEV(F84:F88)</f>
+      <c r="F89" s="67">
+        <f t="shared" ref="F89" si="151">STDEV(F84:F88)</f>
         <v>5.0793700396801178</v>
       </c>
-      <c r="G89" s="76">
-        <f t="shared" ref="G89" si="147">STDEV(G84:G88)</f>
+      <c r="G89" s="67">
+        <f t="shared" ref="G89" si="152">STDEV(G84:G88)</f>
         <v>11.627553482998898</v>
       </c>
-      <c r="H89" s="76">
-        <f t="shared" ref="H89" si="148">STDEV(H84:H88)</f>
+      <c r="H89" s="67">
+        <f t="shared" ref="H89" si="153">STDEV(H84:H88)</f>
         <v>6.0663003552412551</v>
       </c>
-      <c r="I89" s="76">
-        <f t="shared" ref="I89" si="149">STDEV(I84:I88)</f>
+      <c r="I89" s="67">
+        <f t="shared" ref="I89" si="154">STDEV(I84:I88)</f>
         <v>2.6382437340018459E-2</v>
       </c>
-      <c r="J89" s="77">
-        <f t="shared" ref="J89" si="150">STDEV(J84:J88)</f>
+      <c r="J89" s="68">
+        <f t="shared" ref="J89" si="155">STDEV(J84:J88)</f>
         <v>7.8267227177152392E-3</v>
       </c>
-      <c r="K89" s="78" t="s">
+      <c r="K89" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L89" s="76">
+      <c r="L89" s="67">
         <f>STDEV(L84:L88)</f>
         <v>0</v>
       </c>
-      <c r="M89" s="76">
-        <f t="shared" ref="M89" si="151">STDEV(M84:M88)</f>
+      <c r="M89" s="67">
+        <f t="shared" ref="M89" si="156">STDEV(M84:M88)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N89" s="76">
-        <f t="shared" ref="N89" si="152">STDEV(N84:N88)</f>
+      <c r="N89" s="67">
+        <f t="shared" ref="N89" si="157">STDEV(N84:N88)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O89" s="76">
-        <f t="shared" ref="O89" si="153">STDEV(O84:O88)</f>
+      <c r="O89" s="67">
+        <f t="shared" ref="O89" si="158">STDEV(O84:O88)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P89" s="76">
-        <f t="shared" ref="P89" si="154">STDEV(P84:P88)</f>
+      <c r="P89" s="67">
+        <f t="shared" ref="P89" si="159">STDEV(P84:P88)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q89" s="76">
-        <f t="shared" ref="Q89" si="155">STDEV(Q84:Q88)</f>
+      <c r="Q89" s="67">
+        <f t="shared" ref="Q89" si="160">STDEV(Q84:Q88)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R89" s="76">
-        <f t="shared" ref="R89" si="156">STDEV(R84:R88)</f>
+      <c r="R89" s="67">
+        <f t="shared" ref="R89" si="161">STDEV(R84:R88)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S89" s="76">
-        <f t="shared" ref="S89" si="157">STDEV(S84:S88)</f>
+      <c r="S89" s="67">
+        <f t="shared" ref="S89" si="162">STDEV(S84:S88)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T89" s="76">
-        <f t="shared" ref="T89" si="158">STDEV(T84:T88)</f>
+      <c r="T89" s="67">
+        <f t="shared" ref="T89" si="163">STDEV(T84:T88)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -14491,35 +14494,35 @@
         <v>0.25</v>
       </c>
       <c r="C90" s="10">
-        <f t="shared" ref="C90:J90" si="159">MEDIAN(C84:C88)</f>
+        <f t="shared" ref="C90:J90" si="164">MEDIAN(C84:C88)</f>
         <v>0.79</v>
       </c>
       <c r="D90" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0.83</v>
       </c>
       <c r="E90" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0.82</v>
       </c>
       <c r="F90" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>219</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>59</v>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>43</v>
       </c>
       <c r="I90" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0.60829999999999995</v>
       </c>
       <c r="J90" s="32">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0.90214899999999998</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -14530,35 +14533,35 @@
         <v>0.25</v>
       </c>
       <c r="M90" s="10">
-        <f t="shared" ref="M90:T90" si="160">MEDIAN(M84:M88)</f>
+        <f t="shared" ref="M90:T90" si="165">MEDIAN(M84:M88)</f>
         <v>0.79</v>
       </c>
       <c r="N90" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0.81</v>
       </c>
       <c r="O90" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0.8</v>
       </c>
       <c r="P90" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>216</v>
       </c>
       <c r="Q90" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>54</v>
       </c>
       <c r="R90" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>51</v>
       </c>
       <c r="S90" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T90" s="38">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -14572,59 +14575,59 @@
         <v>0</v>
       </c>
       <c r="D91" s="42">
-        <f t="shared" ref="D91" si="161">D90-N90</f>
+        <f t="shared" ref="D91" si="166">D90-N90</f>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="E91" s="42">
-        <f t="shared" ref="E91" si="162">E90-O90</f>
+        <f t="shared" ref="E91" si="167">E90-O90</f>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="F91" s="42">
-        <f t="shared" ref="F91" si="163">F90-P90</f>
+        <f t="shared" ref="F91" si="168">F90-P90</f>
         <v>3</v>
       </c>
       <c r="G91" s="42">
-        <f t="shared" ref="G91" si="164">G90-Q90</f>
+        <f t="shared" ref="G91" si="169">G90-Q90</f>
         <v>5</v>
       </c>
       <c r="H91" s="42">
-        <f t="shared" ref="H91" si="165">H90-R90</f>
+        <f t="shared" ref="H91" si="170">H90-R90</f>
         <v>-8</v>
       </c>
       <c r="I91" s="42">
-        <f t="shared" ref="I91" si="166">I90-S90</f>
+        <f t="shared" ref="I91" si="171">I90-S90</f>
         <v>4.0999999999999925E-3</v>
       </c>
       <c r="J91" s="43">
-        <f t="shared" ref="J91" si="167">J90-T90</f>
+        <f t="shared" ref="J91" si="172">J90-T90</f>
         <v>1.6708999999999974E-2</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A94" s="68" t="s">
+      <c r="A94" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="73"/>
-      <c r="K94" s="68" t="s">
+      <c r="B94" s="101"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="101"/>
+      <c r="I94" s="101"/>
+      <c r="J94" s="102"/>
+      <c r="K94" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L94" s="69"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="69"/>
-      <c r="O94" s="69"/>
-      <c r="P94" s="69"/>
-      <c r="Q94" s="69"/>
-      <c r="R94" s="69"/>
-      <c r="S94" s="69"/>
-      <c r="T94" s="69"/>
+      <c r="L94" s="101"/>
+      <c r="M94" s="101"/>
+      <c r="N94" s="101"/>
+      <c r="O94" s="101"/>
+      <c r="P94" s="101"/>
+      <c r="Q94" s="101"/>
+      <c r="R94" s="101"/>
+      <c r="S94" s="101"/>
+      <c r="T94" s="101"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -14999,82 +15002,82 @@
       </c>
     </row>
     <row r="101" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="75" t="s">
+      <c r="A101" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="76">
+      <c r="B101" s="67">
         <f>STDEV(B96:B100)</f>
         <v>0</v>
       </c>
-      <c r="C101" s="76">
-        <f t="shared" ref="C101" si="168">STDEV(C96:C100)</f>
+      <c r="C101" s="67">
+        <f t="shared" ref="C101" si="173">STDEV(C96:C100)</f>
         <v>1.5165750888103071E-2</v>
       </c>
-      <c r="D101" s="76">
-        <f t="shared" ref="D101" si="169">STDEV(D96:D100)</f>
+      <c r="D101" s="67">
+        <f t="shared" ref="D101" si="174">STDEV(D96:D100)</f>
         <v>1.3038404810405309E-2</v>
       </c>
-      <c r="E101" s="76">
-        <f t="shared" ref="E101" si="170">STDEV(E96:E100)</f>
+      <c r="E101" s="67">
+        <f t="shared" ref="E101" si="175">STDEV(E96:E100)</f>
         <v>8.9442719099991179E-3</v>
       </c>
-      <c r="F101" s="76">
-        <f t="shared" ref="F101" si="171">STDEV(F96:F100)</f>
+      <c r="F101" s="67">
+        <f t="shared" ref="F101" si="176">STDEV(F96:F100)</f>
         <v>1.5811388300841898</v>
       </c>
-      <c r="G101" s="76">
-        <f t="shared" ref="G101" si="172">STDEV(G96:G100)</f>
+      <c r="G101" s="67">
+        <f t="shared" ref="G101" si="177">STDEV(G96:G100)</f>
         <v>5.8991524815010505</v>
       </c>
-      <c r="H101" s="76">
-        <f t="shared" ref="H101" si="173">STDEV(H96:H100)</f>
+      <c r="H101" s="67">
+        <f t="shared" ref="H101" si="178">STDEV(H96:H100)</f>
         <v>4.0865633483405102</v>
       </c>
-      <c r="I101" s="76">
-        <f t="shared" ref="I101" si="174">STDEV(I96:I100)</f>
+      <c r="I101" s="67">
+        <f t="shared" ref="I101" si="179">STDEV(I96:I100)</f>
         <v>1.4941151227398785E-2</v>
       </c>
-      <c r="J101" s="77">
-        <f t="shared" ref="J101" si="175">STDEV(J96:J100)</f>
+      <c r="J101" s="68">
+        <f t="shared" ref="J101" si="180">STDEV(J96:J100)</f>
         <v>7.5339638106378202E-3</v>
       </c>
-      <c r="K101" s="78" t="s">
+      <c r="K101" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L101" s="76">
+      <c r="L101" s="67">
         <f>STDEV(L96:L100)</f>
         <v>0</v>
       </c>
-      <c r="M101" s="76">
-        <f t="shared" ref="M101" si="176">STDEV(M96:M100)</f>
+      <c r="M101" s="67">
+        <f t="shared" ref="M101" si="181">STDEV(M96:M100)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N101" s="76">
-        <f t="shared" ref="N101" si="177">STDEV(N96:N100)</f>
+      <c r="N101" s="67">
+        <f t="shared" ref="N101" si="182">STDEV(N96:N100)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O101" s="76">
-        <f t="shared" ref="O101" si="178">STDEV(O96:O100)</f>
+      <c r="O101" s="67">
+        <f t="shared" ref="O101" si="183">STDEV(O96:O100)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P101" s="76">
-        <f t="shared" ref="P101" si="179">STDEV(P96:P100)</f>
+      <c r="P101" s="67">
+        <f t="shared" ref="P101" si="184">STDEV(P96:P100)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q101" s="76">
-        <f t="shared" ref="Q101" si="180">STDEV(Q96:Q100)</f>
+      <c r="Q101" s="67">
+        <f t="shared" ref="Q101" si="185">STDEV(Q96:Q100)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R101" s="76">
-        <f t="shared" ref="R101" si="181">STDEV(R96:R100)</f>
+      <c r="R101" s="67">
+        <f t="shared" ref="R101" si="186">STDEV(R96:R100)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S101" s="76">
-        <f t="shared" ref="S101" si="182">STDEV(S96:S100)</f>
+      <c r="S101" s="67">
+        <f t="shared" ref="S101" si="187">STDEV(S96:S100)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T101" s="76">
-        <f t="shared" ref="T101" si="183">STDEV(T96:T100)</f>
+      <c r="T101" s="67">
+        <f t="shared" ref="T101" si="188">STDEV(T96:T100)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -15087,35 +15090,35 @@
         <v>0.25</v>
       </c>
       <c r="C102" s="42">
-        <f t="shared" ref="C102:J102" si="184">MEDIAN(C96:C100)</f>
+        <f t="shared" ref="C102:J102" si="189">MEDIAN(C96:C100)</f>
         <v>0.79</v>
       </c>
-      <c r="D102" s="80">
-        <f t="shared" si="184"/>
+      <c r="D102" s="71">
+        <f t="shared" si="189"/>
         <v>0.84</v>
       </c>
       <c r="E102" s="42">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>0.82</v>
       </c>
       <c r="F102" s="42">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>221</v>
       </c>
       <c r="G102" s="42">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>60</v>
       </c>
       <c r="H102" s="42">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>43</v>
       </c>
       <c r="I102" s="42">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>0.60780000000000001</v>
       </c>
       <c r="J102" s="43">
-        <f t="shared" si="184"/>
+        <f t="shared" si="189"/>
         <v>0.89660200000000001</v>
       </c>
       <c r="K102" s="13" t="s">
@@ -15126,35 +15129,35 @@
         <v>0.25</v>
       </c>
       <c r="M102" s="10">
-        <f t="shared" ref="M102:T102" si="185">MEDIAN(M96:M100)</f>
+        <f t="shared" ref="M102:T102" si="190">MEDIAN(M96:M100)</f>
         <v>0.79</v>
       </c>
       <c r="N102" s="16">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.81</v>
       </c>
       <c r="O102" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.8</v>
       </c>
       <c r="P102" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>216</v>
       </c>
       <c r="Q102" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>54</v>
       </c>
       <c r="R102" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>51</v>
       </c>
       <c r="S102" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T102" s="38">
-        <f t="shared" si="185"/>
+        <f t="shared" si="190"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -15168,59 +15171,59 @@
         <v>0</v>
       </c>
       <c r="D103" s="42">
-        <f t="shared" ref="D103" si="186">D102-N102</f>
+        <f t="shared" ref="D103" si="191">D102-N102</f>
         <v>2.9999999999999916E-2</v>
       </c>
       <c r="E103" s="42">
-        <f t="shared" ref="E103" si="187">E102-O102</f>
+        <f t="shared" ref="E103" si="192">E102-O102</f>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="F103" s="42">
-        <f t="shared" ref="F103" si="188">F102-P102</f>
+        <f t="shared" ref="F103" si="193">F102-P102</f>
         <v>5</v>
       </c>
       <c r="G103" s="42">
-        <f t="shared" ref="G103" si="189">G102-Q102</f>
+        <f t="shared" ref="G103" si="194">G102-Q102</f>
         <v>6</v>
       </c>
       <c r="H103" s="42">
-        <f t="shared" ref="H103" si="190">H102-R102</f>
+        <f t="shared" ref="H103" si="195">H102-R102</f>
         <v>-8</v>
       </c>
       <c r="I103" s="42">
-        <f t="shared" ref="I103" si="191">I102-S102</f>
+        <f t="shared" ref="I103" si="196">I102-S102</f>
         <v>3.6000000000000476E-3</v>
       </c>
       <c r="J103" s="43">
-        <f t="shared" ref="J103" si="192">J102-T102</f>
+        <f t="shared" ref="J103" si="197">J102-T102</f>
         <v>1.1162000000000005E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A106" s="70" t="s">
+      <c r="A106" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="71"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="68" t="s">
+      <c r="B106" s="105"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="106"/>
+      <c r="K106" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="69"/>
-      <c r="M106" s="69"/>
-      <c r="N106" s="69"/>
-      <c r="O106" s="69"/>
-      <c r="P106" s="69"/>
-      <c r="Q106" s="69"/>
-      <c r="R106" s="69"/>
-      <c r="S106" s="69"/>
-      <c r="T106" s="69"/>
+      <c r="L106" s="101"/>
+      <c r="M106" s="101"/>
+      <c r="N106" s="101"/>
+      <c r="O106" s="101"/>
+      <c r="P106" s="101"/>
+      <c r="Q106" s="101"/>
+      <c r="R106" s="101"/>
+      <c r="S106" s="101"/>
+      <c r="T106" s="101"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="59" t="s">
@@ -15533,7 +15536,7 @@
       </c>
     </row>
     <row r="112" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="86" t="s">
+      <c r="A112" s="77" t="s">
         <v>14</v>
       </c>
       <c r="B112" s="12">
@@ -15595,82 +15598,82 @@
       </c>
     </row>
     <row r="113" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="75" t="s">
+      <c r="A113" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B113" s="76">
+      <c r="B113" s="67">
         <f>STDEV(B108:B112)</f>
         <v>0</v>
       </c>
-      <c r="C113" s="76">
-        <f t="shared" ref="C113" si="193">STDEV(C108:C112)</f>
+      <c r="C113" s="67">
+        <f t="shared" ref="C113" si="198">STDEV(C108:C112)</f>
         <v>2.280350850198274E-2</v>
       </c>
-      <c r="D113" s="76">
-        <f t="shared" ref="D113" si="194">STDEV(D108:D112)</f>
+      <c r="D113" s="67">
+        <f t="shared" ref="D113" si="199">STDEV(D108:D112)</f>
         <v>2.3874672772626612E-2</v>
       </c>
-      <c r="E113" s="76">
-        <f t="shared" ref="E113" si="195">STDEV(E108:E112)</f>
+      <c r="E113" s="67">
+        <f t="shared" ref="E113" si="200">STDEV(E108:E112)</f>
         <v>2.0493901531919174E-2</v>
       </c>
-      <c r="F113" s="76">
-        <f t="shared" ref="F113" si="196">STDEV(F108:F112)</f>
+      <c r="F113" s="67">
+        <f t="shared" ref="F113" si="201">STDEV(F108:F112)</f>
         <v>6.1400325732035004</v>
       </c>
-      <c r="G113" s="76">
-        <f t="shared" ref="G113" si="197">STDEV(G108:G112)</f>
+      <c r="G113" s="67">
+        <f t="shared" ref="G113" si="202">STDEV(G108:G112)</f>
         <v>5.6833088953531288</v>
       </c>
-      <c r="H113" s="76">
-        <f t="shared" ref="H113" si="198">STDEV(H108:H112)</f>
+      <c r="H113" s="67">
+        <f t="shared" ref="H113" si="203">STDEV(H108:H112)</f>
         <v>5.6391488719486897</v>
       </c>
-      <c r="I113" s="76">
-        <f t="shared" ref="I113" si="199">STDEV(I108:I112)</f>
+      <c r="I113" s="67">
+        <f t="shared" ref="I113" si="204">STDEV(I108:I112)</f>
         <v>1.6726924403487921E-2</v>
       </c>
-      <c r="J113" s="77">
-        <f t="shared" ref="J113" si="200">STDEV(J108:J112)</f>
+      <c r="J113" s="68">
+        <f t="shared" ref="J113" si="205">STDEV(J108:J112)</f>
         <v>8.4370568742897431E-3</v>
       </c>
-      <c r="K113" s="78" t="s">
+      <c r="K113" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L113" s="76">
+      <c r="L113" s="67">
         <f>STDEV(L108:L112)</f>
         <v>0</v>
       </c>
-      <c r="M113" s="76">
-        <f t="shared" ref="M113" si="201">STDEV(M108:M112)</f>
+      <c r="M113" s="67">
+        <f t="shared" ref="M113" si="206">STDEV(M108:M112)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N113" s="76">
-        <f t="shared" ref="N113" si="202">STDEV(N108:N112)</f>
+      <c r="N113" s="67">
+        <f t="shared" ref="N113" si="207">STDEV(N108:N112)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O113" s="76">
-        <f t="shared" ref="O113" si="203">STDEV(O108:O112)</f>
+      <c r="O113" s="67">
+        <f t="shared" ref="O113" si="208">STDEV(O108:O112)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P113" s="76">
-        <f t="shared" ref="P113" si="204">STDEV(P108:P112)</f>
+      <c r="P113" s="67">
+        <f t="shared" ref="P113" si="209">STDEV(P108:P112)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q113" s="76">
-        <f t="shared" ref="Q113" si="205">STDEV(Q108:Q112)</f>
+      <c r="Q113" s="67">
+        <f t="shared" ref="Q113" si="210">STDEV(Q108:Q112)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R113" s="76">
-        <f t="shared" ref="R113" si="206">STDEV(R108:R112)</f>
+      <c r="R113" s="67">
+        <f t="shared" ref="R113" si="211">STDEV(R108:R112)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S113" s="76">
-        <f t="shared" ref="S113" si="207">STDEV(S108:S112)</f>
+      <c r="S113" s="67">
+        <f t="shared" ref="S113" si="212">STDEV(S108:S112)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T113" s="76">
-        <f t="shared" ref="T113" si="208">STDEV(T108:T112)</f>
+      <c r="T113" s="67">
+        <f t="shared" ref="T113" si="213">STDEV(T108:T112)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -15683,35 +15686,35 @@
         <v>0.25</v>
       </c>
       <c r="C114" s="42">
-        <f t="shared" ref="C114:J114" si="209">MEDIAN(C108:C112)</f>
+        <f t="shared" ref="C114:J114" si="214">MEDIAN(C108:C112)</f>
         <v>0.78</v>
       </c>
-      <c r="D114" s="80">
-        <f t="shared" si="209"/>
+      <c r="D114" s="71">
+        <f t="shared" si="214"/>
         <v>0.81</v>
       </c>
       <c r="E114" s="42">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.8</v>
       </c>
       <c r="F114" s="42">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>215</v>
       </c>
       <c r="G114" s="42">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>59</v>
       </c>
       <c r="H114" s="42">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>51</v>
       </c>
       <c r="I114" s="42">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.59860000000000002</v>
       </c>
       <c r="J114" s="43">
-        <f t="shared" si="209"/>
+        <f t="shared" si="214"/>
         <v>0.88089300000000004</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -15722,35 +15725,35 @@
         <v>0.25</v>
       </c>
       <c r="M114" s="10">
-        <f t="shared" ref="M114:T114" si="210">MEDIAN(M108:M112)</f>
+        <f t="shared" ref="M114:T114" si="215">MEDIAN(M108:M112)</f>
         <v>0.79</v>
       </c>
       <c r="N114" s="16">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.81</v>
       </c>
       <c r="O114" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.8</v>
       </c>
       <c r="P114" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>216</v>
       </c>
       <c r="Q114" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>54</v>
       </c>
       <c r="R114" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>51</v>
       </c>
       <c r="S114" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T114" s="38">
-        <f t="shared" si="210"/>
+        <f t="shared" si="215"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -15764,59 +15767,59 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="D115" s="42">
-        <f t="shared" ref="D115" si="211">D114-N114</f>
+        <f t="shared" ref="D115" si="216">D114-N114</f>
         <v>0</v>
       </c>
       <c r="E115" s="42">
-        <f t="shared" ref="E115" si="212">E114-O114</f>
+        <f t="shared" ref="E115" si="217">E114-O114</f>
         <v>0</v>
       </c>
       <c r="F115" s="42">
-        <f t="shared" ref="F115" si="213">F114-P114</f>
+        <f t="shared" ref="F115" si="218">F114-P114</f>
         <v>-1</v>
       </c>
       <c r="G115" s="42">
-        <f t="shared" ref="G115" si="214">G114-Q114</f>
+        <f t="shared" ref="G115" si="219">G114-Q114</f>
         <v>5</v>
       </c>
       <c r="H115" s="42">
-        <f t="shared" ref="H115" si="215">H114-R114</f>
+        <f t="shared" ref="H115" si="220">H114-R114</f>
         <v>0</v>
       </c>
       <c r="I115" s="42">
-        <f t="shared" ref="I115" si="216">I114-S114</f>
+        <f t="shared" ref="I115" si="221">I114-S114</f>
         <v>-5.5999999999999384E-3</v>
       </c>
       <c r="J115" s="43">
-        <f t="shared" ref="J115" si="217">J114-T114</f>
+        <f t="shared" ref="J115" si="222">J114-T114</f>
         <v>-4.5469999999999677E-3</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A118" s="70" t="s">
+      <c r="A118" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="71"/>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="72"/>
-      <c r="K118" s="68" t="s">
+      <c r="B118" s="105"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="105"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="106"/>
+      <c r="K118" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L118" s="69"/>
-      <c r="M118" s="69"/>
-      <c r="N118" s="69"/>
-      <c r="O118" s="69"/>
-      <c r="P118" s="69"/>
-      <c r="Q118" s="69"/>
-      <c r="R118" s="69"/>
-      <c r="S118" s="69"/>
-      <c r="T118" s="69"/>
+      <c r="L118" s="101"/>
+      <c r="M118" s="101"/>
+      <c r="N118" s="101"/>
+      <c r="O118" s="101"/>
+      <c r="P118" s="101"/>
+      <c r="Q118" s="101"/>
+      <c r="R118" s="101"/>
+      <c r="S118" s="101"/>
+      <c r="T118" s="101"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -16191,82 +16194,82 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="75" t="s">
+      <c r="A125" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B125" s="76">
+      <c r="B125" s="67">
         <f>STDEV(B120:B124)</f>
         <v>0</v>
       </c>
-      <c r="C125" s="76">
-        <f t="shared" ref="C125" si="218">STDEV(C120:C124)</f>
+      <c r="C125" s="67">
+        <f t="shared" ref="C125" si="223">STDEV(C120:C124)</f>
         <v>2.2803508501982726E-2</v>
       </c>
-      <c r="D125" s="76">
-        <f t="shared" ref="D125" si="219">STDEV(D120:D124)</f>
+      <c r="D125" s="67">
+        <f t="shared" ref="D125" si="224">STDEV(D120:D124)</f>
         <v>1.6431676725154942E-2</v>
       </c>
-      <c r="E125" s="76">
-        <f t="shared" ref="E125" si="220">STDEV(E120:E124)</f>
+      <c r="E125" s="67">
+        <f t="shared" ref="E125" si="225">STDEV(E120:E124)</f>
         <v>1.3038404810405258E-2</v>
       </c>
-      <c r="F125" s="76">
-        <f t="shared" ref="F125" si="221">STDEV(F120:F124)</f>
+      <c r="F125" s="67">
+        <f t="shared" ref="F125" si="226">STDEV(F120:F124)</f>
         <v>5.5946402922797454</v>
       </c>
-      <c r="G125" s="76">
-        <f t="shared" ref="G125" si="222">STDEV(G120:G124)</f>
+      <c r="G125" s="67">
+        <f t="shared" ref="G125" si="227">STDEV(G120:G124)</f>
         <v>8.0746516952745289</v>
       </c>
-      <c r="H125" s="76">
-        <f t="shared" ref="H125" si="223">STDEV(H120:H124)</f>
+      <c r="H125" s="67">
+        <f t="shared" ref="H125" si="228">STDEV(H120:H124)</f>
         <v>3.7815340802378072</v>
       </c>
-      <c r="I125" s="76">
-        <f t="shared" ref="I125" si="224">STDEV(I120:I124)</f>
+      <c r="I125" s="67">
+        <f t="shared" ref="I125" si="229">STDEV(I120:I124)</f>
         <v>2.3009823988896592E-2</v>
       </c>
-      <c r="J125" s="77">
-        <f t="shared" ref="J125" si="225">STDEV(J120:J124)</f>
+      <c r="J125" s="68">
+        <f t="shared" ref="J125" si="230">STDEV(J120:J124)</f>
         <v>8.7863464932814786E-3</v>
       </c>
-      <c r="K125" s="78" t="s">
+      <c r="K125" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L125" s="76">
+      <c r="L125" s="67">
         <f>STDEV(L120:L124)</f>
         <v>0</v>
       </c>
-      <c r="M125" s="76">
-        <f t="shared" ref="M125" si="226">STDEV(M120:M124)</f>
+      <c r="M125" s="67">
+        <f t="shared" ref="M125" si="231">STDEV(M120:M124)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N125" s="76">
-        <f t="shared" ref="N125" si="227">STDEV(N120:N124)</f>
+      <c r="N125" s="67">
+        <f t="shared" ref="N125" si="232">STDEV(N120:N124)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O125" s="76">
-        <f t="shared" ref="O125" si="228">STDEV(O120:O124)</f>
+      <c r="O125" s="67">
+        <f t="shared" ref="O125" si="233">STDEV(O120:O124)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P125" s="76">
-        <f t="shared" ref="P125" si="229">STDEV(P120:P124)</f>
+      <c r="P125" s="67">
+        <f t="shared" ref="P125" si="234">STDEV(P120:P124)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q125" s="76">
-        <f t="shared" ref="Q125" si="230">STDEV(Q120:Q124)</f>
+      <c r="Q125" s="67">
+        <f t="shared" ref="Q125" si="235">STDEV(Q120:Q124)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R125" s="76">
-        <f t="shared" ref="R125" si="231">STDEV(R120:R124)</f>
+      <c r="R125" s="67">
+        <f t="shared" ref="R125" si="236">STDEV(R120:R124)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S125" s="76">
-        <f t="shared" ref="S125" si="232">STDEV(S120:S124)</f>
+      <c r="S125" s="67">
+        <f t="shared" ref="S125" si="237">STDEV(S120:S124)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T125" s="76">
-        <f t="shared" ref="T125" si="233">STDEV(T120:T124)</f>
+      <c r="T125" s="67">
+        <f t="shared" ref="T125" si="238">STDEV(T120:T124)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -16275,78 +16278,78 @@
         <v>15</v>
       </c>
       <c r="B126" s="42">
-        <f>MEDIAN(B120:B124)</f>
+        <f t="shared" ref="B126:J126" si="239">MEDIAN(B120:B124)</f>
         <v>0.25</v>
       </c>
       <c r="C126" s="42">
-        <f>MEDIAN(C120:C124)</f>
+        <f t="shared" si="239"/>
         <v>0.81</v>
       </c>
-      <c r="D126" s="80">
-        <f>MEDIAN(D120:D124)</f>
+      <c r="D126" s="71">
+        <f t="shared" si="239"/>
         <v>0.8</v>
       </c>
       <c r="E126" s="42">
-        <f>MEDIAN(E120:E124)</f>
+        <f t="shared" si="239"/>
         <v>0.81</v>
       </c>
       <c r="F126" s="42">
-        <f>MEDIAN(F120:F124)</f>
+        <f t="shared" si="239"/>
         <v>212</v>
       </c>
       <c r="G126" s="42">
-        <f>MEDIAN(G120:G124)</f>
+        <f t="shared" si="239"/>
         <v>48</v>
       </c>
       <c r="H126" s="42">
-        <f>MEDIAN(H120:H124)</f>
+        <f t="shared" si="239"/>
         <v>52</v>
       </c>
       <c r="I126" s="42">
-        <f>MEDIAN(I120:I124)</f>
+        <f t="shared" si="239"/>
         <v>0.61850000000000005</v>
       </c>
       <c r="J126" s="43">
-        <f>MEDIAN(J120:J124)</f>
+        <f t="shared" si="239"/>
         <v>0.88310100000000002</v>
       </c>
       <c r="K126" s="13" t="s">
         <v>15</v>
       </c>
       <c r="L126" s="10">
-        <f>MEDIAN(L120:L124)</f>
+        <f t="shared" ref="L126:T126" si="240">MEDIAN(L120:L124)</f>
         <v>0.25</v>
       </c>
       <c r="M126" s="10">
-        <f>MEDIAN(M120:M124)</f>
+        <f t="shared" si="240"/>
         <v>0.79</v>
       </c>
       <c r="N126" s="16">
-        <f>MEDIAN(N120:N124)</f>
+        <f t="shared" si="240"/>
         <v>0.81</v>
       </c>
       <c r="O126" s="10">
-        <f>MEDIAN(O120:O124)</f>
+        <f t="shared" si="240"/>
         <v>0.8</v>
       </c>
       <c r="P126" s="10">
-        <f>MEDIAN(P120:P124)</f>
+        <f t="shared" si="240"/>
         <v>216</v>
       </c>
       <c r="Q126" s="10">
-        <f>MEDIAN(Q120:Q124)</f>
+        <f t="shared" si="240"/>
         <v>54</v>
       </c>
       <c r="R126" s="10">
-        <f>MEDIAN(R120:R124)</f>
+        <f t="shared" si="240"/>
         <v>51</v>
       </c>
       <c r="S126" s="10">
-        <f>MEDIAN(S120:S124)</f>
+        <f t="shared" si="240"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T126" s="38">
-        <f>MEDIAN(T120:T124)</f>
+        <f t="shared" si="240"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -16360,59 +16363,59 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="D127" s="42">
-        <f t="shared" ref="D127" si="234">D126-N126</f>
+        <f t="shared" ref="D127" si="241">D126-N126</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="E127" s="42">
-        <f t="shared" ref="E127" si="235">E126-O126</f>
+        <f t="shared" ref="E127" si="242">E126-O126</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="F127" s="42">
-        <f t="shared" ref="F127" si="236">F126-P126</f>
+        <f t="shared" ref="F127" si="243">F126-P126</f>
         <v>-4</v>
       </c>
       <c r="G127" s="42">
-        <f t="shared" ref="G127" si="237">G126-Q126</f>
+        <f t="shared" ref="G127" si="244">G126-Q126</f>
         <v>-6</v>
       </c>
       <c r="H127" s="42">
-        <f t="shared" ref="H127" si="238">H126-R126</f>
+        <f t="shared" ref="H127" si="245">H126-R126</f>
         <v>1</v>
       </c>
       <c r="I127" s="42">
-        <f t="shared" ref="I127" si="239">I126-S126</f>
+        <f t="shared" ref="I127" si="246">I126-S126</f>
         <v>1.430000000000009E-2</v>
       </c>
       <c r="J127" s="43">
-        <f t="shared" ref="J127" si="240">J126-T126</f>
+        <f t="shared" ref="J127" si="247">J126-T126</f>
         <v>-2.33899999999998E-3</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A130" s="70" t="s">
+      <c r="A130" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="71"/>
-      <c r="C130" s="71"/>
-      <c r="D130" s="71"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="71"/>
-      <c r="J130" s="72"/>
-      <c r="K130" s="68" t="s">
+      <c r="B130" s="105"/>
+      <c r="C130" s="105"/>
+      <c r="D130" s="105"/>
+      <c r="E130" s="105"/>
+      <c r="F130" s="105"/>
+      <c r="G130" s="105"/>
+      <c r="H130" s="105"/>
+      <c r="I130" s="105"/>
+      <c r="J130" s="106"/>
+      <c r="K130" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="69"/>
-      <c r="M130" s="69"/>
-      <c r="N130" s="69"/>
-      <c r="O130" s="69"/>
-      <c r="P130" s="69"/>
-      <c r="Q130" s="69"/>
-      <c r="R130" s="69"/>
-      <c r="S130" s="69"/>
-      <c r="T130" s="69"/>
+      <c r="L130" s="101"/>
+      <c r="M130" s="101"/>
+      <c r="N130" s="101"/>
+      <c r="O130" s="101"/>
+      <c r="P130" s="101"/>
+      <c r="Q130" s="101"/>
+      <c r="R130" s="101"/>
+      <c r="S130" s="101"/>
+      <c r="T130" s="101"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -16504,7 +16507,7 @@
       <c r="I132" s="5">
         <v>0.57689999999999997</v>
       </c>
-      <c r="J132" s="79">
+      <c r="J132" s="70">
         <v>0.85596499999999998</v>
       </c>
       <c r="K132" s="19" t="s">
@@ -16566,7 +16569,7 @@
       <c r="I133" s="5">
         <v>0.64649999999999996</v>
       </c>
-      <c r="J133" s="79">
+      <c r="J133" s="70">
         <v>0.91751099999999997</v>
       </c>
       <c r="K133" s="19" t="s">
@@ -16628,7 +16631,7 @@
       <c r="I134" s="5">
         <v>0.6008</v>
       </c>
-      <c r="J134" s="79">
+      <c r="J134" s="70">
         <v>0.86405200000000004</v>
       </c>
       <c r="K134" s="19" t="s">
@@ -16690,7 +16693,7 @@
       <c r="I135" s="5">
         <v>0.63200000000000001</v>
       </c>
-      <c r="J135" s="79">
+      <c r="J135" s="70">
         <v>0.93553500000000001</v>
       </c>
       <c r="K135" s="19" t="s">
@@ -16752,7 +16755,7 @@
       <c r="I136" s="5">
         <v>0.62780000000000002</v>
       </c>
-      <c r="J136" s="79">
+      <c r="J136" s="70">
         <v>0.87906499999999999</v>
       </c>
       <c r="K136" s="20" t="s">
@@ -16814,46 +16817,46 @@
       <c r="I137" s="5">
         <v>0.61639999999999995</v>
       </c>
-      <c r="J137" s="79">
+      <c r="J137" s="70">
         <v>0.89048000000000005</v>
       </c>
-      <c r="K137" s="78" t="s">
+      <c r="K137" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L137" s="76">
+      <c r="L137" s="67">
         <f>STDEV(L132:L136)</f>
         <v>0</v>
       </c>
-      <c r="M137" s="76">
-        <f t="shared" ref="M137" si="241">STDEV(M132:M136)</f>
+      <c r="M137" s="67">
+        <f t="shared" ref="M137" si="248">STDEV(M132:M136)</f>
         <v>3.1144823004794861E-2</v>
       </c>
-      <c r="N137" s="76">
-        <f t="shared" ref="N137" si="242">STDEV(N132:N136)</f>
+      <c r="N137" s="67">
+        <f t="shared" ref="N137" si="249">STDEV(N132:N136)</f>
         <v>1.7888543819998277E-2</v>
       </c>
-      <c r="O137" s="76">
-        <f t="shared" ref="O137" si="243">STDEV(O132:O136)</f>
+      <c r="O137" s="67">
+        <f t="shared" ref="O137" si="250">STDEV(O132:O136)</f>
         <v>2.4083189157584558E-2</v>
       </c>
-      <c r="P137" s="76">
-        <f t="shared" ref="P137" si="244">STDEV(P132:P136)</f>
+      <c r="P137" s="67">
+        <f t="shared" ref="P137" si="251">STDEV(P132:P136)</f>
         <v>4.9799598391954927</v>
       </c>
-      <c r="Q137" s="76">
-        <f t="shared" ref="Q137" si="245">STDEV(Q132:Q136)</f>
+      <c r="Q137" s="67">
+        <f t="shared" ref="Q137" si="252">STDEV(Q132:Q136)</f>
         <v>9.6436507609929549</v>
       </c>
-      <c r="R137" s="76">
-        <f t="shared" ref="R137" si="246">STDEV(R132:R136)</f>
+      <c r="R137" s="67">
+        <f t="shared" ref="R137" si="253">STDEV(R132:R136)</f>
         <v>4.8270073544588676</v>
       </c>
-      <c r="S137" s="76">
-        <f t="shared" ref="S137" si="247">STDEV(S132:S136)</f>
+      <c r="S137" s="67">
+        <f t="shared" ref="S137" si="254">STDEV(S132:S136)</f>
         <v>2.4779083921727226E-2</v>
       </c>
-      <c r="T137" s="76">
-        <f t="shared" ref="T137" si="248">STDEV(T132:T136)</f>
+      <c r="T137" s="67">
+        <f t="shared" ref="T137" si="255">STDEV(T132:T136)</f>
         <v>4.6636223582104362E-3</v>
       </c>
     </row>
@@ -16885,46 +16888,46 @@
       <c r="I138" s="5">
         <v>0.57740000000000002</v>
       </c>
-      <c r="J138" s="79">
+      <c r="J138" s="70">
         <v>0.900536</v>
       </c>
       <c r="K138" s="13" t="s">
         <v>15</v>
       </c>
       <c r="L138" s="10">
-        <f>MEDIAN(L132:L136)</f>
+        <f t="shared" ref="L138:T138" si="256">MEDIAN(L132:L136)</f>
         <v>0.25</v>
       </c>
       <c r="M138" s="10">
-        <f>MEDIAN(M132:M136)</f>
+        <f t="shared" si="256"/>
         <v>0.79</v>
       </c>
       <c r="N138" s="16">
-        <f>MEDIAN(N132:N136)</f>
+        <f t="shared" si="256"/>
         <v>0.81</v>
       </c>
       <c r="O138" s="10">
-        <f>MEDIAN(O132:O136)</f>
+        <f t="shared" si="256"/>
         <v>0.8</v>
       </c>
       <c r="P138" s="10">
-        <f>MEDIAN(P132:P136)</f>
+        <f t="shared" si="256"/>
         <v>216</v>
       </c>
       <c r="Q138" s="10">
-        <f>MEDIAN(Q132:Q136)</f>
+        <f t="shared" si="256"/>
         <v>54</v>
       </c>
       <c r="R138" s="10">
-        <f>MEDIAN(R132:R136)</f>
+        <f t="shared" si="256"/>
         <v>51</v>
       </c>
       <c r="S138" s="10">
-        <f>MEDIAN(S132:S136)</f>
+        <f t="shared" si="256"/>
         <v>0.60419999999999996</v>
       </c>
       <c r="T138" s="38">
-        <f>MEDIAN(T132:T136)</f>
+        <f t="shared" si="256"/>
         <v>0.88544</v>
       </c>
     </row>
@@ -16956,7 +16959,7 @@
       <c r="I139" s="5">
         <v>0.62429999999999997</v>
       </c>
-      <c r="J139" s="79">
+      <c r="J139" s="70">
         <v>0.88706300000000005</v>
       </c>
     </row>
@@ -16988,7 +16991,7 @@
       <c r="I140" s="5">
         <v>0.61650000000000005</v>
       </c>
-      <c r="J140" s="79">
+      <c r="J140" s="70">
         <v>0.89604200000000001</v>
       </c>
     </row>
@@ -17020,47 +17023,47 @@
       <c r="I141" s="12">
         <v>0.59919999999999995</v>
       </c>
-      <c r="J141" s="83">
+      <c r="J141" s="74">
         <v>0.905003</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="106" t="s">
+      <c r="A142" s="94" t="s">
         <v>65</v>
       </c>
       <c r="B142" s="15">
-        <f t="shared" ref="B142:I142" si="249">STDEV(B132:B141)</f>
+        <f t="shared" ref="B142:I142" si="257">STDEV(B132:B141)</f>
         <v>0</v>
       </c>
       <c r="C142" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="257"/>
         <v>2.1705094128132929E-2</v>
       </c>
       <c r="D142" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="257"/>
         <v>3.0258148581093897E-2</v>
       </c>
       <c r="E142" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="257"/>
         <v>2.4944382578492914E-2</v>
       </c>
       <c r="F142" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="257"/>
         <v>4.1686661868969281</v>
       </c>
       <c r="G142" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="257"/>
         <v>3.9157800414902435</v>
       </c>
       <c r="H142" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="257"/>
         <v>4.0496913462633222</v>
       </c>
       <c r="I142" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="257"/>
         <v>2.2970406081642428E-2</v>
       </c>
-      <c r="J142" s="82">
+      <c r="J142" s="73">
         <f>STDEV(J132:J141)</f>
         <v>2.3723725085988401E-2</v>
       </c>
@@ -17074,35 +17077,35 @@
         <v>0.25</v>
       </c>
       <c r="C143" s="10">
-        <f t="shared" ref="C143:J143" si="250">MEDIAN(C132:C141)</f>
+        <f t="shared" ref="C143:J143" si="258">MEDIAN(C132:C141)</f>
         <v>0.8</v>
       </c>
       <c r="D143" s="10">
-        <f t="shared" si="250"/>
+        <f t="shared" si="258"/>
         <v>0.81499999999999995</v>
       </c>
       <c r="E143" s="10">
-        <f t="shared" si="250"/>
+        <f t="shared" si="258"/>
         <v>0.8</v>
       </c>
       <c r="F143" s="10">
-        <f t="shared" si="250"/>
+        <f t="shared" si="258"/>
         <v>108.5</v>
       </c>
       <c r="G143" s="10">
-        <f t="shared" si="250"/>
+        <f t="shared" si="258"/>
         <v>27</v>
       </c>
       <c r="H143" s="10">
-        <f t="shared" si="250"/>
+        <f t="shared" si="258"/>
         <v>24.5</v>
       </c>
       <c r="I143" s="10">
-        <f t="shared" si="250"/>
+        <f t="shared" si="258"/>
         <v>0.61644999999999994</v>
       </c>
-      <c r="J143" s="105">
-        <f t="shared" si="250"/>
+      <c r="J143" s="93">
+        <f t="shared" si="258"/>
         <v>0.89326100000000008</v>
       </c>
     </row>
@@ -17116,18 +17119,18 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="D144" s="42">
-        <f t="shared" ref="D144:E144" si="251">D143-N138</f>
+        <f t="shared" ref="D144:E144" si="259">D143-N138</f>
         <v>4.9999999999998934E-3</v>
       </c>
       <c r="E144" s="42">
-        <f t="shared" si="251"/>
+        <f t="shared" si="259"/>
         <v>0</v>
       </c>
       <c r="F144" s="42"/>
       <c r="G144" s="42"/>
       <c r="H144" s="42"/>
       <c r="I144" s="42">
-        <f t="shared" ref="I144" si="252">I143-S138</f>
+        <f t="shared" ref="I144" si="260">I143-S138</f>
         <v>1.2249999999999983E-2</v>
       </c>
       <c r="J144" s="43">
@@ -17137,6 +17140,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A118:J118"/>
+    <mergeCell ref="K118:T118"/>
+    <mergeCell ref="A130:J130"/>
+    <mergeCell ref="K130:T130"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="K69:T69"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="K106:T106"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="K94:T94"/>
     <mergeCell ref="K82:T82"/>
     <mergeCell ref="A82:J82"/>
     <mergeCell ref="K1:T1"/>
@@ -17151,16 +17164,6 @@
     <mergeCell ref="K58:T58"/>
     <mergeCell ref="K47:T47"/>
     <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A118:J118"/>
-    <mergeCell ref="K118:T118"/>
-    <mergeCell ref="A130:J130"/>
-    <mergeCell ref="K130:T130"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="K69:T69"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="K106:T106"/>
-    <mergeCell ref="A94:J94"/>
-    <mergeCell ref="K94:T94"/>
   </mergeCells>
   <conditionalFormatting sqref="C34:F34 I34:J34">
     <cfRule type="cellIs" dxfId="47" priority="58" operator="greaterThan">
@@ -17387,15 +17390,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDF478C-84F8-7949-9002-5ABF95255D36}">
   <dimension ref="B2:AH49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" topLeftCell="T1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="AH48" sqref="AH48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="91"/>
+    <col min="8" max="8" width="10.83203125" style="80"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.6640625" customWidth="1"/>
     <col min="14" max="14" width="2.83203125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
@@ -17405,31 +17409,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="85"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="85"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="98"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -17437,8 +17441,8 @@
       <c r="G3" s="7"/>
       <c r="H3" s="50"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="99"/>
-      <c r="N3" s="98"/>
+      <c r="J3" s="87"/>
+      <c r="N3" s="86"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -17446,54 +17450,54 @@
       <c r="S3" s="7"/>
       <c r="T3" s="50"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="99"/>
+      <c r="V3" s="87"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="98"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="83" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="N4" s="98"/>
+      <c r="J4" s="87"/>
+      <c r="N4" s="86"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="94" t="s">
+      <c r="T4" s="83" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="99"/>
+      <c r="V4" s="87"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="42" t="s">
         <v>68</v>
       </c>
@@ -17513,16 +17517,16 @@
         <f>Overall!I33</f>
         <v>0.42070000000000002</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="82">
         <f>Overall!J33</f>
         <v>0.60589800000000005</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="82">
         <f>Overall!J32</f>
         <v>3.1049019778408463E-2</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="N5" s="98"/>
+      <c r="J5" s="87"/>
+      <c r="N5" s="86"/>
       <c r="O5" s="42" t="s">
         <v>72</v>
       </c>
@@ -17542,18 +17546,18 @@
         <f>Overall!I44</f>
         <v>0.60060000000000002</v>
       </c>
-      <c r="T5" s="93">
+      <c r="T5" s="82">
         <f>Overall!J44</f>
         <v>0.86950799999999995</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="82">
         <f>Overall!J43</f>
         <v>1.3156722490802944E-2</v>
       </c>
-      <c r="V5" s="99"/>
+      <c r="V5" s="87"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="98"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="42" t="s">
         <v>81</v>
       </c>
@@ -17573,16 +17577,16 @@
         <f>Overall!S33</f>
         <v>0.60419999999999996</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="82">
         <f>Overall!T33</f>
         <v>0.88544</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="82">
         <f>Overall!T32</f>
         <v>4.6636223582104362E-3</v>
       </c>
-      <c r="J6" s="99"/>
-      <c r="N6" s="98"/>
+      <c r="J6" s="87"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="42" t="s">
         <v>73</v>
       </c>
@@ -17602,27 +17606,27 @@
         <f>Overall!I114</f>
         <v>0.59860000000000002</v>
       </c>
-      <c r="T6" s="93">
+      <c r="T6" s="82">
         <f>Overall!J114</f>
         <v>0.88089300000000004</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="82">
         <f>Overall!J113</f>
         <v>8.4370568742897431E-3</v>
       </c>
-      <c r="V6" s="99"/>
+      <c r="V6" s="87"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="103"/>
-      <c r="N7" s="98"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="91"/>
+      <c r="N7" s="86"/>
       <c r="O7" s="42" t="s">
         <v>80</v>
       </c>
@@ -17638,51 +17642,51 @@
       <c r="S7" s="5">
         <v>0.60419999999999996</v>
       </c>
-      <c r="T7" s="93">
+      <c r="T7" s="82">
         <v>0.88544</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="82">
         <v>4.6636223582104362E-3</v>
       </c>
-      <c r="V7" s="99"/>
+      <c r="V7" s="87"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="103"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="91"/>
     </row>
     <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
-      <c r="C10" s="96" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="97"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="96" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="85"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="97"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="85"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="98"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -17690,8 +17694,8 @@
       <c r="G11" s="7"/>
       <c r="H11" s="50"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="99"/>
-      <c r="N11" s="98"/>
+      <c r="J11" s="87"/>
+      <c r="N11" s="86"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -17699,55 +17703,55 @@
       <c r="S11" s="7"/>
       <c r="T11" s="50"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="87"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="98"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="83" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="99"/>
-      <c r="N12" s="98"/>
+      <c r="J12" s="87"/>
+      <c r="N12" s="86"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="92" t="s">
+      <c r="P12" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="92" t="s">
+      <c r="Q12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="92" t="s">
+      <c r="R12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="92" t="s">
+      <c r="S12" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="94" t="s">
+      <c r="T12" s="83" t="s">
         <v>9</v>
       </c>
       <c r="U12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="V12" s="99"/>
+      <c r="V12" s="87"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="98"/>
-      <c r="C13" s="104">
+      <c r="B13" s="86"/>
+      <c r="C13" s="92">
         <v>5</v>
       </c>
       <c r="D13" s="5">
@@ -17766,16 +17770,16 @@
         <f>Overall!I21</f>
         <v>0.60840000000000005</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="82">
         <f>Overall!J21</f>
         <v>0.89201299999999994</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="82">
         <f>Overall!J20</f>
         <v>8.6904123780175164E-3</v>
       </c>
-      <c r="J13" s="99"/>
-      <c r="N13" s="98"/>
+      <c r="J13" s="87"/>
+      <c r="N13" s="86"/>
       <c r="O13" s="42" t="s">
         <v>78</v>
       </c>
@@ -17795,19 +17799,19 @@
         <f>Overall!I77</f>
         <v>0.58509999999999995</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="82">
         <f>Overall!J77</f>
         <v>0.881803</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="82">
         <f>Overall!J76</f>
         <v>9.8451420761713863E-3</v>
       </c>
-      <c r="V13" s="99"/>
+      <c r="V13" s="87"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
-      <c r="C14" s="104" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="92" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="5">
@@ -17826,16 +17830,16 @@
         <f>Overall!S21</f>
         <v>0.60419999999999996</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="82">
         <f>Overall!T21</f>
         <v>0.88544</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="82">
         <f>Overall!T20</f>
         <v>4.6636223582104362E-3</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="N14" s="98"/>
+      <c r="J14" s="87"/>
+      <c r="N14" s="86"/>
       <c r="O14" s="42" t="s">
         <v>79</v>
       </c>
@@ -17855,19 +17859,19 @@
         <f>Overall!I126</f>
         <v>0.61850000000000005</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="82">
         <f>Overall!J126</f>
         <v>0.88310100000000002</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="82">
         <f>Overall!J125</f>
         <v>8.7863464932814786E-3</v>
       </c>
-      <c r="V14" s="99"/>
+      <c r="V14" s="87"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="98"/>
-      <c r="C15" s="104">
+      <c r="B15" s="86"/>
+      <c r="C15" s="92">
         <v>15</v>
       </c>
       <c r="D15" s="5">
@@ -17886,16 +17890,16 @@
         <f>Overall!I9</f>
         <v>0.60099999999999998</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="82">
         <f>Overall!J9</f>
         <v>0.88091900000000001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="82">
         <f>Overall!J8</f>
         <v>1.1033659311398028E-2</v>
       </c>
-      <c r="J15" s="99"/>
-      <c r="N15" s="98"/>
+      <c r="J15" s="87"/>
+      <c r="N15" s="86"/>
       <c r="O15" s="42" t="s">
         <v>80</v>
       </c>
@@ -17911,49 +17915,49 @@
       <c r="S15" s="5">
         <v>0.60419999999999996</v>
       </c>
-      <c r="T15" s="93">
+      <c r="T15" s="82">
         <v>0.88544</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="82">
         <v>4.6636223582104362E-3</v>
       </c>
-      <c r="V15" s="99"/>
+      <c r="V15" s="87"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="103"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="103"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="91"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="91"/>
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="85"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="98"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -17961,33 +17965,33 @@
       <c r="G20" s="7"/>
       <c r="H20" s="50"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="99"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="98"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="92" t="s">
+      <c r="F21" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="94" t="s">
+      <c r="H21" s="83" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="87"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="98"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="42" t="s">
         <v>74</v>
       </c>
@@ -18007,18 +18011,18 @@
         <f>Overall!I66</f>
         <v>0.58989999999999998</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="82">
         <f>Overall!J66</f>
         <v>0.88109400000000004</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="82">
         <f>Overall!J65</f>
         <v>5.9563927254673498E-3</v>
       </c>
-      <c r="J22" s="99"/>
+      <c r="J22" s="87"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="98"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="42" t="s">
         <v>80</v>
       </c>
@@ -18034,43 +18038,43 @@
       <c r="G23" s="5">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H23" s="93">
+      <c r="H23" s="82">
         <v>0.88544</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="82">
         <v>4.6636223582104362E-3</v>
       </c>
-      <c r="J23" s="99"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="103"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="91"/>
     </row>
     <row r="25" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H25" s="50"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="95"/>
-      <c r="C27" s="96" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="97"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="85"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="98"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -18078,34 +18082,34 @@
       <c r="G28" s="7"/>
       <c r="H28" s="50"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="99"/>
+      <c r="J28" s="87"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="98"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="92" t="s">
+      <c r="F29" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="92" t="s">
+      <c r="G29" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="94" t="s">
+      <c r="H29" s="83" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="99"/>
+      <c r="J29" s="87"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="98"/>
-      <c r="C30" s="104" t="s">
+      <c r="B30" s="86"/>
+      <c r="C30" s="92" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="5">
@@ -18120,17 +18124,17 @@
       <c r="G30" s="5">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H30" s="93">
+      <c r="H30" s="82">
         <v>0.88544</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="82">
         <v>4.6636223582104362E-3</v>
       </c>
-      <c r="J30" s="99"/>
+      <c r="J30" s="87"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="98"/>
-      <c r="C31" s="104">
+      <c r="B31" s="86"/>
+      <c r="C31" s="92">
         <v>3500</v>
       </c>
       <c r="D31" s="5">
@@ -18149,19 +18153,19 @@
         <f>Overall!I90</f>
         <v>0.60829999999999995</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="82">
         <f>Overall!J90</f>
         <v>0.90214899999999998</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="82">
         <f>Overall!J89</f>
         <v>7.8267227177152392E-3</v>
       </c>
-      <c r="J31" s="99"/>
+      <c r="J31" s="87"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="98"/>
-      <c r="C32" s="104">
+      <c r="B32" s="86"/>
+      <c r="C32" s="92">
         <v>4000</v>
       </c>
       <c r="D32" s="5">
@@ -18180,40 +18184,40 @@
         <f>Overall!I102</f>
         <v>0.60780000000000001</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="82">
         <f>Overall!J102</f>
         <v>0.89660200000000001</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="82">
         <f>Overall!J101</f>
         <v>7.5339638106378202E-3</v>
       </c>
-      <c r="J32" s="99"/>
+      <c r="J32" s="87"/>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="103"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="91"/>
     </row>
     <row r="36" spans="2:34" ht="29" x14ac:dyDescent="0.2">
-      <c r="Y36" s="70" t="s">
+      <c r="Y36" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="68"/>
+      <c r="Z36" s="105"/>
+      <c r="AA36" s="105"/>
+      <c r="AB36" s="105"/>
+      <c r="AC36" s="105"/>
+      <c r="AD36" s="105"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="100"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="Y37" s="1" t="s">
@@ -18563,47 +18567,47 @@
       <c r="AG47" s="12">
         <v>0.59919999999999995</v>
       </c>
-      <c r="AH47" s="107">
+      <c r="AH47" s="95">
         <v>0.905003</v>
       </c>
     </row>
     <row r="48" spans="2:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Y48" s="106" t="s">
+      <c r="Y48" s="94" t="s">
         <v>65</v>
       </c>
       <c r="Z48" s="15">
         <f t="shared" ref="Z48:AG48" si="0">STDEV(Z38:Z47)</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="15">
+      <c r="AA48" s="108">
         <f t="shared" si="0"/>
         <v>2.1705094128132929E-2</v>
       </c>
-      <c r="AB48" s="15">
+      <c r="AB48" s="108">
         <f t="shared" si="0"/>
         <v>3.0258148581093897E-2</v>
       </c>
-      <c r="AC48" s="15">
+      <c r="AC48" s="108">
         <f t="shared" si="0"/>
         <v>2.4944382578492914E-2</v>
       </c>
-      <c r="AD48" s="15">
+      <c r="AD48" s="108">
         <f t="shared" si="0"/>
         <v>4.1686661868969281</v>
       </c>
-      <c r="AE48" s="15">
+      <c r="AE48" s="108">
         <f t="shared" si="0"/>
         <v>3.9157800414902435</v>
       </c>
-      <c r="AF48" s="15">
+      <c r="AF48" s="108">
         <f t="shared" si="0"/>
         <v>4.0496913462633222</v>
       </c>
-      <c r="AG48" s="15">
+      <c r="AG48" s="108">
         <f t="shared" si="0"/>
         <v>2.2970406081642428E-2</v>
       </c>
-      <c r="AH48" s="15">
+      <c r="AH48" s="109">
         <f>STDEV(AH38:AH47)</f>
         <v>2.3723725085988401E-2</v>
       </c>
@@ -18644,7 +18648,7 @@
         <f t="shared" si="1"/>
         <v>0.61644999999999994</v>
       </c>
-      <c r="AH49" s="81">
+      <c r="AH49" s="72">
         <f t="shared" si="1"/>
         <v>0.89326100000000008</v>
       </c>

--- a/Comparision.xlsx
+++ b/Comparision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/dev/uni/vision/AISSCV_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF60D5-4489-004B-9735-32AE42575189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA9C25-B31F-4D4E-85C7-86EBBDB8440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26040" yWindow="2940" windowWidth="43740" windowHeight="29460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16420" yWindow="2940" windowWidth="43740" windowHeight="29460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="84">
   <si>
     <t>run</t>
   </si>
@@ -294,7 +294,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -736,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -913,6 +913,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,6 +926,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,26 +948,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2235,18 +2278,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2844,18 +2887,18 @@
       <c r="J18" s="56"/>
     </row>
     <row r="20" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="96" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3453,18 +3496,18 @@
       <c r="J37" s="56"/>
     </row>
     <row r="39" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="96" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -4058,18 +4101,18 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="96" t="s">
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4663,18 +4706,18 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A75" s="96" t="s">
+      <c r="A75" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="96"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="96" t="s">
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="98"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5268,18 +5311,18 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A96" s="96" t="s">
+      <c r="A96" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="96"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="96" t="s">
+      <c r="B96" s="98"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="96"/>
-      <c r="G96" s="96"/>
-      <c r="H96" s="96"/>
+      <c r="F96" s="98"/>
+      <c r="G96" s="98"/>
+      <c r="H96" s="98"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -5873,18 +5916,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A114" s="96" t="s">
+      <c r="A114" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="96"/>
-      <c r="C114" s="96"/>
-      <c r="D114" s="97"/>
-      <c r="E114" s="96" t="s">
+      <c r="B114" s="98"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="96"/>
-      <c r="G114" s="96"/>
-      <c r="H114" s="96"/>
+      <c r="F114" s="98"/>
+      <c r="G114" s="98"/>
+      <c r="H114" s="98"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -6482,18 +6525,18 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A132" s="96" t="s">
+      <c r="A132" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B132" s="96"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="97"/>
-      <c r="E132" s="96" t="s">
+      <c r="B132" s="98"/>
+      <c r="C132" s="98"/>
+      <c r="D132" s="99"/>
+      <c r="E132" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F132" s="96"/>
-      <c r="G132" s="96"/>
-      <c r="H132" s="96"/>
+      <c r="F132" s="98"/>
+      <c r="G132" s="98"/>
+      <c r="H132" s="98"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="44" t="s">
@@ -7087,18 +7130,18 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A151" s="96" t="s">
+      <c r="A151" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="96"/>
-      <c r="C151" s="96"/>
-      <c r="D151" s="97"/>
-      <c r="E151" s="96" t="s">
+      <c r="B151" s="98"/>
+      <c r="C151" s="98"/>
+      <c r="D151" s="99"/>
+      <c r="E151" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F151" s="96"/>
-      <c r="G151" s="96"/>
-      <c r="H151" s="96"/>
+      <c r="F151" s="98"/>
+      <c r="G151" s="98"/>
+      <c r="H151" s="98"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -7692,18 +7735,18 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A169" s="96" t="s">
+      <c r="A169" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="B169" s="96"/>
-      <c r="C169" s="96"/>
-      <c r="D169" s="97"/>
-      <c r="E169" s="96" t="s">
+      <c r="B169" s="98"/>
+      <c r="C169" s="98"/>
+      <c r="D169" s="99"/>
+      <c r="E169" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F169" s="96"/>
-      <c r="G169" s="96"/>
-      <c r="H169" s="96"/>
+      <c r="F169" s="98"/>
+      <c r="G169" s="98"/>
+      <c r="H169" s="98"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="59" t="s">
@@ -8297,18 +8340,18 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A187" s="96" t="s">
+      <c r="A187" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="B187" s="96"/>
-      <c r="C187" s="96"/>
-      <c r="D187" s="97"/>
-      <c r="E187" s="96" t="s">
+      <c r="B187" s="98"/>
+      <c r="C187" s="98"/>
+      <c r="D187" s="99"/>
+      <c r="E187" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F187" s="96"/>
-      <c r="G187" s="96"/>
-      <c r="H187" s="96"/>
+      <c r="F187" s="98"/>
+      <c r="G187" s="98"/>
+      <c r="H187" s="98"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
@@ -8902,18 +8945,18 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="98" t="s">
+      <c r="A205" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B205" s="98"/>
-      <c r="C205" s="98"/>
-      <c r="D205" s="99"/>
-      <c r="E205" s="96" t="s">
+      <c r="B205" s="100"/>
+      <c r="C205" s="100"/>
+      <c r="D205" s="101"/>
+      <c r="E205" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="F205" s="96"/>
-      <c r="G205" s="96"/>
-      <c r="H205" s="96"/>
+      <c r="F205" s="98"/>
+      <c r="G205" s="98"/>
+      <c r="H205" s="98"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
@@ -9508,16 +9551,8 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A96:D96"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="E187:H187"/>
     <mergeCell ref="A205:D205"/>
@@ -9530,198 +9565,206 @@
     <mergeCell ref="E151:H151"/>
     <mergeCell ref="A132:D132"/>
     <mergeCell ref="E132:H132"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L16">
-    <cfRule type="cellIs" dxfId="95" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K16">
-    <cfRule type="cellIs" dxfId="93" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K54">
-    <cfRule type="cellIs" dxfId="91" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L54">
-    <cfRule type="cellIs" dxfId="89" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:K71">
-    <cfRule type="cellIs" dxfId="87" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:L71">
-    <cfRule type="cellIs" dxfId="85" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:K90">
-    <cfRule type="cellIs" dxfId="83" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77:L90">
-    <cfRule type="cellIs" dxfId="81" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:K111">
-    <cfRule type="cellIs" dxfId="79" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L98:L111">
-    <cfRule type="cellIs" dxfId="77" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:K129">
-    <cfRule type="cellIs" dxfId="75" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L116:L129">
-    <cfRule type="cellIs" dxfId="73" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:K147">
-    <cfRule type="cellIs" dxfId="71" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L134:L147">
-    <cfRule type="cellIs" dxfId="69" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153:K166">
-    <cfRule type="cellIs" dxfId="67" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L153:L166">
-    <cfRule type="cellIs" dxfId="65" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J171:K184">
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L171:L184">
-    <cfRule type="cellIs" dxfId="61" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189:K202">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189:L202">
-    <cfRule type="cellIs" dxfId="57" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J207:K220">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L207:L220">
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K35">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L35">
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9737,8 +9780,8 @@
   </sheetPr>
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9750,30 +9793,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="103" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10400,30 +10443,30 @@
       <c r="T12" s="39"/>
     </row>
     <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="100" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
@@ -11018,30 +11061,30 @@
       <c r="T23" s="39"/>
     </row>
     <row r="25" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="100" t="s">
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -11624,30 +11667,30 @@
       <c r="T34" s="39"/>
     </row>
     <row r="36" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="100" t="s">
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
@@ -12220,30 +12263,30 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="100" t="s">
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="101"/>
-      <c r="M47" s="101"/>
-      <c r="N47" s="101"/>
-      <c r="O47" s="101"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="106"/>
+      <c r="S47" s="106"/>
+      <c r="T47" s="106"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -12816,30 +12859,30 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A58" s="100" t="s">
+      <c r="A58" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="100" t="s">
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="101"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="101"/>
-      <c r="O58" s="101"/>
-      <c r="P58" s="101"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="101"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="101"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="106"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
@@ -13412,30 +13455,30 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A69" s="100" t="s">
+      <c r="A69" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="101"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
-      <c r="I69" s="101"/>
-      <c r="J69" s="102"/>
-      <c r="K69" s="100" t="s">
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L69" s="101"/>
-      <c r="M69" s="101"/>
-      <c r="N69" s="101"/>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="101"/>
-      <c r="S69" s="101"/>
-      <c r="T69" s="101"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="106"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="106"/>
+      <c r="R69" s="106"/>
+      <c r="S69" s="106"/>
+      <c r="T69" s="106"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
@@ -14008,30 +14051,30 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A82" s="100" t="s">
+      <c r="A82" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="101"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="101"/>
-      <c r="H82" s="101"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="102"/>
-      <c r="K82" s="100" t="s">
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="106"/>
+      <c r="F82" s="106"/>
+      <c r="G82" s="106"/>
+      <c r="H82" s="106"/>
+      <c r="I82" s="106"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L82" s="101"/>
-      <c r="M82" s="101"/>
-      <c r="N82" s="101"/>
-      <c r="O82" s="101"/>
-      <c r="P82" s="101"/>
-      <c r="Q82" s="101"/>
-      <c r="R82" s="101"/>
-      <c r="S82" s="101"/>
-      <c r="T82" s="101"/>
+      <c r="L82" s="106"/>
+      <c r="M82" s="106"/>
+      <c r="N82" s="106"/>
+      <c r="O82" s="106"/>
+      <c r="P82" s="106"/>
+      <c r="Q82" s="106"/>
+      <c r="R82" s="106"/>
+      <c r="S82" s="106"/>
+      <c r="T82" s="106"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
@@ -14604,30 +14647,30 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A94" s="100" t="s">
+      <c r="A94" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="101"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="101"/>
-      <c r="H94" s="101"/>
-      <c r="I94" s="101"/>
-      <c r="J94" s="102"/>
-      <c r="K94" s="100" t="s">
+      <c r="B94" s="106"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="106"/>
+      <c r="F94" s="106"/>
+      <c r="G94" s="106"/>
+      <c r="H94" s="106"/>
+      <c r="I94" s="106"/>
+      <c r="J94" s="107"/>
+      <c r="K94" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L94" s="101"/>
-      <c r="M94" s="101"/>
-      <c r="N94" s="101"/>
-      <c r="O94" s="101"/>
-      <c r="P94" s="101"/>
-      <c r="Q94" s="101"/>
-      <c r="R94" s="101"/>
-      <c r="S94" s="101"/>
-      <c r="T94" s="101"/>
+      <c r="L94" s="106"/>
+      <c r="M94" s="106"/>
+      <c r="N94" s="106"/>
+      <c r="O94" s="106"/>
+      <c r="P94" s="106"/>
+      <c r="Q94" s="106"/>
+      <c r="R94" s="106"/>
+      <c r="S94" s="106"/>
+      <c r="T94" s="106"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -15200,30 +15243,30 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A106" s="104" t="s">
+      <c r="A106" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="105"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="106"/>
-      <c r="K106" s="100" t="s">
+      <c r="B106" s="103"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="103"/>
+      <c r="J106" s="104"/>
+      <c r="K106" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="101"/>
-      <c r="M106" s="101"/>
-      <c r="N106" s="101"/>
-      <c r="O106" s="101"/>
-      <c r="P106" s="101"/>
-      <c r="Q106" s="101"/>
-      <c r="R106" s="101"/>
-      <c r="S106" s="101"/>
-      <c r="T106" s="101"/>
+      <c r="L106" s="106"/>
+      <c r="M106" s="106"/>
+      <c r="N106" s="106"/>
+      <c r="O106" s="106"/>
+      <c r="P106" s="106"/>
+      <c r="Q106" s="106"/>
+      <c r="R106" s="106"/>
+      <c r="S106" s="106"/>
+      <c r="T106" s="106"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="59" t="s">
@@ -15796,30 +15839,30 @@
       </c>
     </row>
     <row r="118" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A118" s="104" t="s">
+      <c r="A118" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="105"/>
-      <c r="C118" s="105"/>
-      <c r="D118" s="105"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="105"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="105"/>
-      <c r="I118" s="105"/>
-      <c r="J118" s="106"/>
-      <c r="K118" s="100" t="s">
+      <c r="B118" s="103"/>
+      <c r="C118" s="103"/>
+      <c r="D118" s="103"/>
+      <c r="E118" s="103"/>
+      <c r="F118" s="103"/>
+      <c r="G118" s="103"/>
+      <c r="H118" s="103"/>
+      <c r="I118" s="103"/>
+      <c r="J118" s="104"/>
+      <c r="K118" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L118" s="101"/>
-      <c r="M118" s="101"/>
-      <c r="N118" s="101"/>
-      <c r="O118" s="101"/>
-      <c r="P118" s="101"/>
-      <c r="Q118" s="101"/>
-      <c r="R118" s="101"/>
-      <c r="S118" s="101"/>
-      <c r="T118" s="101"/>
+      <c r="L118" s="106"/>
+      <c r="M118" s="106"/>
+      <c r="N118" s="106"/>
+      <c r="O118" s="106"/>
+      <c r="P118" s="106"/>
+      <c r="Q118" s="106"/>
+      <c r="R118" s="106"/>
+      <c r="S118" s="106"/>
+      <c r="T118" s="106"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -16392,30 +16435,30 @@
       </c>
     </row>
     <row r="130" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A130" s="104" t="s">
+      <c r="A130" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="105"/>
-      <c r="C130" s="105"/>
-      <c r="D130" s="105"/>
-      <c r="E130" s="105"/>
-      <c r="F130" s="105"/>
-      <c r="G130" s="105"/>
-      <c r="H130" s="105"/>
-      <c r="I130" s="105"/>
-      <c r="J130" s="106"/>
-      <c r="K130" s="100" t="s">
+      <c r="B130" s="103"/>
+      <c r="C130" s="103"/>
+      <c r="D130" s="103"/>
+      <c r="E130" s="103"/>
+      <c r="F130" s="103"/>
+      <c r="G130" s="103"/>
+      <c r="H130" s="103"/>
+      <c r="I130" s="103"/>
+      <c r="J130" s="104"/>
+      <c r="K130" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="101"/>
-      <c r="M130" s="101"/>
-      <c r="N130" s="101"/>
-      <c r="O130" s="101"/>
-      <c r="P130" s="101"/>
-      <c r="Q130" s="101"/>
-      <c r="R130" s="101"/>
-      <c r="S130" s="101"/>
-      <c r="T130" s="101"/>
+      <c r="L130" s="106"/>
+      <c r="M130" s="106"/>
+      <c r="N130" s="106"/>
+      <c r="O130" s="106"/>
+      <c r="P130" s="106"/>
+      <c r="Q130" s="106"/>
+      <c r="R130" s="106"/>
+      <c r="S130" s="106"/>
+      <c r="T130" s="106"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -16517,28 +16560,28 @@
         <v>0.25</v>
       </c>
       <c r="M132" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N132" s="5">
         <v>0.8</v>
       </c>
-      <c r="N132" s="5">
-        <v>0.83</v>
-      </c>
       <c r="O132" s="5">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="P132" s="5">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="Q132" s="5">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="R132" s="5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S132" s="5">
-        <v>0.60519999999999996</v>
+        <v>0.59209999999999996</v>
       </c>
       <c r="T132" s="36">
-        <v>0.89015900000000003</v>
+        <v>0.85262099999999996</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
@@ -16579,28 +16622,28 @@
         <v>0.25</v>
       </c>
       <c r="M133" s="5">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="N133" s="5">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="O133" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="P133" s="5">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="Q133" s="5">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="R133" s="5">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="S133" s="5">
-        <v>0.57879999999999998</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="T133" s="36">
-        <v>0.88544</v>
+        <v>0.91647000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
@@ -16641,28 +16684,28 @@
         <v>0.25</v>
       </c>
       <c r="M134" s="5">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="N134" s="5">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="O134" s="5">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="P134" s="5">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="Q134" s="5">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R134" s="5">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="S134" s="5">
-        <v>0.64490000000000003</v>
+        <v>0.59770000000000001</v>
       </c>
       <c r="T134" s="36">
-        <v>0.88409099999999996</v>
+        <v>0.86721700000000002</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
@@ -16703,28 +16746,28 @@
         <v>0.25</v>
       </c>
       <c r="M135" s="5">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="N135" s="5">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="O135" s="5">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="P135" s="5">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="Q135" s="5">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="R135" s="5">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="S135" s="5">
-        <v>0.5917</v>
+        <v>0.6321</v>
       </c>
       <c r="T135" s="36">
-        <v>0.88582399999999994</v>
+        <v>0.93681199999999998</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -16765,28 +16808,28 @@
         <v>0.25</v>
       </c>
       <c r="M136" s="12">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="N136" s="12">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="O136" s="12">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="P136" s="12">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="Q136" s="12">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="R136" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="S136" s="12">
-        <v>0.60419999999999996</v>
+        <v>0.61009999999999998</v>
       </c>
       <c r="T136" s="37">
-        <v>0.87727599999999994</v>
+        <v>0.88785999999999998</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -16821,43 +16864,34 @@
         <v>0.89048000000000005</v>
       </c>
       <c r="K137" s="69" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L137" s="67">
-        <f>STDEV(L132:L136)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M137" s="67">
-        <f t="shared" ref="M137" si="248">STDEV(M132:M136)</f>
-        <v>3.1144823004794861E-2</v>
+        <v>0.8</v>
       </c>
       <c r="N137" s="67">
-        <f t="shared" ref="N137" si="249">STDEV(N132:N136)</f>
-        <v>1.7888543819998277E-2</v>
+        <v>0.83</v>
       </c>
       <c r="O137" s="67">
-        <f t="shared" ref="O137" si="250">STDEV(O132:O136)</f>
-        <v>2.4083189157584558E-2</v>
+        <v>0.81</v>
       </c>
       <c r="P137" s="67">
-        <f t="shared" ref="P137" si="251">STDEV(P132:P136)</f>
-        <v>4.9799598391954927</v>
+        <v>109</v>
       </c>
       <c r="Q137" s="67">
-        <f t="shared" ref="Q137" si="252">STDEV(Q132:Q136)</f>
-        <v>9.6436507609929549</v>
+        <v>28</v>
       </c>
       <c r="R137" s="67">
-        <f t="shared" ref="R137" si="253">STDEV(R132:R136)</f>
-        <v>4.8270073544588676</v>
+        <v>22</v>
       </c>
       <c r="S137" s="67">
-        <f t="shared" ref="S137" si="254">STDEV(S132:S136)</f>
-        <v>2.4779083921727226E-2</v>
+        <v>0.59279999999999999</v>
       </c>
       <c r="T137" s="67">
-        <f t="shared" ref="T137" si="255">STDEV(T132:T136)</f>
-        <v>4.6636223582104362E-3</v>
+        <v>0.90634199999999998</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
@@ -16892,43 +16926,34 @@
         <v>0.900536</v>
       </c>
       <c r="K138" s="13" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="L138" s="10">
-        <f t="shared" ref="L138:T138" si="256">MEDIAN(L132:L136)</f>
         <v>0.25</v>
       </c>
       <c r="M138" s="10">
-        <f t="shared" si="256"/>
         <v>0.79</v>
       </c>
       <c r="N138" s="16">
-        <f t="shared" si="256"/>
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="256"/>
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="256"/>
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="Q138" s="10">
-        <f t="shared" si="256"/>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="R138" s="10">
-        <f t="shared" si="256"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="S138" s="10">
-        <f t="shared" si="256"/>
-        <v>0.60419999999999996</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="T138" s="38">
-        <f t="shared" si="256"/>
-        <v>0.88544</v>
+        <v>0.88501300000000005</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
@@ -16962,6 +16987,36 @@
       <c r="J139" s="70">
         <v>0.88706300000000005</v>
       </c>
+      <c r="K139" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="L139" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M139" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="N139" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O139" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P139" s="5">
+        <v>107</v>
+      </c>
+      <c r="Q139" s="5">
+        <v>24</v>
+      </c>
+      <c r="R139" s="5">
+        <v>23</v>
+      </c>
+      <c r="S139" s="5">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="T139" s="36">
+        <v>0.88811799999999996</v>
+      </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
@@ -16994,6 +17049,36 @@
       <c r="J140" s="70">
         <v>0.89604200000000001</v>
       </c>
+      <c r="K140" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="L140" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M140" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N140" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O140" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P140" s="5">
+        <v>108</v>
+      </c>
+      <c r="Q140" s="5">
+        <v>35</v>
+      </c>
+      <c r="R140" s="5">
+        <v>24</v>
+      </c>
+      <c r="S140" s="5">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="T140" s="36">
+        <v>0.88479699999999994</v>
+      </c>
     </row>
     <row r="141" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
@@ -17026,47 +17111,116 @@
       <c r="J141" s="74">
         <v>0.905003</v>
       </c>
+      <c r="K141" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="L141" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M141" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N141" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="O141" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P141" s="5">
+        <v>99</v>
+      </c>
+      <c r="Q141" s="5">
+        <v>27</v>
+      </c>
+      <c r="R141" s="5">
+        <v>30</v>
+      </c>
+      <c r="S141" s="5">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="T141" s="36">
+        <v>0.89947699999999997</v>
+      </c>
     </row>
     <row r="142" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A142" s="94" t="s">
         <v>65</v>
       </c>
       <c r="B142" s="15">
-        <f t="shared" ref="B142:I142" si="257">STDEV(B132:B141)</f>
+        <f t="shared" ref="B142:I142" si="248">STDEV(B132:B141)</f>
         <v>0</v>
       </c>
       <c r="C142" s="15">
-        <f t="shared" si="257"/>
+        <f t="shared" si="248"/>
         <v>2.1705094128132929E-2</v>
       </c>
       <c r="D142" s="15">
-        <f t="shared" si="257"/>
+        <f t="shared" si="248"/>
         <v>3.0258148581093897E-2</v>
       </c>
       <c r="E142" s="15">
-        <f t="shared" si="257"/>
+        <f t="shared" si="248"/>
         <v>2.4944382578492914E-2</v>
       </c>
       <c r="F142" s="15">
-        <f t="shared" si="257"/>
+        <f t="shared" si="248"/>
         <v>4.1686661868969281</v>
       </c>
       <c r="G142" s="15">
-        <f t="shared" si="257"/>
+        <f t="shared" si="248"/>
         <v>3.9157800414902435</v>
       </c>
       <c r="H142" s="15">
-        <f t="shared" si="257"/>
+        <f t="shared" si="248"/>
         <v>4.0496913462633222</v>
       </c>
       <c r="I142" s="15">
-        <f t="shared" si="257"/>
+        <f t="shared" si="248"/>
         <v>2.2970406081642428E-2</v>
       </c>
       <c r="J142" s="73">
         <f>STDEV(J132:J141)</f>
         <v>2.3723725085988401E-2</v>
       </c>
+      <c r="K142" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="L142" s="15">
+        <f t="shared" ref="L142:S142" si="249">STDEV(L132:L141)</f>
+        <v>0</v>
+      </c>
+      <c r="M142" s="15">
+        <f t="shared" si="249"/>
+        <v>2.1705094128132922E-2</v>
+      </c>
+      <c r="N142" s="15">
+        <f t="shared" si="249"/>
+        <v>3.6285901761795386E-2</v>
+      </c>
+      <c r="O142" s="15">
+        <f t="shared" si="249"/>
+        <v>2.2211108331943553E-2</v>
+      </c>
+      <c r="P142" s="15">
+        <f t="shared" si="249"/>
+        <v>4.7609522856952333</v>
+      </c>
+      <c r="Q142" s="15">
+        <f t="shared" si="249"/>
+        <v>3.657564459825382</v>
+      </c>
+      <c r="R142" s="15">
+        <f t="shared" si="249"/>
+        <v>4.695151163109065</v>
+      </c>
+      <c r="S142" s="15">
+        <f t="shared" si="249"/>
+        <v>1.8904676082328879E-2</v>
+      </c>
+      <c r="T142" s="73">
+        <f>STDEV(T132:T141)</f>
+        <v>2.3953830396781593E-2</v>
+      </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
@@ -17077,36 +17231,75 @@
         <v>0.25</v>
       </c>
       <c r="C143" s="10">
-        <f t="shared" ref="C143:J143" si="258">MEDIAN(C132:C141)</f>
+        <f t="shared" ref="C143:J143" si="250">MEDIAN(C132:C141)</f>
         <v>0.8</v>
       </c>
       <c r="D143" s="10">
-        <f t="shared" si="258"/>
+        <f t="shared" si="250"/>
         <v>0.81499999999999995</v>
       </c>
       <c r="E143" s="10">
-        <f t="shared" si="258"/>
+        <f t="shared" si="250"/>
         <v>0.8</v>
       </c>
       <c r="F143" s="10">
-        <f t="shared" si="258"/>
+        <f t="shared" si="250"/>
         <v>108.5</v>
       </c>
       <c r="G143" s="10">
-        <f t="shared" si="258"/>
+        <f t="shared" si="250"/>
         <v>27</v>
       </c>
       <c r="H143" s="10">
-        <f t="shared" si="258"/>
+        <f t="shared" si="250"/>
         <v>24.5</v>
       </c>
       <c r="I143" s="10">
-        <f t="shared" si="258"/>
+        <f t="shared" si="250"/>
         <v>0.61644999999999994</v>
       </c>
       <c r="J143" s="93">
-        <f t="shared" si="258"/>
+        <f t="shared" si="250"/>
         <v>0.89326100000000008</v>
+      </c>
+      <c r="K143" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L143" s="10">
+        <f>MEDIAN(L132:L141)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M143" s="10">
+        <f t="shared" ref="M143:T143" si="251">MEDIAN(M132:M141)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N143" s="10">
+        <f t="shared" si="251"/>
+        <v>0.82</v>
+      </c>
+      <c r="O143" s="10">
+        <f t="shared" si="251"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P143" s="10">
+        <f t="shared" si="251"/>
+        <v>108.5</v>
+      </c>
+      <c r="Q143" s="10">
+        <f t="shared" si="251"/>
+        <v>27.5</v>
+      </c>
+      <c r="R143" s="10">
+        <f t="shared" si="251"/>
+        <v>23.5</v>
+      </c>
+      <c r="S143" s="10">
+        <f t="shared" si="251"/>
+        <v>0.59955000000000003</v>
+      </c>
+      <c r="T143" s="93">
+        <f t="shared" si="251"/>
+        <v>0.88798899999999992</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
@@ -17115,31 +17308,52 @@
       </c>
       <c r="B144" s="41"/>
       <c r="C144" s="42">
-        <f>C143-M138</f>
+        <f>C143-M143</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="D144" s="42">
-        <f t="shared" ref="D144:E144" si="259">D143-N138</f>
-        <v>4.9999999999998934E-3</v>
+        <f>D143-N143</f>
+        <v>-5.0000000000000044E-3</v>
       </c>
       <c r="E144" s="42">
-        <f t="shared" si="259"/>
+        <f>E143-O143</f>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="F144" s="42">
+        <f t="shared" ref="F144" si="252">F143-P143</f>
         <v>0</v>
       </c>
-      <c r="F144" s="42"/>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
+      <c r="G144" s="42">
+        <f t="shared" ref="G144" si="253">G143-Q143</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H144" s="42">
+        <f t="shared" ref="H144" si="254">H143-R143</f>
+        <v>1</v>
+      </c>
       <c r="I144" s="42">
-        <f t="shared" ref="I144" si="260">I143-S138</f>
-        <v>1.2249999999999983E-2</v>
+        <f>I143-S143</f>
+        <v>1.6899999999999915E-2</v>
       </c>
       <c r="J144" s="43">
-        <f>J143-T138</f>
-        <v>7.8210000000000779E-3</v>
+        <f>J143-T143</f>
+        <v>5.2720000000001654E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="K58:T58"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A118:J118"/>
     <mergeCell ref="K118:T118"/>
     <mergeCell ref="A130:J130"/>
@@ -17152,30 +17366,36 @@
     <mergeCell ref="K94:T94"/>
     <mergeCell ref="K82:T82"/>
     <mergeCell ref="A82:J82"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="K58:T58"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="A47:J47"/>
   </mergeCells>
   <conditionalFormatting sqref="C34:F34 I34:J34">
-    <cfRule type="cellIs" dxfId="47" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34 I34:J34">
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
+    <cfRule type="cellIs" dxfId="46" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:H12 G23:H23">
     <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17183,17 +17403,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
+  <conditionalFormatting sqref="C45:F45 I45:J45">
     <cfRule type="cellIs" dxfId="43" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
+  <conditionalFormatting sqref="C45:F45 I45:J45">
     <cfRule type="cellIs" dxfId="42" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:H12 G23:H23">
+  <conditionalFormatting sqref="G45:H45">
     <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17201,17 +17421,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:F45 I45:J45">
+  <conditionalFormatting sqref="C56:F56 I56:J56">
     <cfRule type="cellIs" dxfId="39" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:F45 I45:J45">
+  <conditionalFormatting sqref="C56:F56 I56:J56">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
+  <conditionalFormatting sqref="G56:H56">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17219,17 +17439,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:F56 I56:J56">
+  <conditionalFormatting sqref="C67:F67 I67:J67">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:F56 I56:J56">
+  <conditionalFormatting sqref="C67:F67 I67:J67">
     <cfRule type="cellIs" dxfId="34" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:H56">
+  <conditionalFormatting sqref="G67:H67">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17237,35 +17457,35 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67:F67 I67:J67">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67:F67 I67:J67">
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67:H67">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="greaterThan">
+  <conditionalFormatting sqref="C78:F78 I78:J78">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:F78 I78:J78">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78:H78">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:F91 I91:J91">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78:F78 I78:J78">
+  <conditionalFormatting sqref="C91:F91 I91:J91">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:H78">
+  <conditionalFormatting sqref="G91:H91">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17273,17 +17493,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:F91 I91:J91">
+  <conditionalFormatting sqref="C103:F103 I103:J103">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:F91 I91:J91">
+  <conditionalFormatting sqref="C103:F103 I103:J103">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:H91">
+  <conditionalFormatting sqref="G103:H103">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17291,17 +17511,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:F103 I103:J103">
+  <conditionalFormatting sqref="C115:F115 I115:J115">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:F103 I103:J103">
+  <conditionalFormatting sqref="C115:F115 I115:J115">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103:H103">
+  <conditionalFormatting sqref="G115:H115">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17309,17 +17529,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115:F115 I115:J115">
+  <conditionalFormatting sqref="C127:F127 I127:J127">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115:F115 I115:J115">
+  <conditionalFormatting sqref="C127:F127 I127:J127">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115:H115">
+  <conditionalFormatting sqref="G127:H127">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17327,35 +17547,27 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127:F127 I127:J127">
+  <conditionalFormatting sqref="C144:E144 I144:J144">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127:F127 I127:J127">
+  <conditionalFormatting sqref="C144:E144 I144:J144">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127:H127">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144:F144 I144:J144">
+  <conditionalFormatting sqref="C22:F22 I22:J22">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144:F144 I144:J144">
+  <conditionalFormatting sqref="C22:F22 I22:J22">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G144:H144">
+  <conditionalFormatting sqref="G22:H22">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17363,17 +17575,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:F22 I22:J22">
+  <conditionalFormatting sqref="F144">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:F22 I22:J22">
+  <conditionalFormatting sqref="F144">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="G144:H144">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17410,26 +17622,26 @@
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="84"/>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="85"/>
       <c r="N2" s="84"/>
-      <c r="O2" s="107" t="s">
+      <c r="O2" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
       <c r="V2" s="85"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
@@ -17663,26 +17875,26 @@
     </row>
     <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="84"/>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
       <c r="J10" s="85"/>
       <c r="N10" s="84"/>
-      <c r="O10" s="107" t="s">
+      <c r="O10" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
       <c r="V10" s="85"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
@@ -17945,15 +18157,15 @@
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="84"/>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -18062,15 +18274,15 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="84"/>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
       <c r="J27" s="85"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -18206,18 +18418,18 @@
       <c r="J33" s="91"/>
     </row>
     <row r="36" spans="2:34" ht="29" x14ac:dyDescent="0.2">
-      <c r="Y36" s="104" t="s">
+      <c r="Y36" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="Z36" s="105"/>
-      <c r="AA36" s="105"/>
-      <c r="AB36" s="105"/>
-      <c r="AC36" s="105"/>
-      <c r="AD36" s="105"/>
-      <c r="AE36" s="105"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="100"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="103"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="103"/>
+      <c r="AF36" s="103"/>
+      <c r="AG36" s="103"/>
+      <c r="AH36" s="105"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="Y37" s="1" t="s">
@@ -18579,35 +18791,35 @@
         <f t="shared" ref="Z48:AG48" si="0">STDEV(Z38:Z47)</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="108">
+      <c r="AA48" s="96">
         <f t="shared" si="0"/>
         <v>2.1705094128132929E-2</v>
       </c>
-      <c r="AB48" s="108">
+      <c r="AB48" s="96">
         <f t="shared" si="0"/>
         <v>3.0258148581093897E-2</v>
       </c>
-      <c r="AC48" s="108">
+      <c r="AC48" s="96">
         <f t="shared" si="0"/>
         <v>2.4944382578492914E-2</v>
       </c>
-      <c r="AD48" s="108">
+      <c r="AD48" s="96">
         <f t="shared" si="0"/>
         <v>4.1686661868969281</v>
       </c>
-      <c r="AE48" s="108">
+      <c r="AE48" s="96">
         <f t="shared" si="0"/>
         <v>3.9157800414902435</v>
       </c>
-      <c r="AF48" s="108">
+      <c r="AF48" s="96">
         <f t="shared" si="0"/>
         <v>4.0496913462633222</v>
       </c>
-      <c r="AG48" s="108">
+      <c r="AG48" s="96">
         <f t="shared" si="0"/>
         <v>2.2970406081642428E-2</v>
       </c>
-      <c r="AH48" s="109">
+      <c r="AH48" s="97">
         <f>STDEV(AH38:AH47)</f>
         <v>2.3723725085988401E-2</v>
       </c>

--- a/Comparision.xlsx
+++ b/Comparision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/dev/uni/vision/AISSCV_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA9C25-B31F-4D4E-85C7-86EBBDB8440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805A5E7A-33F2-1340-BC53-CB92225120A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="2940" windowWidth="43740" windowHeight="29460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16420" yWindow="2940" windowWidth="43740" windowHeight="29460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="88">
   <si>
     <t>run</t>
   </si>
@@ -251,12 +251,6 @@
     <t>Adding Occlution (Cutout)</t>
   </si>
   <si>
-    <t>occlution p=0.75, max size=0.4</t>
-  </si>
-  <si>
-    <t>occlution p=0.5, max size=0.35</t>
-  </si>
-  <si>
     <t>unlabeld data</t>
   </si>
   <si>
@@ -285,6 +279,24 @@
   </si>
   <si>
     <t>3000 (basis)</t>
+  </si>
+  <si>
+    <t>Basis (Color, Batch Size 3000, 10 Augmentations)</t>
+  </si>
+  <si>
+    <t>occlution p=0,75, max size=0,4</t>
+  </si>
+  <si>
+    <t>occlution p=0,5, max size=0,35</t>
+  </si>
+  <si>
+    <t>No Label, Occlution (0,5/0,35), Batch Size 3500</t>
+  </si>
+  <si>
+    <t>Color (10 fold)</t>
+  </si>
+  <si>
+    <t>No Label, Occlude 50% smaller size, batch size 3500 (10 fold)</t>
   </si>
 </sst>
 </file>
@@ -736,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -915,6 +927,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,15 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,38 +954,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="98">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2263,8 +2262,8 @@
   </sheetPr>
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="G231" sqref="G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2278,18 +2277,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2887,18 +2886,18 @@
       <c r="J18" s="56"/>
     </row>
     <row r="20" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="98" t="s">
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3496,18 +3495,18 @@
       <c r="J37" s="56"/>
     </row>
     <row r="39" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="98" t="s">
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -4101,18 +4100,18 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="98" t="s">
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4706,18 +4705,18 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A75" s="98" t="s">
+      <c r="A75" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="98" t="s">
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="98"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="98"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5311,18 +5310,18 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A96" s="98" t="s">
+      <c r="A96" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="98"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="98" t="s">
+      <c r="B96" s="99"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="100"/>
+      <c r="E96" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="98"/>
-      <c r="G96" s="98"/>
-      <c r="H96" s="98"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
+      <c r="H96" s="99"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -5916,18 +5915,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A114" s="98" t="s">
+      <c r="A114" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="98"/>
-      <c r="C114" s="98"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="98" t="s">
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="100"/>
+      <c r="E114" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="98"/>
-      <c r="G114" s="98"/>
-      <c r="H114" s="98"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -6525,18 +6524,18 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A132" s="98" t="s">
+      <c r="A132" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="B132" s="98"/>
-      <c r="C132" s="98"/>
-      <c r="D132" s="99"/>
-      <c r="E132" s="98" t="s">
+      <c r="B132" s="99"/>
+      <c r="C132" s="99"/>
+      <c r="D132" s="100"/>
+      <c r="E132" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F132" s="98"/>
-      <c r="G132" s="98"/>
-      <c r="H132" s="98"/>
+      <c r="F132" s="99"/>
+      <c r="G132" s="99"/>
+      <c r="H132" s="99"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="44" t="s">
@@ -7130,18 +7129,18 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A151" s="98" t="s">
+      <c r="A151" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="98"/>
-      <c r="C151" s="98"/>
-      <c r="D151" s="99"/>
-      <c r="E151" s="98" t="s">
+      <c r="B151" s="99"/>
+      <c r="C151" s="99"/>
+      <c r="D151" s="100"/>
+      <c r="E151" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F151" s="98"/>
-      <c r="G151" s="98"/>
-      <c r="H151" s="98"/>
+      <c r="F151" s="99"/>
+      <c r="G151" s="99"/>
+      <c r="H151" s="99"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -7735,18 +7734,18 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A169" s="98" t="s">
+      <c r="A169" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B169" s="98"/>
-      <c r="C169" s="98"/>
-      <c r="D169" s="99"/>
-      <c r="E169" s="98" t="s">
+      <c r="B169" s="99"/>
+      <c r="C169" s="99"/>
+      <c r="D169" s="100"/>
+      <c r="E169" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F169" s="98"/>
-      <c r="G169" s="98"/>
-      <c r="H169" s="98"/>
+      <c r="F169" s="99"/>
+      <c r="G169" s="99"/>
+      <c r="H169" s="99"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="59" t="s">
@@ -8340,18 +8339,18 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A187" s="98" t="s">
+      <c r="A187" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="B187" s="98"/>
-      <c r="C187" s="98"/>
-      <c r="D187" s="99"/>
-      <c r="E187" s="98" t="s">
+      <c r="B187" s="99"/>
+      <c r="C187" s="99"/>
+      <c r="D187" s="100"/>
+      <c r="E187" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F187" s="98"/>
-      <c r="G187" s="98"/>
-      <c r="H187" s="98"/>
+      <c r="F187" s="99"/>
+      <c r="G187" s="99"/>
+      <c r="H187" s="99"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
@@ -8945,18 +8944,18 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="B205" s="100"/>
-      <c r="C205" s="100"/>
-      <c r="D205" s="101"/>
-      <c r="E205" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="F205" s="98"/>
-      <c r="G205" s="98"/>
-      <c r="H205" s="98"/>
+      <c r="A205" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B205" s="101"/>
+      <c r="C205" s="101"/>
+      <c r="D205" s="102"/>
+      <c r="E205" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F205" s="99"/>
+      <c r="G205" s="99"/>
+      <c r="H205" s="99"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
@@ -9011,26 +9010,26 @@
         <v>18</v>
       </c>
       <c r="F207" s="51">
-        <v>0.93066000000000015</v>
+        <v>0.93520000000000003</v>
       </c>
       <c r="G207">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H207">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="I207" s="57"/>
       <c r="J207" s="51">
         <f t="shared" ref="J207:J220" si="33">B207-F207</f>
-        <v>-3.8700000000000401E-3</v>
+        <v>-8.4099999999999175E-3</v>
       </c>
       <c r="K207">
         <f t="shared" ref="K207:K220" si="34">C207-G207</f>
-        <v>-6.9</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="L207">
         <f t="shared" ref="L207:L220" si="35">D207-H207</f>
-        <v>-3.6</v>
+        <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9050,26 +9049,26 @@
         <v>21</v>
       </c>
       <c r="F208" s="51">
-        <v>0.82050000000000001</v>
+        <v>0.7904500000000001</v>
       </c>
       <c r="G208">
-        <v>22.8</v>
+        <v>11.1</v>
       </c>
       <c r="H208">
-        <v>4.4000000000000004</v>
+        <v>3</v>
       </c>
       <c r="I208" s="57"/>
       <c r="J208" s="51">
         <f t="shared" si="33"/>
-        <v>-8.3900000000000086E-3</v>
+        <v>2.1659999999999902E-2</v>
       </c>
       <c r="K208">
         <f t="shared" si="34"/>
-        <v>-11.600000000000001</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="L208">
         <f t="shared" si="35"/>
-        <v>-1.6000000000000005</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -9089,26 +9088,26 @@
         <v>19</v>
       </c>
       <c r="F209" s="51">
-        <v>0.79600000000000004</v>
+        <v>0.81349000000000005</v>
       </c>
       <c r="G209">
-        <v>10.6</v>
+        <v>5.3</v>
       </c>
       <c r="H209">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="I209" s="57"/>
       <c r="J209" s="51">
         <f t="shared" si="33"/>
-        <v>4.6669999999999989E-2</v>
+        <v>2.9179999999999984E-2</v>
       </c>
       <c r="K209">
         <f t="shared" si="34"/>
-        <v>-5</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="L209">
         <f t="shared" si="35"/>
-        <v>-1.6</v>
+        <v>-0.29999999999999982</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -9128,26 +9127,26 @@
         <v>30</v>
       </c>
       <c r="F210" s="51">
-        <v>0.99393999999999993</v>
+        <v>0.99666999999999994</v>
       </c>
       <c r="G210">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="H210">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I210" s="57"/>
       <c r="J210" s="51">
         <f t="shared" si="33"/>
-        <v>3.500000000001835E-4</v>
+        <v>-2.3799999999998267E-3</v>
       </c>
       <c r="K210">
         <f t="shared" si="34"/>
-        <v>-5.2</v>
+        <v>0</v>
       </c>
       <c r="L210">
         <f t="shared" si="35"/>
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -9167,26 +9166,26 @@
         <v>25</v>
       </c>
       <c r="F211" s="51">
-        <v>0.95017999999999991</v>
+        <v>0.97725000000000006</v>
       </c>
       <c r="G211">
-        <v>13</v>
+        <v>6.7</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I211" s="57"/>
       <c r="J211" s="51">
         <f t="shared" si="33"/>
-        <v>3.803000000000023E-2</v>
+        <v>1.0960000000000081E-2</v>
       </c>
       <c r="K211">
         <f t="shared" si="34"/>
-        <v>-6.3</v>
+        <v>0</v>
       </c>
       <c r="L211">
         <f t="shared" si="35"/>
-        <v>-0.8</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -9206,26 +9205,26 @@
         <v>27</v>
       </c>
       <c r="F212" s="51">
-        <v>0.83878000000000008</v>
+        <v>0.86822999999999995</v>
       </c>
       <c r="G212">
-        <v>20</v>
+        <v>10.6</v>
       </c>
       <c r="H212">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="I212" s="57"/>
       <c r="J212" s="51">
         <f t="shared" si="33"/>
-        <v>3.3199999999999896E-3</v>
+        <v>-2.6129999999999876E-2</v>
       </c>
       <c r="K212">
         <f t="shared" si="34"/>
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="L212">
         <f t="shared" si="35"/>
-        <v>-4.4000000000000004</v>
+        <v>0.29999999999999982</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -9245,26 +9244,26 @@
         <v>28</v>
       </c>
       <c r="F213" s="51">
-        <v>0.90058000000000005</v>
+        <v>0.91077000000000008</v>
       </c>
       <c r="G213">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H213">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="I213" s="57"/>
       <c r="J213" s="51">
         <f t="shared" si="33"/>
-        <v>4.2999999999999705E-3</v>
+        <v>-5.8900000000000619E-3</v>
       </c>
       <c r="K213">
         <f t="shared" si="34"/>
-        <v>-5.9</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="L213">
         <f t="shared" si="35"/>
-        <v>-0.7</v>
+        <v>-0.19999999999999996</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -9284,26 +9283,26 @@
         <v>23</v>
       </c>
       <c r="F214" s="51">
-        <v>0.96264000000000005</v>
+        <v>0.97732999999999992</v>
       </c>
       <c r="G214">
-        <v>14.8</v>
+        <v>7.5</v>
       </c>
       <c r="H214">
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="I214" s="57"/>
       <c r="J214" s="51">
         <f t="shared" si="33"/>
-        <v>2.1240000000000037E-2</v>
+        <v>6.5500000000001668E-3</v>
       </c>
       <c r="K214">
         <f t="shared" si="34"/>
-        <v>-7.4</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="L214">
         <f t="shared" si="35"/>
-        <v>-2.0999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -9323,26 +9322,26 @@
         <v>24</v>
       </c>
       <c r="F215" s="51">
-        <v>0.94891999999999999</v>
+        <v>0.95444999999999991</v>
       </c>
       <c r="G215">
-        <v>10.6</v>
+        <v>5.4</v>
       </c>
       <c r="H215">
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="I215" s="57"/>
       <c r="J215" s="51">
         <f t="shared" si="33"/>
-        <v>1.2080000000000091E-2</v>
+        <v>6.5500000000001668E-3</v>
       </c>
       <c r="K215">
         <f t="shared" si="34"/>
-        <v>-5.0999999999999996</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="L215">
         <f t="shared" si="35"/>
-        <v>-2.0999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -9362,26 +9361,26 @@
         <v>17</v>
       </c>
       <c r="F216" s="51">
-        <v>0.75853999999999999</v>
+        <v>0.79961000000000004</v>
       </c>
       <c r="G216">
-        <v>21</v>
+        <v>10.7</v>
       </c>
       <c r="H216">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="I216" s="57"/>
       <c r="J216" s="51">
         <f t="shared" si="33"/>
-        <v>4.4100000000000028E-2</v>
+        <v>3.0299999999999772E-3</v>
       </c>
       <c r="K216">
         <f t="shared" si="34"/>
-        <v>-10.3</v>
+        <v>0</v>
       </c>
       <c r="L216">
         <f t="shared" si="35"/>
-        <v>-5.9</v>
+        <v>-0.60000000000000053</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -9401,26 +9400,26 @@
         <v>20</v>
       </c>
       <c r="F217" s="51">
-        <v>0.78142</v>
+        <v>0.78319000000000005</v>
       </c>
       <c r="G217">
-        <v>18</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H217">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I217" s="57"/>
       <c r="J217" s="51">
         <f t="shared" si="33"/>
-        <v>1.8900000000000583E-3</v>
+        <v>1.2000000000000899E-4</v>
       </c>
       <c r="K217">
         <f t="shared" si="34"/>
-        <v>-8.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="L217">
         <f t="shared" si="35"/>
-        <v>-1.7000000000000002</v>
+        <v>0.79999999999999982</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -9440,26 +9439,26 @@
         <v>26</v>
       </c>
       <c r="F218" s="51">
-        <v>0.94423999999999997</v>
+        <v>0.93910000000000016</v>
       </c>
       <c r="G218">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I218" s="57"/>
       <c r="J218" s="51">
         <f t="shared" si="33"/>
-        <v>-2.3639999999999994E-2</v>
+        <v>-1.8500000000000183E-2</v>
       </c>
       <c r="K218">
         <f t="shared" si="34"/>
-        <v>-7.6</v>
+        <v>0</v>
       </c>
       <c r="L218">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -9479,26 +9478,26 @@
         <v>22</v>
       </c>
       <c r="F219" s="51">
-        <v>0.80137999999999998</v>
+        <v>0.77630999999999994</v>
       </c>
       <c r="G219">
-        <v>13.4</v>
+        <v>6.8</v>
       </c>
       <c r="H219">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I219" s="57"/>
       <c r="J219" s="51">
         <f t="shared" si="33"/>
-        <v>-1.8899999999999917E-2</v>
+        <v>6.1700000000001198E-3</v>
       </c>
       <c r="K219">
         <f t="shared" si="34"/>
-        <v>-6.4</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="L219">
         <f t="shared" si="35"/>
-        <v>-1.8000000000000003</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9518,26 +9517,26 @@
         <v>29</v>
       </c>
       <c r="F220" s="51">
-        <v>0.95601999999999998</v>
+        <v>0.97254000000000007</v>
       </c>
       <c r="G220">
-        <v>17.8</v>
+        <v>9.1</v>
       </c>
       <c r="H220">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="I220" s="57"/>
       <c r="J220" s="55">
         <f t="shared" si="33"/>
-        <v>2.7599999999999847E-3</v>
+        <v>-1.3760000000000105E-2</v>
       </c>
       <c r="K220">
         <f t="shared" si="34"/>
-        <v>-8.9</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="L220">
         <f t="shared" si="35"/>
-        <v>-0.49999999999999989</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -9546,11 +9545,21 @@
       </c>
       <c r="J221" s="56">
         <f>SUM(J207:J220)</f>
-        <v>0.1199400000000006</v>
+        <v>9.1500000000004356E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="E96:H96"/>
     <mergeCell ref="A96:D96"/>
     <mergeCell ref="A187:D187"/>
@@ -9565,206 +9574,196 @@
     <mergeCell ref="E151:H151"/>
     <mergeCell ref="A132:D132"/>
     <mergeCell ref="E132:H132"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L16">
-    <cfRule type="cellIs" dxfId="99" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K16">
-    <cfRule type="cellIs" dxfId="97" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K54">
-    <cfRule type="cellIs" dxfId="95" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L54">
-    <cfRule type="cellIs" dxfId="93" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:K71">
-    <cfRule type="cellIs" dxfId="91" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:L71">
-    <cfRule type="cellIs" dxfId="89" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:K90">
-    <cfRule type="cellIs" dxfId="87" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77:L90">
-    <cfRule type="cellIs" dxfId="85" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:K111">
-    <cfRule type="cellIs" dxfId="83" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L98:L111">
-    <cfRule type="cellIs" dxfId="81" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:K129">
-    <cfRule type="cellIs" dxfId="79" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L116:L129">
-    <cfRule type="cellIs" dxfId="77" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:K147">
-    <cfRule type="cellIs" dxfId="75" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L134:L147">
-    <cfRule type="cellIs" dxfId="73" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153:K166">
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L153:L166">
-    <cfRule type="cellIs" dxfId="69" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J171:K184">
-    <cfRule type="cellIs" dxfId="67" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L171:L184">
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189:K202">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189:L202">
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J207:K220">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L207:L220">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K35">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L35">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9780,8 +9779,8 @@
   </sheetPr>
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView topLeftCell="A106" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130:T143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9793,30 +9792,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="108" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10443,30 +10442,30 @@
       <c r="T12" s="39"/>
     </row>
     <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="105" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
@@ -11061,30 +11060,30 @@
       <c r="T23" s="39"/>
     </row>
     <row r="25" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="105" t="s">
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -11667,30 +11666,30 @@
       <c r="T34" s="39"/>
     </row>
     <row r="36" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="105" t="s">
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="106"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
@@ -12263,30 +12262,30 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A47" s="105" t="s">
+      <c r="A47" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="105" t="s">
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="106"/>
-      <c r="T47" s="106"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="104"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="104"/>
+      <c r="T47" s="104"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -12859,30 +12858,30 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="105" t="s">
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="106"/>
-      <c r="P58" s="106"/>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="106"/>
-      <c r="S58" s="106"/>
-      <c r="T58" s="106"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
@@ -13455,30 +13454,30 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A69" s="105" t="s">
+      <c r="A69" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106"/>
-      <c r="I69" s="106"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="105" t="s">
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L69" s="106"/>
-      <c r="M69" s="106"/>
-      <c r="N69" s="106"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="106"/>
-      <c r="R69" s="106"/>
-      <c r="S69" s="106"/>
-      <c r="T69" s="106"/>
+      <c r="L69" s="104"/>
+      <c r="M69" s="104"/>
+      <c r="N69" s="104"/>
+      <c r="O69" s="104"/>
+      <c r="P69" s="104"/>
+      <c r="Q69" s="104"/>
+      <c r="R69" s="104"/>
+      <c r="S69" s="104"/>
+      <c r="T69" s="104"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
@@ -14051,30 +14050,30 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A82" s="105" t="s">
+      <c r="A82" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
-      <c r="F82" s="106"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="105" t="s">
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L82" s="106"/>
-      <c r="M82" s="106"/>
-      <c r="N82" s="106"/>
-      <c r="O82" s="106"/>
-      <c r="P82" s="106"/>
-      <c r="Q82" s="106"/>
-      <c r="R82" s="106"/>
-      <c r="S82" s="106"/>
-      <c r="T82" s="106"/>
+      <c r="L82" s="104"/>
+      <c r="M82" s="104"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="104"/>
+      <c r="P82" s="104"/>
+      <c r="Q82" s="104"/>
+      <c r="R82" s="104"/>
+      <c r="S82" s="104"/>
+      <c r="T82" s="104"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
@@ -14647,30 +14646,30 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A94" s="105" t="s">
+      <c r="A94" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="106"/>
-      <c r="G94" s="106"/>
-      <c r="H94" s="106"/>
-      <c r="I94" s="106"/>
-      <c r="J94" s="107"/>
-      <c r="K94" s="105" t="s">
+      <c r="B94" s="104"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="104"/>
+      <c r="E94" s="104"/>
+      <c r="F94" s="104"/>
+      <c r="G94" s="104"/>
+      <c r="H94" s="104"/>
+      <c r="I94" s="104"/>
+      <c r="J94" s="105"/>
+      <c r="K94" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L94" s="106"/>
-      <c r="M94" s="106"/>
-      <c r="N94" s="106"/>
-      <c r="O94" s="106"/>
-      <c r="P94" s="106"/>
-      <c r="Q94" s="106"/>
-      <c r="R94" s="106"/>
-      <c r="S94" s="106"/>
-      <c r="T94" s="106"/>
+      <c r="L94" s="104"/>
+      <c r="M94" s="104"/>
+      <c r="N94" s="104"/>
+      <c r="O94" s="104"/>
+      <c r="P94" s="104"/>
+      <c r="Q94" s="104"/>
+      <c r="R94" s="104"/>
+      <c r="S94" s="104"/>
+      <c r="T94" s="104"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -15243,30 +15242,30 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A106" s="102" t="s">
+      <c r="A106" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="103"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="103"/>
-      <c r="I106" s="103"/>
-      <c r="J106" s="104"/>
-      <c r="K106" s="105" t="s">
+      <c r="B106" s="108"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="108"/>
+      <c r="J106" s="109"/>
+      <c r="K106" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="106"/>
-      <c r="M106" s="106"/>
-      <c r="N106" s="106"/>
-      <c r="O106" s="106"/>
-      <c r="P106" s="106"/>
-      <c r="Q106" s="106"/>
-      <c r="R106" s="106"/>
-      <c r="S106" s="106"/>
-      <c r="T106" s="106"/>
+      <c r="L106" s="104"/>
+      <c r="M106" s="104"/>
+      <c r="N106" s="104"/>
+      <c r="O106" s="104"/>
+      <c r="P106" s="104"/>
+      <c r="Q106" s="104"/>
+      <c r="R106" s="104"/>
+      <c r="S106" s="104"/>
+      <c r="T106" s="104"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="59" t="s">
@@ -15839,30 +15838,30 @@
       </c>
     </row>
     <row r="118" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A118" s="102" t="s">
+      <c r="A118" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="103"/>
-      <c r="C118" s="103"/>
-      <c r="D118" s="103"/>
-      <c r="E118" s="103"/>
-      <c r="F118" s="103"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="103"/>
-      <c r="I118" s="103"/>
-      <c r="J118" s="104"/>
-      <c r="K118" s="105" t="s">
+      <c r="B118" s="108"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="108"/>
+      <c r="E118" s="108"/>
+      <c r="F118" s="108"/>
+      <c r="G118" s="108"/>
+      <c r="H118" s="108"/>
+      <c r="I118" s="108"/>
+      <c r="J118" s="109"/>
+      <c r="K118" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L118" s="106"/>
-      <c r="M118" s="106"/>
-      <c r="N118" s="106"/>
-      <c r="O118" s="106"/>
-      <c r="P118" s="106"/>
-      <c r="Q118" s="106"/>
-      <c r="R118" s="106"/>
-      <c r="S118" s="106"/>
-      <c r="T118" s="106"/>
+      <c r="L118" s="104"/>
+      <c r="M118" s="104"/>
+      <c r="N118" s="104"/>
+      <c r="O118" s="104"/>
+      <c r="P118" s="104"/>
+      <c r="Q118" s="104"/>
+      <c r="R118" s="104"/>
+      <c r="S118" s="104"/>
+      <c r="T118" s="104"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -16435,30 +16434,30 @@
       </c>
     </row>
     <row r="130" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A130" s="102" t="s">
+      <c r="A130" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="103"/>
-      <c r="C130" s="103"/>
-      <c r="D130" s="103"/>
-      <c r="E130" s="103"/>
-      <c r="F130" s="103"/>
-      <c r="G130" s="103"/>
-      <c r="H130" s="103"/>
-      <c r="I130" s="103"/>
-      <c r="J130" s="104"/>
-      <c r="K130" s="105" t="s">
+      <c r="B130" s="108"/>
+      <c r="C130" s="108"/>
+      <c r="D130" s="108"/>
+      <c r="E130" s="108"/>
+      <c r="F130" s="108"/>
+      <c r="G130" s="108"/>
+      <c r="H130" s="108"/>
+      <c r="I130" s="108"/>
+      <c r="J130" s="109"/>
+      <c r="K130" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="106"/>
-      <c r="M130" s="106"/>
-      <c r="N130" s="106"/>
-      <c r="O130" s="106"/>
-      <c r="P130" s="106"/>
-      <c r="Q130" s="106"/>
-      <c r="R130" s="106"/>
-      <c r="S130" s="106"/>
-      <c r="T130" s="106"/>
+      <c r="L130" s="104"/>
+      <c r="M130" s="104"/>
+      <c r="N130" s="104"/>
+      <c r="O130" s="104"/>
+      <c r="P130" s="104"/>
+      <c r="Q130" s="104"/>
+      <c r="R130" s="104"/>
+      <c r="S130" s="104"/>
+      <c r="T130" s="104"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -16987,7 +16986,7 @@
       <c r="J139" s="70">
         <v>0.88706300000000005</v>
       </c>
-      <c r="K139" s="110" t="s">
+      <c r="K139" s="98" t="s">
         <v>61</v>
       </c>
       <c r="L139" s="5">
@@ -17049,7 +17048,7 @@
       <c r="J140" s="70">
         <v>0.89604200000000001</v>
       </c>
-      <c r="K140" s="110" t="s">
+      <c r="K140" s="98" t="s">
         <v>62</v>
       </c>
       <c r="L140" s="5">
@@ -17111,7 +17110,7 @@
       <c r="J141" s="74">
         <v>0.905003</v>
       </c>
-      <c r="K141" s="110" t="s">
+      <c r="K141" s="98" t="s">
         <v>58</v>
       </c>
       <c r="L141" s="5">
@@ -17342,6 +17341,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A118:J118"/>
+    <mergeCell ref="K118:T118"/>
+    <mergeCell ref="A130:J130"/>
+    <mergeCell ref="K130:T130"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="K69:T69"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="K106:T106"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="K94:T94"/>
+    <mergeCell ref="K82:T82"/>
+    <mergeCell ref="A82:J82"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="K58:T58"/>
     <mergeCell ref="K47:T47"/>
@@ -17354,206 +17365,194 @@
     <mergeCell ref="K36:T36"/>
     <mergeCell ref="K13:T13"/>
     <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A118:J118"/>
-    <mergeCell ref="K118:T118"/>
-    <mergeCell ref="A130:J130"/>
-    <mergeCell ref="K130:T130"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="K69:T69"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="K106:T106"/>
-    <mergeCell ref="A94:J94"/>
-    <mergeCell ref="K94:T94"/>
-    <mergeCell ref="K82:T82"/>
-    <mergeCell ref="A82:J82"/>
   </mergeCells>
   <conditionalFormatting sqref="C34:F34 I34:J34">
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34 I34:J34">
-    <cfRule type="cellIs" dxfId="50" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
-    <cfRule type="cellIs" dxfId="46" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H12 G23:H23">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:F45 I45:J45">
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:F45 I45:J45">
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:H45">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F56 I56:J56">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F56 I56:J56">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:H56">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:F67 I67:J67">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:F67 I67:J67">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:H67">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:F78 I78:J78">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:F78 I78:J78">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:H78">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:F91 I91:J91">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:F91 I91:J91">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:H91">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:F103 I103:J103">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:F103 I103:J103">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G103:H103">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:F115 I115:J115">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:F115 I115:J115">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115:H115">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:F127 I127:J127">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:F127 I127:J127">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G127:H127">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144:E144 I144:J144">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144:E144 I144:J144">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17600,10 +17599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDF478C-84F8-7949-9002-5ABF95255D36}">
-  <dimension ref="B2:AH49"/>
+  <dimension ref="B2:AH66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="T1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="AH48" sqref="AH48"/>
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="Y68" sqref="Y68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17622,26 +17621,26 @@
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="84"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
       <c r="J2" s="85"/>
       <c r="N2" s="84"/>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
       <c r="V2" s="85"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
@@ -17740,7 +17739,7 @@
       <c r="J5" s="87"/>
       <c r="N5" s="86"/>
       <c r="O5" s="42" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P5" s="5">
         <f>Overall!C44</f>
@@ -17771,7 +17770,7 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="86"/>
       <c r="C6" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="5">
         <f>Overall!M33</f>
@@ -17800,7 +17799,7 @@
       <c r="J6" s="87"/>
       <c r="N6" s="86"/>
       <c r="O6" s="42" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P6" s="5">
         <f>Overall!C114</f>
@@ -17840,7 +17839,7 @@
       <c r="J7" s="91"/>
       <c r="N7" s="86"/>
       <c r="O7" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P7" s="5">
         <v>0.79</v>
@@ -17875,26 +17874,26 @@
     </row>
     <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="84"/>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="85"/>
       <c r="N10" s="84"/>
-      <c r="O10" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
+      <c r="O10" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
       <c r="V10" s="85"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
@@ -17993,7 +17992,7 @@
       <c r="J13" s="87"/>
       <c r="N13" s="86"/>
       <c r="O13" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P13" s="5">
         <f>Overall!C77</f>
@@ -18024,7 +18023,7 @@
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="86"/>
       <c r="C14" s="92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="5">
         <f>Overall!M21</f>
@@ -18053,7 +18052,7 @@
       <c r="J14" s="87"/>
       <c r="N14" s="86"/>
       <c r="O14" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P14" s="5">
         <f>Overall!C126</f>
@@ -18113,7 +18112,7 @@
       <c r="J15" s="87"/>
       <c r="N15" s="86"/>
       <c r="O15" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P15" s="5">
         <v>0.79</v>
@@ -18157,15 +18156,15 @@
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="84"/>
-      <c r="C19" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
+      <c r="C19" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -18205,7 +18204,7 @@
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="86"/>
       <c r="C22" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5">
         <f>Overall!C66</f>
@@ -18236,7 +18235,7 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="86"/>
       <c r="C23" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="5">
         <v>0.79</v>
@@ -18274,15 +18273,15 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="84"/>
-      <c r="C27" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
+      <c r="C27" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
       <c r="J27" s="85"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -18322,7 +18321,7 @@
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="86"/>
       <c r="C30" s="92" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="5">
         <v>0.79</v>
@@ -18418,18 +18417,18 @@
       <c r="J33" s="91"/>
     </row>
     <row r="36" spans="2:34" ht="29" x14ac:dyDescent="0.2">
-      <c r="Y36" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="103"/>
-      <c r="AF36" s="103"/>
-      <c r="AG36" s="103"/>
-      <c r="AH36" s="105"/>
+      <c r="Y36" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="108"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="108"/>
+      <c r="AH36" s="103"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="Y37" s="1" t="s">
@@ -18865,8 +18864,457 @@
         <v>0.89326100000000008</v>
       </c>
     </row>
+    <row r="53" spans="25:34" ht="29" x14ac:dyDescent="0.2">
+      <c r="Y53" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z53" s="104"/>
+      <c r="AA53" s="104"/>
+      <c r="AB53" s="104"/>
+      <c r="AC53" s="104"/>
+      <c r="AD53" s="104"/>
+      <c r="AE53" s="104"/>
+      <c r="AF53" s="104"/>
+      <c r="AG53" s="104"/>
+      <c r="AH53" s="104"/>
+    </row>
+    <row r="54" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH54" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="AB55" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AC55" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AD55" s="5">
+        <v>107</v>
+      </c>
+      <c r="AE55" s="5">
+        <v>28</v>
+      </c>
+      <c r="AF55" s="5">
+        <v>26</v>
+      </c>
+      <c r="AG55" s="5">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="AH55" s="58">
+        <v>0.85262099999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="AB56" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="AC56" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AD56" s="5">
+        <v>112</v>
+      </c>
+      <c r="AE56" s="5">
+        <v>29</v>
+      </c>
+      <c r="AF56" s="5">
+        <v>16</v>
+      </c>
+      <c r="AG56" s="5">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AH56" s="58">
+        <v>0.91647000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="AB57" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="AD57" s="5">
+        <v>98</v>
+      </c>
+      <c r="AE57" s="5">
+        <v>27</v>
+      </c>
+      <c r="AF57" s="5">
+        <v>31</v>
+      </c>
+      <c r="AG57" s="5">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="AH57" s="58">
+        <v>0.86721700000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="AB58" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="AC58" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="AD58" s="5">
+        <v>111</v>
+      </c>
+      <c r="AE58" s="5">
+        <v>21</v>
+      </c>
+      <c r="AF58" s="5">
+        <v>20</v>
+      </c>
+      <c r="AG58" s="5">
+        <v>0.6321</v>
+      </c>
+      <c r="AH58" s="58">
+        <v>0.93681199999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="AD59" s="5">
+        <v>109</v>
+      </c>
+      <c r="AE59" s="5">
+        <v>27</v>
+      </c>
+      <c r="AF59" s="5">
+        <v>23</v>
+      </c>
+      <c r="AG59" s="5">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="AH59" s="58">
+        <v>0.88785999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AB60" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="AD60" s="5">
+        <v>109</v>
+      </c>
+      <c r="AE60" s="5">
+        <v>28</v>
+      </c>
+      <c r="AF60" s="5">
+        <v>22</v>
+      </c>
+      <c r="AG60" s="5">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="AH60" s="82">
+        <v>0.90634199999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z61" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="AA61" s="42">
+        <v>0.79</v>
+      </c>
+      <c r="AB61" s="71">
+        <v>0.79</v>
+      </c>
+      <c r="AC61" s="42">
+        <v>0.79</v>
+      </c>
+      <c r="AD61" s="42">
+        <v>110</v>
+      </c>
+      <c r="AE61" s="42">
+        <v>30</v>
+      </c>
+      <c r="AF61" s="42">
+        <v>29</v>
+      </c>
+      <c r="AG61" s="42">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="AH61" s="113">
+        <v>0.88501300000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y62" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AB62" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AC62" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AD62" s="5">
+        <v>107</v>
+      </c>
+      <c r="AE62" s="5">
+        <v>24</v>
+      </c>
+      <c r="AF62" s="5">
+        <v>23</v>
+      </c>
+      <c r="AG62" s="5">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="AH62" s="58">
+        <v>0.88811799999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y63" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="AB63" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AC63" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="AD63" s="5">
+        <v>108</v>
+      </c>
+      <c r="AE63" s="5">
+        <v>35</v>
+      </c>
+      <c r="AF63" s="5">
+        <v>24</v>
+      </c>
+      <c r="AG63" s="5">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="AH63" s="58">
+        <v>0.88479699999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="25:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y64" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z64" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="AB64" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="AD64" s="12">
+        <v>99</v>
+      </c>
+      <c r="AE64" s="12">
+        <v>27</v>
+      </c>
+      <c r="AF64" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG64" s="12">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="AH64" s="95">
+        <v>0.89947699999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="25:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z65" s="15">
+        <f t="shared" ref="Z65:AG65" si="2">STDEV(Z55:Z64)</f>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="96">
+        <f t="shared" si="2"/>
+        <v>2.1705094128132922E-2</v>
+      </c>
+      <c r="AB65" s="96">
+        <f t="shared" si="2"/>
+        <v>3.6285901761795386E-2</v>
+      </c>
+      <c r="AC65" s="96">
+        <f t="shared" si="2"/>
+        <v>2.2211108331943553E-2</v>
+      </c>
+      <c r="AD65" s="96">
+        <f t="shared" si="2"/>
+        <v>4.7609522856952333</v>
+      </c>
+      <c r="AE65" s="96">
+        <f t="shared" si="2"/>
+        <v>3.657564459825382</v>
+      </c>
+      <c r="AF65" s="96">
+        <f t="shared" si="2"/>
+        <v>4.695151163109065</v>
+      </c>
+      <c r="AG65" s="96">
+        <f t="shared" si="2"/>
+        <v>1.8904676082328879E-2</v>
+      </c>
+      <c r="AH65" s="97">
+        <f>STDEV(AH55:AH64)</f>
+        <v>2.3953830396781593E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="25:34" x14ac:dyDescent="0.2">
+      <c r="Y66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z66" s="42">
+        <f>MEDIAN(Z55:Z64)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AA66" s="42">
+        <f t="shared" ref="AA66:AH66" si="3">MEDIAN(AA55:AA64)</f>
+        <v>0.79</v>
+      </c>
+      <c r="AB66" s="42">
+        <f t="shared" si="3"/>
+        <v>0.82</v>
+      </c>
+      <c r="AC66" s="42">
+        <f t="shared" si="3"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AD66" s="42">
+        <f t="shared" si="3"/>
+        <v>108.5</v>
+      </c>
+      <c r="AE66" s="42">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="AF66" s="42">
+        <f t="shared" si="3"/>
+        <v>23.5</v>
+      </c>
+      <c r="AG66" s="42">
+        <f t="shared" si="3"/>
+        <v>0.59955000000000003</v>
+      </c>
+      <c r="AH66" s="72">
+        <f t="shared" si="3"/>
+        <v>0.88798899999999992</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="Y53:AH53"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="Y36:AH36"/>

--- a/Comparision.xlsx
+++ b/Comparision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/dev/uni/vision/AISSCV_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805A5E7A-33F2-1340-BC53-CB92225120A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A75C02-FB71-4B44-94F2-B53A4FC4D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="2940" windowWidth="43740" windowHeight="29460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16420" yWindow="2940" windowWidth="43740" windowHeight="29460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="89">
   <si>
     <t>run</t>
   </si>
@@ -298,17 +298,21 @@
   <si>
     <t>No Label, Occlude 50% smaller size, batch size 3500 (10 fold)</t>
   </si>
+  <si>
+    <t>More No Label, Occlude 50% smaller size, batch size 3500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +393,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -743,12 +753,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -930,6 +953,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,19 +1005,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="110">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2262,7 +2415,7 @@
   </sheetPr>
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView topLeftCell="A199" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="G231" sqref="G231"/>
     </sheetView>
   </sheetViews>
@@ -2277,18 +2430,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="99" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2886,18 +3039,18 @@
       <c r="J18" s="56"/>
     </row>
     <row r="20" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3495,18 +3648,18 @@
       <c r="J37" s="56"/>
     </row>
     <row r="39" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="99" t="s">
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -4100,18 +4253,18 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="99" t="s">
+      <c r="A56" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="99" t="s">
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4705,18 +4858,18 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A75" s="99" t="s">
+      <c r="A75" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="99" t="s">
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5310,18 +5463,18 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A96" s="99" t="s">
+      <c r="A96" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="99" t="s">
+      <c r="B96" s="105"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="99"/>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="105"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -5915,18 +6068,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A114" s="99" t="s">
+      <c r="A114" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="99" t="s">
+      <c r="B114" s="105"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="99"/>
-      <c r="G114" s="99"/>
-      <c r="H114" s="99"/>
+      <c r="F114" s="105"/>
+      <c r="G114" s="105"/>
+      <c r="H114" s="105"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -6524,18 +6677,18 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A132" s="99" t="s">
+      <c r="A132" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B132" s="99"/>
-      <c r="C132" s="99"/>
-      <c r="D132" s="100"/>
-      <c r="E132" s="99" t="s">
+      <c r="B132" s="105"/>
+      <c r="C132" s="105"/>
+      <c r="D132" s="106"/>
+      <c r="E132" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F132" s="99"/>
-      <c r="G132" s="99"/>
-      <c r="H132" s="99"/>
+      <c r="F132" s="105"/>
+      <c r="G132" s="105"/>
+      <c r="H132" s="105"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="44" t="s">
@@ -7129,18 +7282,18 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A151" s="99" t="s">
+      <c r="A151" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="99"/>
-      <c r="C151" s="99"/>
-      <c r="D151" s="100"/>
-      <c r="E151" s="99" t="s">
+      <c r="B151" s="105"/>
+      <c r="C151" s="105"/>
+      <c r="D151" s="106"/>
+      <c r="E151" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F151" s="99"/>
-      <c r="G151" s="99"/>
-      <c r="H151" s="99"/>
+      <c r="F151" s="105"/>
+      <c r="G151" s="105"/>
+      <c r="H151" s="105"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -7734,18 +7887,18 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A169" s="99" t="s">
+      <c r="A169" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B169" s="99"/>
-      <c r="C169" s="99"/>
-      <c r="D169" s="100"/>
-      <c r="E169" s="99" t="s">
+      <c r="B169" s="105"/>
+      <c r="C169" s="105"/>
+      <c r="D169" s="106"/>
+      <c r="E169" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F169" s="99"/>
-      <c r="G169" s="99"/>
-      <c r="H169" s="99"/>
+      <c r="F169" s="105"/>
+      <c r="G169" s="105"/>
+      <c r="H169" s="105"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="59" t="s">
@@ -8339,18 +8492,18 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A187" s="99" t="s">
+      <c r="A187" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B187" s="99"/>
-      <c r="C187" s="99"/>
-      <c r="D187" s="100"/>
-      <c r="E187" s="99" t="s">
+      <c r="B187" s="105"/>
+      <c r="C187" s="105"/>
+      <c r="D187" s="106"/>
+      <c r="E187" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F187" s="99"/>
-      <c r="G187" s="99"/>
-      <c r="H187" s="99"/>
+      <c r="F187" s="105"/>
+      <c r="G187" s="105"/>
+      <c r="H187" s="105"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
@@ -8944,18 +9097,18 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="101" t="s">
+      <c r="A205" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="B205" s="101"/>
-      <c r="C205" s="101"/>
-      <c r="D205" s="102"/>
-      <c r="E205" s="99" t="s">
+      <c r="B205" s="107"/>
+      <c r="C205" s="107"/>
+      <c r="D205" s="108"/>
+      <c r="E205" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="F205" s="99"/>
-      <c r="G205" s="99"/>
-      <c r="H205" s="99"/>
+      <c r="F205" s="105"/>
+      <c r="G205" s="105"/>
+      <c r="H205" s="105"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
@@ -9576,194 +9729,194 @@
     <mergeCell ref="E132:H132"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L16">
-    <cfRule type="cellIs" dxfId="97" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K16">
-    <cfRule type="cellIs" dxfId="95" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K54">
-    <cfRule type="cellIs" dxfId="93" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L54">
-    <cfRule type="cellIs" dxfId="91" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:K71">
-    <cfRule type="cellIs" dxfId="89" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:L71">
-    <cfRule type="cellIs" dxfId="87" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:K90">
-    <cfRule type="cellIs" dxfId="85" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77:L90">
-    <cfRule type="cellIs" dxfId="83" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:K111">
-    <cfRule type="cellIs" dxfId="81" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L98:L111">
-    <cfRule type="cellIs" dxfId="79" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116:K129">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L116:L129">
-    <cfRule type="cellIs" dxfId="75" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:K147">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L134:L147">
-    <cfRule type="cellIs" dxfId="71" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153:K166">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L153:L166">
-    <cfRule type="cellIs" dxfId="67" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J171:K184">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L171:L184">
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189:K202">
-    <cfRule type="cellIs" dxfId="61" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189:L202">
-    <cfRule type="cellIs" dxfId="59" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J207:K220">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L207:L220">
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K35">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L35">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9777,10 +9930,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:T178"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130:T143"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9792,30 +9945,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="106" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10442,30 +10595,30 @@
       <c r="T12" s="39"/>
     </row>
     <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="103" t="s">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
@@ -11060,30 +11213,30 @@
       <c r="T23" s="39"/>
     </row>
     <row r="25" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="103" t="s">
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -11666,30 +11819,30 @@
       <c r="T34" s="39"/>
     </row>
     <row r="36" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="103" t="s">
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="110"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
@@ -12262,30 +12415,30 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="103" t="s">
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="104"/>
-      <c r="P47" s="104"/>
-      <c r="Q47" s="104"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="104"/>
-      <c r="T47" s="104"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="110"/>
+      <c r="T47" s="110"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -12858,30 +13011,30 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="103" t="s">
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="104"/>
-      <c r="M58" s="104"/>
-      <c r="N58" s="104"/>
-      <c r="O58" s="104"/>
-      <c r="P58" s="104"/>
-      <c r="Q58" s="104"/>
-      <c r="R58" s="104"/>
-      <c r="S58" s="104"/>
-      <c r="T58" s="104"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="110"/>
+      <c r="N58" s="110"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="110"/>
+      <c r="S58" s="110"/>
+      <c r="T58" s="110"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
@@ -13454,30 +13607,30 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A69" s="103" t="s">
+      <c r="A69" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="103" t="s">
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="111"/>
+      <c r="K69" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L69" s="104"/>
-      <c r="M69" s="104"/>
-      <c r="N69" s="104"/>
-      <c r="O69" s="104"/>
-      <c r="P69" s="104"/>
-      <c r="Q69" s="104"/>
-      <c r="R69" s="104"/>
-      <c r="S69" s="104"/>
-      <c r="T69" s="104"/>
+      <c r="L69" s="110"/>
+      <c r="M69" s="110"/>
+      <c r="N69" s="110"/>
+      <c r="O69" s="110"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
+      <c r="R69" s="110"/>
+      <c r="S69" s="110"/>
+      <c r="T69" s="110"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
@@ -14050,30 +14203,30 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A82" s="103" t="s">
+      <c r="A82" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="104"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104"/>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104"/>
-      <c r="G82" s="104"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="105"/>
-      <c r="K82" s="103" t="s">
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L82" s="104"/>
-      <c r="M82" s="104"/>
-      <c r="N82" s="104"/>
-      <c r="O82" s="104"/>
-      <c r="P82" s="104"/>
-      <c r="Q82" s="104"/>
-      <c r="R82" s="104"/>
-      <c r="S82" s="104"/>
-      <c r="T82" s="104"/>
+      <c r="L82" s="110"/>
+      <c r="M82" s="110"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="110"/>
+      <c r="P82" s="110"/>
+      <c r="Q82" s="110"/>
+      <c r="R82" s="110"/>
+      <c r="S82" s="110"/>
+      <c r="T82" s="110"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
@@ -14646,30 +14799,30 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A94" s="103" t="s">
+      <c r="A94" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="104"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="104"/>
-      <c r="E94" s="104"/>
-      <c r="F94" s="104"/>
-      <c r="G94" s="104"/>
-      <c r="H94" s="104"/>
-      <c r="I94" s="104"/>
-      <c r="J94" s="105"/>
-      <c r="K94" s="103" t="s">
+      <c r="B94" s="110"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="110"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="110"/>
+      <c r="I94" s="110"/>
+      <c r="J94" s="111"/>
+      <c r="K94" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L94" s="104"/>
-      <c r="M94" s="104"/>
-      <c r="N94" s="104"/>
-      <c r="O94" s="104"/>
-      <c r="P94" s="104"/>
-      <c r="Q94" s="104"/>
-      <c r="R94" s="104"/>
-      <c r="S94" s="104"/>
-      <c r="T94" s="104"/>
+      <c r="L94" s="110"/>
+      <c r="M94" s="110"/>
+      <c r="N94" s="110"/>
+      <c r="O94" s="110"/>
+      <c r="P94" s="110"/>
+      <c r="Q94" s="110"/>
+      <c r="R94" s="110"/>
+      <c r="S94" s="110"/>
+      <c r="T94" s="110"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -15242,30 +15395,30 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A106" s="107" t="s">
+      <c r="A106" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="108"/>
-      <c r="C106" s="108"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="108"/>
-      <c r="G106" s="108"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="108"/>
-      <c r="J106" s="109"/>
-      <c r="K106" s="103" t="s">
+      <c r="B106" s="114"/>
+      <c r="C106" s="114"/>
+      <c r="D106" s="114"/>
+      <c r="E106" s="114"/>
+      <c r="F106" s="114"/>
+      <c r="G106" s="114"/>
+      <c r="H106" s="114"/>
+      <c r="I106" s="114"/>
+      <c r="J106" s="115"/>
+      <c r="K106" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="104"/>
-      <c r="M106" s="104"/>
-      <c r="N106" s="104"/>
-      <c r="O106" s="104"/>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="104"/>
-      <c r="R106" s="104"/>
-      <c r="S106" s="104"/>
-      <c r="T106" s="104"/>
+      <c r="L106" s="110"/>
+      <c r="M106" s="110"/>
+      <c r="N106" s="110"/>
+      <c r="O106" s="110"/>
+      <c r="P106" s="110"/>
+      <c r="Q106" s="110"/>
+      <c r="R106" s="110"/>
+      <c r="S106" s="110"/>
+      <c r="T106" s="110"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="59" t="s">
@@ -15838,30 +15991,30 @@
       </c>
     </row>
     <row r="118" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A118" s="107" t="s">
+      <c r="A118" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="108"/>
-      <c r="C118" s="108"/>
-      <c r="D118" s="108"/>
-      <c r="E118" s="108"/>
-      <c r="F118" s="108"/>
-      <c r="G118" s="108"/>
-      <c r="H118" s="108"/>
-      <c r="I118" s="108"/>
-      <c r="J118" s="109"/>
-      <c r="K118" s="103" t="s">
+      <c r="B118" s="114"/>
+      <c r="C118" s="114"/>
+      <c r="D118" s="114"/>
+      <c r="E118" s="114"/>
+      <c r="F118" s="114"/>
+      <c r="G118" s="114"/>
+      <c r="H118" s="114"/>
+      <c r="I118" s="114"/>
+      <c r="J118" s="115"/>
+      <c r="K118" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L118" s="104"/>
-      <c r="M118" s="104"/>
-      <c r="N118" s="104"/>
-      <c r="O118" s="104"/>
-      <c r="P118" s="104"/>
-      <c r="Q118" s="104"/>
-      <c r="R118" s="104"/>
-      <c r="S118" s="104"/>
-      <c r="T118" s="104"/>
+      <c r="L118" s="110"/>
+      <c r="M118" s="110"/>
+      <c r="N118" s="110"/>
+      <c r="O118" s="110"/>
+      <c r="P118" s="110"/>
+      <c r="Q118" s="110"/>
+      <c r="R118" s="110"/>
+      <c r="S118" s="110"/>
+      <c r="T118" s="110"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -16434,30 +16587,30 @@
       </c>
     </row>
     <row r="130" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A130" s="107" t="s">
+      <c r="A130" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="108"/>
-      <c r="C130" s="108"/>
-      <c r="D130" s="108"/>
-      <c r="E130" s="108"/>
-      <c r="F130" s="108"/>
-      <c r="G130" s="108"/>
-      <c r="H130" s="108"/>
-      <c r="I130" s="108"/>
-      <c r="J130" s="109"/>
-      <c r="K130" s="103" t="s">
+      <c r="B130" s="114"/>
+      <c r="C130" s="114"/>
+      <c r="D130" s="114"/>
+      <c r="E130" s="114"/>
+      <c r="F130" s="114"/>
+      <c r="G130" s="114"/>
+      <c r="H130" s="114"/>
+      <c r="I130" s="114"/>
+      <c r="J130" s="115"/>
+      <c r="K130" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="104"/>
-      <c r="M130" s="104"/>
-      <c r="N130" s="104"/>
-      <c r="O130" s="104"/>
-      <c r="P130" s="104"/>
-      <c r="Q130" s="104"/>
-      <c r="R130" s="104"/>
-      <c r="S130" s="104"/>
-      <c r="T130" s="104"/>
+      <c r="L130" s="110"/>
+      <c r="M130" s="110"/>
+      <c r="N130" s="110"/>
+      <c r="O130" s="110"/>
+      <c r="P130" s="110"/>
+      <c r="Q130" s="110"/>
+      <c r="R130" s="110"/>
+      <c r="S130" s="110"/>
+      <c r="T130" s="110"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -17339,8 +17492,1838 @@
         <v>5.2720000000001654E-3</v>
       </c>
     </row>
+    <row r="147" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="A147" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" s="110"/>
+      <c r="C147" s="110"/>
+      <c r="D147" s="110"/>
+      <c r="E147" s="110"/>
+      <c r="F147" s="110"/>
+      <c r="G147" s="110"/>
+      <c r="H147" s="110"/>
+      <c r="I147" s="110"/>
+      <c r="J147" s="111"/>
+      <c r="K147" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="L147" s="110"/>
+      <c r="M147" s="110"/>
+      <c r="N147" s="110"/>
+      <c r="O147" s="110"/>
+      <c r="P147" s="110"/>
+      <c r="Q147" s="110"/>
+      <c r="R147" s="110"/>
+      <c r="S147" s="110"/>
+      <c r="T147" s="110"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="I148" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="J148" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="K148" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T148" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D149" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E149" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="F149" s="5">
+        <v>108</v>
+      </c>
+      <c r="G149" s="5">
+        <v>27</v>
+      </c>
+      <c r="H149" s="5">
+        <v>25</v>
+      </c>
+      <c r="I149" s="5">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="J149" s="46">
+        <v>0.87239800000000001</v>
+      </c>
+      <c r="K149" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L149" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M149" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N149" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O149" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P149" s="5">
+        <v>107</v>
+      </c>
+      <c r="Q149" s="5">
+        <v>28</v>
+      </c>
+      <c r="R149" s="5">
+        <v>26</v>
+      </c>
+      <c r="S149" s="5">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="T149" s="36">
+        <v>0.85262099999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C150" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D150" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="F150" s="5">
+        <v>106</v>
+      </c>
+      <c r="G150" s="5">
+        <v>37</v>
+      </c>
+      <c r="H150" s="5">
+        <v>23</v>
+      </c>
+      <c r="I150" s="5">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="J150" s="46">
+        <v>0.90848200000000001</v>
+      </c>
+      <c r="K150" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M150" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N150" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="O150" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="P150" s="5">
+        <v>112</v>
+      </c>
+      <c r="Q150" s="5">
+        <v>29</v>
+      </c>
+      <c r="R150" s="5">
+        <v>16</v>
+      </c>
+      <c r="S150" s="5">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="T150" s="36">
+        <v>0.91647000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="D151" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="F151" s="5">
+        <v>116</v>
+      </c>
+      <c r="G151" s="5">
+        <v>26</v>
+      </c>
+      <c r="H151" s="5">
+        <v>12</v>
+      </c>
+      <c r="I151" s="5">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="J151" s="46">
+        <v>0.93656300000000003</v>
+      </c>
+      <c r="K151" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L151" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M151" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="N151" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="O151" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="P151" s="5">
+        <v>98</v>
+      </c>
+      <c r="Q151" s="5">
+        <v>27</v>
+      </c>
+      <c r="R151" s="5">
+        <v>31</v>
+      </c>
+      <c r="S151" s="5">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="T151" s="36">
+        <v>0.86721700000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D152" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="F152" s="5">
+        <v>102</v>
+      </c>
+      <c r="G152" s="5">
+        <v>29</v>
+      </c>
+      <c r="H152" s="5">
+        <v>27</v>
+      </c>
+      <c r="I152" s="5">
+        <v>0.5887</v>
+      </c>
+      <c r="J152" s="46">
+        <v>0.85871600000000003</v>
+      </c>
+      <c r="K152" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L152" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M152" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N152" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="O152" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P152" s="5">
+        <v>111</v>
+      </c>
+      <c r="Q152" s="5">
+        <v>21</v>
+      </c>
+      <c r="R152" s="5">
+        <v>20</v>
+      </c>
+      <c r="S152" s="5">
+        <v>0.6321</v>
+      </c>
+      <c r="T152" s="36">
+        <v>0.93681199999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="D153" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="F153" s="5">
+        <v>115</v>
+      </c>
+      <c r="G153" s="5">
+        <v>25</v>
+      </c>
+      <c r="H153" s="5">
+        <v>16</v>
+      </c>
+      <c r="I153" s="5">
+        <v>0.623</v>
+      </c>
+      <c r="J153" s="46">
+        <v>0.93445999999999996</v>
+      </c>
+      <c r="K153" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L153" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M153" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="N153" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="O153" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="P153" s="12">
+        <v>109</v>
+      </c>
+      <c r="Q153" s="12">
+        <v>27</v>
+      </c>
+      <c r="R153" s="12">
+        <v>23</v>
+      </c>
+      <c r="S153" s="12">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="T153" s="37">
+        <v>0.88785999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="D154" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="F154" s="5">
+        <v>112</v>
+      </c>
+      <c r="G154" s="5">
+        <v>25</v>
+      </c>
+      <c r="H154" s="5">
+        <v>20</v>
+      </c>
+      <c r="I154" s="5">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="J154" s="46">
+        <v>0.88986399999999999</v>
+      </c>
+      <c r="K154" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="L154" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="M154" s="67">
+        <v>0.8</v>
+      </c>
+      <c r="N154" s="67">
+        <v>0.83</v>
+      </c>
+      <c r="O154" s="67">
+        <v>0.81</v>
+      </c>
+      <c r="P154" s="67">
+        <v>109</v>
+      </c>
+      <c r="Q154" s="67">
+        <v>28</v>
+      </c>
+      <c r="R154" s="67">
+        <v>22</v>
+      </c>
+      <c r="S154" s="67">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="T154" s="67">
+        <v>0.90634199999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A155" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D155" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="F155" s="5">
+        <v>108</v>
+      </c>
+      <c r="G155" s="5">
+        <v>22</v>
+      </c>
+      <c r="H155" s="5">
+        <v>23</v>
+      </c>
+      <c r="I155" s="5">
+        <v>0.63780000000000003</v>
+      </c>
+      <c r="J155" s="46">
+        <v>0.910941</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L155" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="M155" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="N155" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="O155" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="P155" s="10">
+        <v>110</v>
+      </c>
+      <c r="Q155" s="10">
+        <v>30</v>
+      </c>
+      <c r="R155" s="10">
+        <v>29</v>
+      </c>
+      <c r="S155" s="10">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="T155" s="38">
+        <v>0.88501300000000005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A156" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D156" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E156" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="F156" s="5">
+        <v>110</v>
+      </c>
+      <c r="G156" s="5">
+        <v>30</v>
+      </c>
+      <c r="H156" s="5">
+        <v>29</v>
+      </c>
+      <c r="I156" s="5">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="J156" s="46">
+        <v>0.89878999999999998</v>
+      </c>
+      <c r="K156" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="L156" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M156" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="N156" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O156" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P156" s="5">
+        <v>107</v>
+      </c>
+      <c r="Q156" s="5">
+        <v>24</v>
+      </c>
+      <c r="R156" s="5">
+        <v>23</v>
+      </c>
+      <c r="S156" s="5">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="T156" s="36">
+        <v>0.88811799999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A157" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B157" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D157" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E157" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F157" s="5">
+        <v>107</v>
+      </c>
+      <c r="G157" s="5">
+        <v>31</v>
+      </c>
+      <c r="H157" s="5">
+        <v>23</v>
+      </c>
+      <c r="I157" s="5">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="J157" s="46">
+        <v>0.89621899999999999</v>
+      </c>
+      <c r="K157" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="L157" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M157" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N157" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O157" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P157" s="5">
+        <v>108</v>
+      </c>
+      <c r="Q157" s="5">
+        <v>35</v>
+      </c>
+      <c r="R157" s="5">
+        <v>24</v>
+      </c>
+      <c r="S157" s="5">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="T157" s="36">
+        <v>0.88479699999999994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A158" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B158" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C158" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D158" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E158" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F158" s="5">
+        <v>107</v>
+      </c>
+      <c r="G158" s="5">
+        <v>28</v>
+      </c>
+      <c r="H158" s="5">
+        <v>25</v>
+      </c>
+      <c r="I158" s="5">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="J158" s="46">
+        <v>0.89842200000000005</v>
+      </c>
+      <c r="K158" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="L158" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M158" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N158" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="O158" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P158" s="5">
+        <v>99</v>
+      </c>
+      <c r="Q158" s="5">
+        <v>27</v>
+      </c>
+      <c r="R158" s="5">
+        <v>30</v>
+      </c>
+      <c r="S158" s="5">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="T158" s="36">
+        <v>0.89947699999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A159" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B159" s="5">
+        <f t="shared" ref="B159:I159" si="255">STDEV(B149:B158)</f>
+        <v>0</v>
+      </c>
+      <c r="C159" s="5">
+        <f t="shared" si="255"/>
+        <v>2.710063549890377E-2</v>
+      </c>
+      <c r="D159" s="5">
+        <f t="shared" si="255"/>
+        <v>3.8873012632302001E-2</v>
+      </c>
+      <c r="E159" s="5">
+        <f t="shared" si="255"/>
+        <v>2.8303906287138348E-2</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" si="255"/>
+        <v>4.2544094772365284</v>
+      </c>
+      <c r="G159" s="5">
+        <f t="shared" si="255"/>
+        <v>4.1365578819969517</v>
+      </c>
+      <c r="H159" s="5">
+        <f t="shared" si="255"/>
+        <v>5.1001089312985419</v>
+      </c>
+      <c r="I159" s="5">
+        <f t="shared" si="255"/>
+        <v>1.9688126709601739E-2</v>
+      </c>
+      <c r="J159" s="46">
+        <f>STDEV(J149:J158)</f>
+        <v>2.4269013101987563E-2</v>
+      </c>
+      <c r="K159" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L159" s="15">
+        <f t="shared" ref="L159:S159" si="256">STDEV(L149:L158)</f>
+        <v>0</v>
+      </c>
+      <c r="M159" s="15">
+        <f t="shared" si="256"/>
+        <v>2.1705094128132922E-2</v>
+      </c>
+      <c r="N159" s="15">
+        <f t="shared" si="256"/>
+        <v>3.6285901761795386E-2</v>
+      </c>
+      <c r="O159" s="15">
+        <f t="shared" si="256"/>
+        <v>2.2211108331943553E-2</v>
+      </c>
+      <c r="P159" s="15">
+        <f t="shared" si="256"/>
+        <v>4.7609522856952333</v>
+      </c>
+      <c r="Q159" s="15">
+        <f t="shared" si="256"/>
+        <v>3.657564459825382</v>
+      </c>
+      <c r="R159" s="15">
+        <f t="shared" si="256"/>
+        <v>4.695151163109065</v>
+      </c>
+      <c r="S159" s="15">
+        <f t="shared" si="256"/>
+        <v>1.8904676082328879E-2</v>
+      </c>
+      <c r="T159" s="73">
+        <f>STDEV(T149:T158)</f>
+        <v>2.3953830396781593E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A160" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="10">
+        <f>MEDIAN(B149:B158)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C160" s="10">
+        <f t="shared" ref="C160:J160" si="257">MEDIAN(C149:C158)</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D160" s="10">
+        <f t="shared" si="257"/>
+        <v>0.82</v>
+      </c>
+      <c r="E160" s="10">
+        <f t="shared" si="257"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F160" s="10">
+        <f t="shared" si="257"/>
+        <v>108</v>
+      </c>
+      <c r="G160" s="10">
+        <f t="shared" si="257"/>
+        <v>27.5</v>
+      </c>
+      <c r="H160" s="10">
+        <f t="shared" si="257"/>
+        <v>23</v>
+      </c>
+      <c r="I160" s="10">
+        <f t="shared" si="257"/>
+        <v>0.61260000000000003</v>
+      </c>
+      <c r="J160" s="93">
+        <f t="shared" si="257"/>
+        <v>0.89860600000000002</v>
+      </c>
+      <c r="K160" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L160" s="10">
+        <f>MEDIAN(L149:L158)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M160" s="10">
+        <f t="shared" ref="M160:T160" si="258">MEDIAN(M149:M158)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N160" s="10">
+        <f t="shared" si="258"/>
+        <v>0.82</v>
+      </c>
+      <c r="O160" s="10">
+        <f t="shared" si="258"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P160" s="10">
+        <f t="shared" si="258"/>
+        <v>108.5</v>
+      </c>
+      <c r="Q160" s="10">
+        <f t="shared" si="258"/>
+        <v>27.5</v>
+      </c>
+      <c r="R160" s="10">
+        <f t="shared" si="258"/>
+        <v>23.5</v>
+      </c>
+      <c r="S160" s="10">
+        <f t="shared" si="258"/>
+        <v>0.59955000000000003</v>
+      </c>
+      <c r="T160" s="93">
+        <f t="shared" si="258"/>
+        <v>0.88798899999999992</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A161" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B161" s="41"/>
+      <c r="C161" s="42">
+        <f>C160-M160</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="D161" s="42">
+        <f>D160-N160</f>
+        <v>0</v>
+      </c>
+      <c r="E161" s="42">
+        <f>E160-O160</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="42">
+        <f t="shared" ref="F161" si="259">F160-P160</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G161" s="42">
+        <f t="shared" ref="G161" si="260">G160-Q160</f>
+        <v>0</v>
+      </c>
+      <c r="H161" s="42">
+        <f t="shared" ref="H161" si="261">H160-R160</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I161" s="42">
+        <f>I160-S160</f>
+        <v>1.3050000000000006E-2</v>
+      </c>
+      <c r="J161" s="43">
+        <f>J160-T160</f>
+        <v>1.0617000000000099E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" ht="29" x14ac:dyDescent="0.2">
+      <c r="A164" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="B164" s="114"/>
+      <c r="C164" s="114"/>
+      <c r="D164" s="114"/>
+      <c r="E164" s="114"/>
+      <c r="F164" s="114"/>
+      <c r="G164" s="114"/>
+      <c r="H164" s="114"/>
+      <c r="I164" s="114"/>
+      <c r="J164" s="115"/>
+      <c r="K164" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="L164" s="110"/>
+      <c r="M164" s="110"/>
+      <c r="N164" s="110"/>
+      <c r="O164" s="110"/>
+      <c r="P164" s="110"/>
+      <c r="Q164" s="110"/>
+      <c r="R164" s="110"/>
+      <c r="S164" s="110"/>
+      <c r="T164" s="110"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K165" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T165" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166">
+        <v>0.25</v>
+      </c>
+      <c r="C166">
+        <v>0.76</v>
+      </c>
+      <c r="D166">
+        <v>0.8</v>
+      </c>
+      <c r="E166">
+        <v>0.78</v>
+      </c>
+      <c r="F166">
+        <v>107</v>
+      </c>
+      <c r="G166">
+        <v>34</v>
+      </c>
+      <c r="H166">
+        <v>26</v>
+      </c>
+      <c r="I166">
+        <v>0.56889999999999996</v>
+      </c>
+      <c r="J166">
+        <v>0.87093900000000002</v>
+      </c>
+      <c r="K166" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L166" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M166" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N166" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O166" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P166" s="5">
+        <v>107</v>
+      </c>
+      <c r="Q166" s="5">
+        <v>28</v>
+      </c>
+      <c r="R166" s="5">
+        <v>26</v>
+      </c>
+      <c r="S166" s="5">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="T166" s="36">
+        <v>0.85262099999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167">
+        <v>0.25</v>
+      </c>
+      <c r="C167">
+        <v>0.82</v>
+      </c>
+      <c r="D167">
+        <v>0.91</v>
+      </c>
+      <c r="E167">
+        <v>0.87</v>
+      </c>
+      <c r="F167">
+        <v>117</v>
+      </c>
+      <c r="G167">
+        <v>25</v>
+      </c>
+      <c r="H167">
+        <v>11</v>
+      </c>
+      <c r="I167">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="J167">
+        <v>0.91107899999999997</v>
+      </c>
+      <c r="K167" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L167" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M167" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N167" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="O167" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="P167" s="5">
+        <v>112</v>
+      </c>
+      <c r="Q167" s="5">
+        <v>29</v>
+      </c>
+      <c r="R167" s="5">
+        <v>16</v>
+      </c>
+      <c r="S167" s="5">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="T167" s="36">
+        <v>0.91647000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>0.25</v>
+      </c>
+      <c r="C168">
+        <v>0.78</v>
+      </c>
+      <c r="D168">
+        <v>0.78</v>
+      </c>
+      <c r="E168">
+        <v>0.78</v>
+      </c>
+      <c r="F168">
+        <v>101</v>
+      </c>
+      <c r="G168">
+        <v>29</v>
+      </c>
+      <c r="H168">
+        <v>28</v>
+      </c>
+      <c r="I168">
+        <v>0.58940000000000003</v>
+      </c>
+      <c r="J168">
+        <v>0.85752200000000001</v>
+      </c>
+      <c r="K168" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L168" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M168" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="N168" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="O168" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="P168" s="5">
+        <v>98</v>
+      </c>
+      <c r="Q168" s="5">
+        <v>27</v>
+      </c>
+      <c r="R168" s="5">
+        <v>31</v>
+      </c>
+      <c r="S168" s="5">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="T168" s="36">
+        <v>0.86721700000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169">
+        <v>0.25</v>
+      </c>
+      <c r="C169">
+        <v>0.79</v>
+      </c>
+      <c r="D169">
+        <v>0.82</v>
+      </c>
+      <c r="E169">
+        <v>0.8</v>
+      </c>
+      <c r="F169">
+        <v>107</v>
+      </c>
+      <c r="G169">
+        <v>28</v>
+      </c>
+      <c r="H169">
+        <v>24</v>
+      </c>
+      <c r="I169">
+        <v>0.60880000000000001</v>
+      </c>
+      <c r="J169">
+        <v>0.91647800000000001</v>
+      </c>
+      <c r="K169" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L169" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M169" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="N169" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="O169" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P169" s="5">
+        <v>111</v>
+      </c>
+      <c r="Q169" s="5">
+        <v>21</v>
+      </c>
+      <c r="R169" s="5">
+        <v>20</v>
+      </c>
+      <c r="S169" s="5">
+        <v>0.6321</v>
+      </c>
+      <c r="T169" s="36">
+        <v>0.93681199999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170">
+        <v>0.25</v>
+      </c>
+      <c r="C170">
+        <v>0.82</v>
+      </c>
+      <c r="D170">
+        <v>0.81</v>
+      </c>
+      <c r="E170">
+        <v>0.82</v>
+      </c>
+      <c r="F170">
+        <v>107</v>
+      </c>
+      <c r="G170">
+        <v>23</v>
+      </c>
+      <c r="H170">
+        <v>25</v>
+      </c>
+      <c r="I170">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="J170">
+        <v>0.90175400000000006</v>
+      </c>
+      <c r="K170" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L170" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M170" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="N170" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="O170" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="P170" s="12">
+        <v>109</v>
+      </c>
+      <c r="Q170" s="12">
+        <v>27</v>
+      </c>
+      <c r="R170" s="12">
+        <v>23</v>
+      </c>
+      <c r="S170" s="12">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="T170" s="37">
+        <v>0.88785999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171">
+        <v>0.25</v>
+      </c>
+      <c r="C171">
+        <v>0.8</v>
+      </c>
+      <c r="D171">
+        <v>0.87</v>
+      </c>
+      <c r="E171">
+        <v>0.84</v>
+      </c>
+      <c r="F171">
+        <v>114</v>
+      </c>
+      <c r="G171">
+        <v>28</v>
+      </c>
+      <c r="H171">
+        <v>17</v>
+      </c>
+      <c r="I171">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="J171">
+        <v>0.91842699999999999</v>
+      </c>
+      <c r="K171" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="L171" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="M171" s="67">
+        <v>0.8</v>
+      </c>
+      <c r="N171" s="67">
+        <v>0.83</v>
+      </c>
+      <c r="O171" s="67">
+        <v>0.81</v>
+      </c>
+      <c r="P171" s="67">
+        <v>109</v>
+      </c>
+      <c r="Q171" s="67">
+        <v>28</v>
+      </c>
+      <c r="R171" s="67">
+        <v>22</v>
+      </c>
+      <c r="S171" s="67">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="T171" s="67">
+        <v>0.90634199999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B172">
+        <v>0.25</v>
+      </c>
+      <c r="C172">
+        <v>0.82</v>
+      </c>
+      <c r="D172">
+        <v>0.79</v>
+      </c>
+      <c r="E172">
+        <v>0.81</v>
+      </c>
+      <c r="F172">
+        <v>110</v>
+      </c>
+      <c r="G172">
+        <v>24</v>
+      </c>
+      <c r="H172">
+        <v>29</v>
+      </c>
+      <c r="I172">
+        <v>0.625</v>
+      </c>
+      <c r="J172">
+        <v>0.88911099999999998</v>
+      </c>
+      <c r="K172" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L172" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="M172" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="N172" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="O172" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="P172" s="10">
+        <v>110</v>
+      </c>
+      <c r="Q172" s="10">
+        <v>30</v>
+      </c>
+      <c r="R172" s="10">
+        <v>29</v>
+      </c>
+      <c r="S172" s="10">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="T172" s="38">
+        <v>0.88501300000000005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B173">
+        <v>0.25</v>
+      </c>
+      <c r="C173">
+        <v>0.82</v>
+      </c>
+      <c r="D173">
+        <v>0.84</v>
+      </c>
+      <c r="E173">
+        <v>0.83</v>
+      </c>
+      <c r="F173">
+        <v>109</v>
+      </c>
+      <c r="G173">
+        <v>24</v>
+      </c>
+      <c r="H173">
+        <v>21</v>
+      </c>
+      <c r="I173">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="J173" s="117">
+        <v>0.89132</v>
+      </c>
+      <c r="K173" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="L173" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M173" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="N173" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O173" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="P173" s="5">
+        <v>107</v>
+      </c>
+      <c r="Q173" s="5">
+        <v>24</v>
+      </c>
+      <c r="R173" s="5">
+        <v>23</v>
+      </c>
+      <c r="S173" s="5">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="T173" s="36">
+        <v>0.88811799999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B174">
+        <v>0.25</v>
+      </c>
+      <c r="C174">
+        <v>0.79</v>
+      </c>
+      <c r="D174">
+        <v>0.79</v>
+      </c>
+      <c r="E174">
+        <v>0.79</v>
+      </c>
+      <c r="F174">
+        <v>104</v>
+      </c>
+      <c r="G174">
+        <v>28</v>
+      </c>
+      <c r="H174">
+        <v>28</v>
+      </c>
+      <c r="I174">
+        <v>0.59570000000000001</v>
+      </c>
+      <c r="J174" s="117">
+        <v>0.86536000000000002</v>
+      </c>
+      <c r="K174" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="L174" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M174" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="N174" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O174" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="P174" s="5">
+        <v>108</v>
+      </c>
+      <c r="Q174" s="5">
+        <v>35</v>
+      </c>
+      <c r="R174" s="5">
+        <v>24</v>
+      </c>
+      <c r="S174" s="5">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="T174" s="36">
+        <v>0.88479699999999994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B175">
+        <v>0.25</v>
+      </c>
+      <c r="C175">
+        <v>0.74</v>
+      </c>
+      <c r="D175">
+        <v>0.8</v>
+      </c>
+      <c r="E175">
+        <v>0.77</v>
+      </c>
+      <c r="F175">
+        <v>103</v>
+      </c>
+      <c r="G175">
+        <v>37</v>
+      </c>
+      <c r="H175">
+        <v>26</v>
+      </c>
+      <c r="I175">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="J175" s="117">
+        <v>0.90995000000000004</v>
+      </c>
+      <c r="K175" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="L175" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M175" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="N175" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="O175" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="P175" s="5">
+        <v>99</v>
+      </c>
+      <c r="Q175" s="5">
+        <v>27</v>
+      </c>
+      <c r="R175" s="5">
+        <v>30</v>
+      </c>
+      <c r="S175" s="5">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="T175" s="36">
+        <v>0.89947699999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A176" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B176" s="5">
+        <f t="shared" ref="B176:I176" si="262">STDEV(B166:B175)</f>
+        <v>0</v>
+      </c>
+      <c r="C176" s="5">
+        <f t="shared" si="262"/>
+        <v>2.7968235951204019E-2</v>
+      </c>
+      <c r="D176" s="5">
+        <f t="shared" si="262"/>
+        <v>4.1217579852399003E-2</v>
+      </c>
+      <c r="E176" s="5">
+        <f t="shared" si="262"/>
+        <v>3.1428932176861761E-2</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" si="262"/>
+        <v>4.8864893101057501</v>
+      </c>
+      <c r="G176" s="5">
+        <f t="shared" si="262"/>
+        <v>4.5215533220835118</v>
+      </c>
+      <c r="H176" s="5">
+        <f t="shared" si="262"/>
+        <v>5.6813535163531039</v>
+      </c>
+      <c r="I176" s="5">
+        <f t="shared" si="262"/>
+        <v>2.5031544543280233E-2</v>
+      </c>
+      <c r="J176" s="46">
+        <f>STDEV(J166:J175)</f>
+        <v>2.214961809552882E-2</v>
+      </c>
+      <c r="K176" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L176" s="15">
+        <f t="shared" ref="L176:S176" si="263">STDEV(L166:L175)</f>
+        <v>0</v>
+      </c>
+      <c r="M176" s="15">
+        <f t="shared" si="263"/>
+        <v>2.1705094128132922E-2</v>
+      </c>
+      <c r="N176" s="15">
+        <f t="shared" si="263"/>
+        <v>3.6285901761795386E-2</v>
+      </c>
+      <c r="O176" s="15">
+        <f t="shared" si="263"/>
+        <v>2.2211108331943553E-2</v>
+      </c>
+      <c r="P176" s="15">
+        <f t="shared" si="263"/>
+        <v>4.7609522856952333</v>
+      </c>
+      <c r="Q176" s="15">
+        <f t="shared" si="263"/>
+        <v>3.657564459825382</v>
+      </c>
+      <c r="R176" s="15">
+        <f t="shared" si="263"/>
+        <v>4.695151163109065</v>
+      </c>
+      <c r="S176" s="15">
+        <f t="shared" si="263"/>
+        <v>1.8904676082328879E-2</v>
+      </c>
+      <c r="T176" s="73">
+        <f>STDEV(T166:T175)</f>
+        <v>2.3953830396781593E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A177" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="10">
+        <f>MEDIAN(B166:B175)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C177" s="10">
+        <f t="shared" ref="C177:J177" si="264">MEDIAN(C166:C175)</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D177" s="10">
+        <f t="shared" si="264"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E177" s="10">
+        <f t="shared" si="264"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F177" s="10">
+        <f t="shared" si="264"/>
+        <v>107</v>
+      </c>
+      <c r="G177" s="10">
+        <f t="shared" si="264"/>
+        <v>28</v>
+      </c>
+      <c r="H177" s="10">
+        <f t="shared" si="264"/>
+        <v>25.5</v>
+      </c>
+      <c r="I177" s="10">
+        <f t="shared" si="264"/>
+        <v>0.60355000000000003</v>
+      </c>
+      <c r="J177" s="93">
+        <f t="shared" si="264"/>
+        <v>0.89653700000000003</v>
+      </c>
+      <c r="K177" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L177" s="10">
+        <f>MEDIAN(L166:L175)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M177" s="10">
+        <f t="shared" ref="M177:T177" si="265">MEDIAN(M166:M175)</f>
+        <v>0.79</v>
+      </c>
+      <c r="N177" s="10">
+        <f t="shared" si="265"/>
+        <v>0.82</v>
+      </c>
+      <c r="O177" s="10">
+        <f t="shared" si="265"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P177" s="10">
+        <f t="shared" si="265"/>
+        <v>108.5</v>
+      </c>
+      <c r="Q177" s="10">
+        <f t="shared" si="265"/>
+        <v>27.5</v>
+      </c>
+      <c r="R177" s="10">
+        <f t="shared" si="265"/>
+        <v>23.5</v>
+      </c>
+      <c r="S177" s="10">
+        <f t="shared" si="265"/>
+        <v>0.59955000000000003</v>
+      </c>
+      <c r="T177" s="93">
+        <f t="shared" si="265"/>
+        <v>0.88798899999999992</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A178" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" s="41"/>
+      <c r="C178" s="42">
+        <f>C177-M177</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="D178" s="42">
+        <f>D177-N177</f>
+        <v>-1.4999999999999902E-2</v>
+      </c>
+      <c r="E178" s="42">
+        <f>E177-O177</f>
+        <v>0</v>
+      </c>
+      <c r="F178" s="42">
+        <f t="shared" ref="F178" si="266">F177-P177</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G178" s="42">
+        <f t="shared" ref="G178" si="267">G177-Q177</f>
+        <v>0.5</v>
+      </c>
+      <c r="H178" s="42">
+        <f t="shared" ref="H178" si="268">H177-R177</f>
+        <v>2</v>
+      </c>
+      <c r="I178" s="42">
+        <f>I177-S177</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="J178" s="43">
+        <f>J177-T177</f>
+        <v>8.5480000000001111E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
+    <mergeCell ref="K82:T82"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="K164:T164"/>
+    <mergeCell ref="A164:J164"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K147:T147"/>
+    <mergeCell ref="A147:J147"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="K58:T58"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="A47:J47"/>
     <mergeCell ref="A118:J118"/>
     <mergeCell ref="K118:T118"/>
     <mergeCell ref="A130:J130"/>
@@ -17351,32 +19334,72 @@
     <mergeCell ref="K106:T106"/>
     <mergeCell ref="A94:J94"/>
     <mergeCell ref="K94:T94"/>
-    <mergeCell ref="K82:T82"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="K58:T58"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="A13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="C34:F34 I34:J34">
-    <cfRule type="cellIs" dxfId="49" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="74" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34 I34:J34">
-    <cfRule type="cellIs" dxfId="48" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
+    <cfRule type="cellIs" dxfId="59" priority="65" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
+    <cfRule type="cellIs" dxfId="57" priority="64" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
+    <cfRule type="cellIs" dxfId="56" priority="63" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:H12 G23:H23">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:F45 I45:J45">
+    <cfRule type="cellIs" dxfId="53" priority="60" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:F45 I45:J45">
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:H45">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:F56 I56:J56">
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:F56 I56:J56">
+    <cfRule type="cellIs" dxfId="48" priority="55" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:H56">
     <cfRule type="cellIs" dxfId="47" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17384,17 +19407,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
+  <conditionalFormatting sqref="C67:F67 I67:J67">
     <cfRule type="cellIs" dxfId="45" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F12 I10:J12 I23:J23 C23:F23">
+  <conditionalFormatting sqref="C67:F67 I67:J67">
     <cfRule type="cellIs" dxfId="44" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:H12 G23:H23">
+  <conditionalFormatting sqref="G67:H67">
     <cfRule type="cellIs" dxfId="43" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17402,71 +19425,71 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:F45 I45:J45">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45:F45 I45:J45">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45:H45">
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:F56 I56:J56">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:F56 I56:J56">
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:H56">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67:F67 I67:J67">
-    <cfRule type="cellIs" dxfId="33" priority="40" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67:F67 I67:J67">
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67:H67">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="greaterThan">
+  <conditionalFormatting sqref="C78:F78 I78:J78">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:F78 I78:J78">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78:H78">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:F91 I91:J91">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:F91 I91:J91">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:H91">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103:F103 I103:J103">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103:F103 I103:J103">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103:H103">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:F115 I115:J115">
     <cfRule type="cellIs" dxfId="29" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78:F78 I78:J78">
+  <conditionalFormatting sqref="C115:F115 I115:J115">
     <cfRule type="cellIs" dxfId="28" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:H78">
+  <conditionalFormatting sqref="G115:H115">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17474,17 +19497,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:F91 I91:J91">
+  <conditionalFormatting sqref="C127:F127 I127:J127">
     <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:F91 I91:J91">
+  <conditionalFormatting sqref="C127:F127 I127:J127">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:H91">
+  <conditionalFormatting sqref="G127:H127">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17492,99 +19515,101 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:F103 I103:J103">
+  <conditionalFormatting sqref="C144:E144 I144:J144">
     <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:F103 I103:J103">
+  <conditionalFormatting sqref="C144:E144 I144:J144">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103:H103">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:F115 I115:J115">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:F115 I115:J115">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115:H115">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127:F127 I127:J127">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127:F127 I127:J127">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:H127">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144:E144 I144:J144">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144:E144 I144:J144">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="C22:F22 I22:J22">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:F22 I22:J22">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:F22 I22:J22">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144:H144">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161:E161 I161:J161">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161:E161 I161:J161">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F161">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F161">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G161:H161">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178:E178 I178:J178">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178:E178 I178:J178">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F178">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
+  <conditionalFormatting sqref="F178">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G144:H144">
+  <conditionalFormatting sqref="G178:H178">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -17621,26 +19646,26 @@
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="84"/>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
       <c r="J2" s="85"/>
       <c r="N2" s="84"/>
-      <c r="O2" s="110" t="s">
+      <c r="O2" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
       <c r="V2" s="85"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
@@ -17874,26 +19899,26 @@
     </row>
     <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="84"/>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="85"/>
       <c r="N10" s="84"/>
-      <c r="O10" s="110" t="s">
+      <c r="O10" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
       <c r="V10" s="85"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
@@ -18156,15 +20181,15 @@
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="84"/>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -18273,15 +20298,15 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="84"/>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
       <c r="J27" s="85"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -18417,18 +20442,18 @@
       <c r="J33" s="91"/>
     </row>
     <row r="36" spans="2:34" ht="29" x14ac:dyDescent="0.2">
-      <c r="Y36" s="107" t="s">
+      <c r="Y36" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="Z36" s="108"/>
-      <c r="AA36" s="108"/>
-      <c r="AB36" s="108"/>
-      <c r="AC36" s="108"/>
-      <c r="AD36" s="108"/>
-      <c r="AE36" s="108"/>
-      <c r="AF36" s="108"/>
-      <c r="AG36" s="108"/>
-      <c r="AH36" s="103"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="114"/>
+      <c r="AB36" s="114"/>
+      <c r="AC36" s="114"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="114"/>
+      <c r="AF36" s="114"/>
+      <c r="AG36" s="114"/>
+      <c r="AH36" s="109"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="Y37" s="1" t="s">
@@ -18865,18 +20890,18 @@
       </c>
     </row>
     <row r="53" spans="25:34" ht="29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="104" t="s">
+      <c r="Y53" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="Z53" s="104"/>
-      <c r="AA53" s="104"/>
-      <c r="AB53" s="104"/>
-      <c r="AC53" s="104"/>
-      <c r="AD53" s="104"/>
-      <c r="AE53" s="104"/>
-      <c r="AF53" s="104"/>
-      <c r="AG53" s="104"/>
-      <c r="AH53" s="104"/>
+      <c r="Z53" s="110"/>
+      <c r="AA53" s="110"/>
+      <c r="AB53" s="110"/>
+      <c r="AC53" s="110"/>
+      <c r="AD53" s="110"/>
+      <c r="AE53" s="110"/>
+      <c r="AF53" s="110"/>
+      <c r="AG53" s="110"/>
+      <c r="AH53" s="110"/>
     </row>
     <row r="54" spans="25:34" x14ac:dyDescent="0.2">
       <c r="Y54" s="1" t="s">
@@ -19130,12 +21155,12 @@
       <c r="AG61" s="42">
         <v>0.60140000000000005</v>
       </c>
-      <c r="AH61" s="113">
+      <c r="AH61" s="101">
         <v>0.88501300000000005</v>
       </c>
     </row>
     <row r="62" spans="25:34" x14ac:dyDescent="0.2">
-      <c r="Y62" s="111" t="s">
+      <c r="Y62" s="99" t="s">
         <v>61</v>
       </c>
       <c r="Z62" s="5">
@@ -19167,7 +21192,7 @@
       </c>
     </row>
     <row r="63" spans="25:34" x14ac:dyDescent="0.2">
-      <c r="Y63" s="111" t="s">
+      <c r="Y63" s="99" t="s">
         <v>62</v>
       </c>
       <c r="Z63" s="5">
@@ -19199,7 +21224,7 @@
       </c>
     </row>
     <row r="64" spans="25:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y64" s="112" t="s">
+      <c r="Y64" s="100" t="s">
         <v>58</v>
       </c>
       <c r="Z64" s="12">

--- a/Comparision.xlsx
+++ b/Comparision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/dev/uni/vision/AISSCV_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A75C02-FB71-4B44-94F2-B53A4FC4D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20004041-57AF-274C-B850-911A8B5006B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="2940" windowWidth="43740" windowHeight="29460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16420" yWindow="2940" windowWidth="43740" windowHeight="29460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="90">
   <si>
     <t>run</t>
   </si>
@@ -248,27 +248,6 @@
     <t>Number of Augmentations</t>
   </si>
   <si>
-    <t>Adding Occlution (Cutout)</t>
-  </si>
-  <si>
-    <t>unlabeld data</t>
-  </si>
-  <si>
-    <t>Adding Unlabeld Images</t>
-  </si>
-  <si>
-    <t>Batch Size</t>
-  </si>
-  <si>
-    <t>No Label and Occlution (Cutout)</t>
-  </si>
-  <si>
-    <t>no label, occlution (0,75/0,4)</t>
-  </si>
-  <si>
-    <t>no label, occlution (0,5/0,35)</t>
-  </si>
-  <si>
     <t>basis</t>
   </si>
   <si>
@@ -281,18 +260,6 @@
     <t>3000 (basis)</t>
   </si>
   <si>
-    <t>Basis (Color, Batch Size 3000, 10 Augmentations)</t>
-  </si>
-  <si>
-    <t>occlution p=0,75, max size=0,4</t>
-  </si>
-  <si>
-    <t>occlution p=0,5, max size=0,35</t>
-  </si>
-  <si>
-    <t>No Label, Occlution (0,5/0,35), Batch Size 3500</t>
-  </si>
-  <si>
     <t>Color (10 fold)</t>
   </si>
   <si>
@@ -300,6 +267,42 @@
   </si>
   <si>
     <t>More No Label, Occlude 50% smaller size, batch size 3500</t>
+  </si>
+  <si>
+    <t>Basis (Color, Max. Batches 3000, 10 Augmentations)</t>
+  </si>
+  <si>
+    <t>Unlabeled, Occlusion (0,5/0,35), Max. Batches 3500</t>
+  </si>
+  <si>
+    <t>Adding Occlusion (Cutout)</t>
+  </si>
+  <si>
+    <t>Unabeled Images and Occlusion (Cutout)</t>
+  </si>
+  <si>
+    <t>unlabeled, occlusion (0,75/0,4)</t>
+  </si>
+  <si>
+    <t>unlabeled, occlusion (0,5/0,35)</t>
+  </si>
+  <si>
+    <t>occlusion p=0,75, max size=0,4</t>
+  </si>
+  <si>
+    <t>occlusion p=0,5, max size=0,35</t>
+  </si>
+  <si>
+    <t>Varying Maximum Batch Size per Class</t>
+  </si>
+  <si>
+    <t>Adding Unlabeled Images</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>unlabeled images</t>
   </si>
 </sst>
 </file>
@@ -969,6 +972,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,9 +994,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,10 +1003,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2430,18 +2433,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3039,18 +3042,18 @@
       <c r="J18" s="56"/>
     </row>
     <row r="20" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="105" t="s">
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3648,18 +3651,18 @@
       <c r="J37" s="56"/>
     </row>
     <row r="39" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="105" t="s">
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -4253,18 +4256,18 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A56" s="105" t="s">
+      <c r="A56" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="105" t="s">
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4858,18 +4861,18 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A75" s="105" t="s">
+      <c r="A75" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="105"/>
-      <c r="C75" s="105"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="105" t="s">
+      <c r="B75" s="106"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="105"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5463,18 +5466,18 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A96" s="105" t="s">
+      <c r="A96" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="105"/>
-      <c r="C96" s="105"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="105" t="s">
+      <c r="B96" s="106"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="105"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="105"/>
+      <c r="F96" s="106"/>
+      <c r="G96" s="106"/>
+      <c r="H96" s="106"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -6068,18 +6071,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A114" s="105" t="s">
+      <c r="A114" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="105"/>
-      <c r="C114" s="105"/>
-      <c r="D114" s="106"/>
-      <c r="E114" s="105" t="s">
+      <c r="B114" s="106"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="107"/>
+      <c r="E114" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="105"/>
-      <c r="G114" s="105"/>
-      <c r="H114" s="105"/>
+      <c r="F114" s="106"/>
+      <c r="G114" s="106"/>
+      <c r="H114" s="106"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -6677,18 +6680,18 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A132" s="105" t="s">
+      <c r="A132" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B132" s="105"/>
-      <c r="C132" s="105"/>
-      <c r="D132" s="106"/>
-      <c r="E132" s="105" t="s">
+      <c r="B132" s="106"/>
+      <c r="C132" s="106"/>
+      <c r="D132" s="107"/>
+      <c r="E132" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F132" s="105"/>
-      <c r="G132" s="105"/>
-      <c r="H132" s="105"/>
+      <c r="F132" s="106"/>
+      <c r="G132" s="106"/>
+      <c r="H132" s="106"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="44" t="s">
@@ -7282,18 +7285,18 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A151" s="105" t="s">
+      <c r="A151" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="105"/>
-      <c r="C151" s="105"/>
-      <c r="D151" s="106"/>
-      <c r="E151" s="105" t="s">
+      <c r="B151" s="106"/>
+      <c r="C151" s="106"/>
+      <c r="D151" s="107"/>
+      <c r="E151" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F151" s="105"/>
-      <c r="G151" s="105"/>
-      <c r="H151" s="105"/>
+      <c r="F151" s="106"/>
+      <c r="G151" s="106"/>
+      <c r="H151" s="106"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -7887,18 +7890,18 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A169" s="105" t="s">
+      <c r="A169" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="B169" s="105"/>
-      <c r="C169" s="105"/>
-      <c r="D169" s="106"/>
-      <c r="E169" s="105" t="s">
+      <c r="B169" s="106"/>
+      <c r="C169" s="106"/>
+      <c r="D169" s="107"/>
+      <c r="E169" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F169" s="105"/>
-      <c r="G169" s="105"/>
-      <c r="H169" s="105"/>
+      <c r="F169" s="106"/>
+      <c r="G169" s="106"/>
+      <c r="H169" s="106"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="59" t="s">
@@ -8492,18 +8495,18 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A187" s="105" t="s">
+      <c r="A187" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="B187" s="105"/>
-      <c r="C187" s="105"/>
-      <c r="D187" s="106"/>
-      <c r="E187" s="105" t="s">
+      <c r="B187" s="106"/>
+      <c r="C187" s="106"/>
+      <c r="D187" s="107"/>
+      <c r="E187" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="F187" s="105"/>
-      <c r="G187" s="105"/>
-      <c r="H187" s="105"/>
+      <c r="F187" s="106"/>
+      <c r="G187" s="106"/>
+      <c r="H187" s="106"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
@@ -9097,18 +9100,18 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="B205" s="107"/>
-      <c r="C205" s="107"/>
-      <c r="D205" s="108"/>
-      <c r="E205" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="F205" s="105"/>
-      <c r="G205" s="105"/>
-      <c r="H205" s="105"/>
+      <c r="A205" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B205" s="108"/>
+      <c r="C205" s="108"/>
+      <c r="D205" s="109"/>
+      <c r="E205" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="F205" s="106"/>
+      <c r="G205" s="106"/>
+      <c r="H205" s="106"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
@@ -9932,7 +9935,7 @@
   </sheetPr>
   <dimension ref="A1:T178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A129" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
@@ -9957,18 +9960,18 @@
       <c r="H1" s="114"/>
       <c r="I1" s="114"/>
       <c r="J1" s="115"/>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10607,18 +10610,18 @@
       <c r="H13" s="114"/>
       <c r="I13" s="114"/>
       <c r="J13" s="115"/>
-      <c r="K13" s="109" t="s">
+      <c r="K13" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
@@ -11225,18 +11228,18 @@
       <c r="H25" s="114"/>
       <c r="I25" s="114"/>
       <c r="J25" s="115"/>
-      <c r="K25" s="109" t="s">
+      <c r="K25" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -11831,18 +11834,18 @@
       <c r="H36" s="114"/>
       <c r="I36" s="114"/>
       <c r="J36" s="115"/>
-      <c r="K36" s="109" t="s">
+      <c r="K36" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
@@ -12415,30 +12418,30 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="110"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="109" t="s">
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="110"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -13011,30 +13014,30 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="111"/>
-      <c r="K58" s="109" t="s">
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="112"/>
+      <c r="K58" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="110"/>
-      <c r="M58" s="110"/>
-      <c r="N58" s="110"/>
-      <c r="O58" s="110"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="110"/>
-      <c r="S58" s="110"/>
-      <c r="T58" s="110"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="P58" s="111"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="111"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
@@ -13607,30 +13610,30 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="110"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="110"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="111"/>
-      <c r="K69" s="109" t="s">
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="112"/>
+      <c r="K69" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L69" s="110"/>
-      <c r="M69" s="110"/>
-      <c r="N69" s="110"/>
-      <c r="O69" s="110"/>
-      <c r="P69" s="110"/>
-      <c r="Q69" s="110"/>
-      <c r="R69" s="110"/>
-      <c r="S69" s="110"/>
-      <c r="T69" s="110"/>
+      <c r="L69" s="111"/>
+      <c r="M69" s="111"/>
+      <c r="N69" s="111"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="111"/>
+      <c r="R69" s="111"/>
+      <c r="S69" s="111"/>
+      <c r="T69" s="111"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
@@ -14203,30 +14206,30 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="110"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="110"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="110"/>
-      <c r="J82" s="111"/>
-      <c r="K82" s="109" t="s">
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="112"/>
+      <c r="K82" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L82" s="110"/>
-      <c r="M82" s="110"/>
-      <c r="N82" s="110"/>
-      <c r="O82" s="110"/>
-      <c r="P82" s="110"/>
-      <c r="Q82" s="110"/>
-      <c r="R82" s="110"/>
-      <c r="S82" s="110"/>
-      <c r="T82" s="110"/>
+      <c r="L82" s="111"/>
+      <c r="M82" s="111"/>
+      <c r="N82" s="111"/>
+      <c r="O82" s="111"/>
+      <c r="P82" s="111"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+      <c r="S82" s="111"/>
+      <c r="T82" s="111"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
@@ -14799,30 +14802,30 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A94" s="109" t="s">
+      <c r="A94" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="110"/>
-      <c r="D94" s="110"/>
-      <c r="E94" s="110"/>
-      <c r="F94" s="110"/>
-      <c r="G94" s="110"/>
-      <c r="H94" s="110"/>
-      <c r="I94" s="110"/>
-      <c r="J94" s="111"/>
-      <c r="K94" s="109" t="s">
+      <c r="B94" s="111"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="111"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="111"/>
+      <c r="I94" s="111"/>
+      <c r="J94" s="112"/>
+      <c r="K94" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L94" s="110"/>
-      <c r="M94" s="110"/>
-      <c r="N94" s="110"/>
-      <c r="O94" s="110"/>
-      <c r="P94" s="110"/>
-      <c r="Q94" s="110"/>
-      <c r="R94" s="110"/>
-      <c r="S94" s="110"/>
-      <c r="T94" s="110"/>
+      <c r="L94" s="111"/>
+      <c r="M94" s="111"/>
+      <c r="N94" s="111"/>
+      <c r="O94" s="111"/>
+      <c r="P94" s="111"/>
+      <c r="Q94" s="111"/>
+      <c r="R94" s="111"/>
+      <c r="S94" s="111"/>
+      <c r="T94" s="111"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -15407,18 +15410,18 @@
       <c r="H106" s="114"/>
       <c r="I106" s="114"/>
       <c r="J106" s="115"/>
-      <c r="K106" s="109" t="s">
+      <c r="K106" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L106" s="110"/>
-      <c r="M106" s="110"/>
-      <c r="N106" s="110"/>
-      <c r="O106" s="110"/>
-      <c r="P106" s="110"/>
-      <c r="Q106" s="110"/>
-      <c r="R106" s="110"/>
-      <c r="S106" s="110"/>
-      <c r="T106" s="110"/>
+      <c r="L106" s="111"/>
+      <c r="M106" s="111"/>
+      <c r="N106" s="111"/>
+      <c r="O106" s="111"/>
+      <c r="P106" s="111"/>
+      <c r="Q106" s="111"/>
+      <c r="R106" s="111"/>
+      <c r="S106" s="111"/>
+      <c r="T106" s="111"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="59" t="s">
@@ -16003,18 +16006,18 @@
       <c r="H118" s="114"/>
       <c r="I118" s="114"/>
       <c r="J118" s="115"/>
-      <c r="K118" s="109" t="s">
+      <c r="K118" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L118" s="110"/>
-      <c r="M118" s="110"/>
-      <c r="N118" s="110"/>
-      <c r="O118" s="110"/>
-      <c r="P118" s="110"/>
-      <c r="Q118" s="110"/>
-      <c r="R118" s="110"/>
-      <c r="S118" s="110"/>
-      <c r="T118" s="110"/>
+      <c r="L118" s="111"/>
+      <c r="M118" s="111"/>
+      <c r="N118" s="111"/>
+      <c r="O118" s="111"/>
+      <c r="P118" s="111"/>
+      <c r="Q118" s="111"/>
+      <c r="R118" s="111"/>
+      <c r="S118" s="111"/>
+      <c r="T118" s="111"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -16599,18 +16602,18 @@
       <c r="H130" s="114"/>
       <c r="I130" s="114"/>
       <c r="J130" s="115"/>
-      <c r="K130" s="109" t="s">
+      <c r="K130" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="110"/>
-      <c r="M130" s="110"/>
-      <c r="N130" s="110"/>
-      <c r="O130" s="110"/>
-      <c r="P130" s="110"/>
-      <c r="Q130" s="110"/>
-      <c r="R130" s="110"/>
-      <c r="S130" s="110"/>
-      <c r="T130" s="110"/>
+      <c r="L130" s="111"/>
+      <c r="M130" s="111"/>
+      <c r="N130" s="111"/>
+      <c r="O130" s="111"/>
+      <c r="P130" s="111"/>
+      <c r="Q130" s="111"/>
+      <c r="R130" s="111"/>
+      <c r="S130" s="111"/>
+      <c r="T130" s="111"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -17493,30 +17496,30 @@
       </c>
     </row>
     <row r="147" spans="1:20" ht="29" x14ac:dyDescent="0.2">
-      <c r="A147" s="109" t="s">
+      <c r="A147" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B147" s="110"/>
-      <c r="C147" s="110"/>
-      <c r="D147" s="110"/>
-      <c r="E147" s="110"/>
-      <c r="F147" s="110"/>
-      <c r="G147" s="110"/>
-      <c r="H147" s="110"/>
-      <c r="I147" s="110"/>
-      <c r="J147" s="111"/>
-      <c r="K147" s="109" t="s">
+      <c r="B147" s="111"/>
+      <c r="C147" s="111"/>
+      <c r="D147" s="111"/>
+      <c r="E147" s="111"/>
+      <c r="F147" s="111"/>
+      <c r="G147" s="111"/>
+      <c r="H147" s="111"/>
+      <c r="I147" s="111"/>
+      <c r="J147" s="112"/>
+      <c r="K147" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L147" s="110"/>
-      <c r="M147" s="110"/>
-      <c r="N147" s="110"/>
-      <c r="O147" s="110"/>
-      <c r="P147" s="110"/>
-      <c r="Q147" s="110"/>
-      <c r="R147" s="110"/>
-      <c r="S147" s="110"/>
-      <c r="T147" s="110"/>
+      <c r="L147" s="111"/>
+      <c r="M147" s="111"/>
+      <c r="N147" s="111"/>
+      <c r="O147" s="111"/>
+      <c r="P147" s="111"/>
+      <c r="Q147" s="111"/>
+      <c r="R147" s="111"/>
+      <c r="S147" s="111"/>
+      <c r="T147" s="111"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="102" t="s">
@@ -18400,7 +18403,7 @@
     </row>
     <row r="164" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A164" s="113" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B164" s="114"/>
       <c r="C164" s="114"/>
@@ -18411,18 +18414,18 @@
       <c r="H164" s="114"/>
       <c r="I164" s="114"/>
       <c r="J164" s="115"/>
-      <c r="K164" s="109" t="s">
+      <c r="K164" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="L164" s="110"/>
-      <c r="M164" s="110"/>
-      <c r="N164" s="110"/>
-      <c r="O164" s="110"/>
-      <c r="P164" s="110"/>
-      <c r="Q164" s="110"/>
-      <c r="R164" s="110"/>
-      <c r="S164" s="110"/>
-      <c r="T164" s="110"/>
+      <c r="L164" s="111"/>
+      <c r="M164" s="111"/>
+      <c r="N164" s="111"/>
+      <c r="O164" s="111"/>
+      <c r="P164" s="111"/>
+      <c r="Q164" s="111"/>
+      <c r="R164" s="111"/>
+      <c r="S164" s="111"/>
+      <c r="T164" s="111"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
@@ -18948,7 +18951,7 @@
       <c r="I173">
         <v>0.63139999999999996</v>
       </c>
-      <c r="J173" s="117">
+      <c r="J173" s="105">
         <v>0.89132</v>
       </c>
       <c r="K173" s="98" t="s">
@@ -19010,7 +19013,7 @@
       <c r="I174">
         <v>0.59570000000000001</v>
       </c>
-      <c r="J174" s="117">
+      <c r="J174" s="105">
         <v>0.86536000000000002</v>
       </c>
       <c r="K174" s="98" t="s">
@@ -19072,7 +19075,7 @@
       <c r="I175">
         <v>0.56779999999999997</v>
       </c>
-      <c r="J175" s="117">
+      <c r="J175" s="105">
         <v>0.90995000000000004</v>
       </c>
       <c r="K175" s="98" t="s">
@@ -19306,8 +19309,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K82:T82"/>
-    <mergeCell ref="A82:J82"/>
     <mergeCell ref="K164:T164"/>
     <mergeCell ref="A164:J164"/>
     <mergeCell ref="K1:T1"/>
@@ -19334,6 +19335,8 @@
     <mergeCell ref="K106:T106"/>
     <mergeCell ref="A94:J94"/>
     <mergeCell ref="K94:T94"/>
+    <mergeCell ref="K82:T82"/>
+    <mergeCell ref="A82:J82"/>
   </mergeCells>
   <conditionalFormatting sqref="C34:F34 I34:J34">
     <cfRule type="cellIs" dxfId="61" priority="74" operator="greaterThan">
@@ -19626,14 +19629,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDF478C-84F8-7949-9002-5ABF95255D36}">
   <dimension ref="B2:AH66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="Y68" sqref="Y68"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="80"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.6640625" customWidth="1"/>
@@ -19646,26 +19649,26 @@
   <sheetData>
     <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="84"/>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
       <c r="J2" s="85"/>
       <c r="N2" s="84"/>
-      <c r="O2" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
+      <c r="O2" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
       <c r="V2" s="85"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
@@ -19764,7 +19767,7 @@
       <c r="J5" s="87"/>
       <c r="N5" s="86"/>
       <c r="O5" s="42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P5" s="5">
         <f>Overall!C44</f>
@@ -19795,7 +19798,7 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="86"/>
       <c r="C6" s="42" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5">
         <f>Overall!M33</f>
@@ -19824,7 +19827,7 @@
       <c r="J6" s="87"/>
       <c r="N6" s="86"/>
       <c r="O6" s="42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P6" s="5">
         <f>Overall!C114</f>
@@ -19864,7 +19867,7 @@
       <c r="J7" s="91"/>
       <c r="N7" s="86"/>
       <c r="O7" s="42" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P7" s="5">
         <v>0.79</v>
@@ -19899,26 +19902,26 @@
     </row>
     <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="84"/>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="85"/>
       <c r="N10" s="84"/>
-      <c r="O10" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
+      <c r="O10" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
       <c r="V10" s="85"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
@@ -20017,7 +20020,7 @@
       <c r="J13" s="87"/>
       <c r="N13" s="86"/>
       <c r="O13" s="42" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P13" s="5">
         <f>Overall!C77</f>
@@ -20048,7 +20051,7 @@
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="86"/>
       <c r="C14" s="92" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5">
         <f>Overall!M21</f>
@@ -20077,7 +20080,7 @@
       <c r="J14" s="87"/>
       <c r="N14" s="86"/>
       <c r="O14" s="42" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P14" s="5">
         <f>Overall!C126</f>
@@ -20137,7 +20140,7 @@
       <c r="J15" s="87"/>
       <c r="N15" s="86"/>
       <c r="O15" s="42" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P15" s="5">
         <v>0.79</v>
@@ -20181,15 +20184,15 @@
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="84"/>
-      <c r="C19" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
+      <c r="C19" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -20229,7 +20232,7 @@
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="86"/>
       <c r="C22" s="42" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D22" s="5">
         <f>Overall!C66</f>
@@ -20260,7 +20263,7 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="86"/>
       <c r="C23" s="42" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5">
         <v>0.79</v>
@@ -20298,15 +20301,15 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="84"/>
-      <c r="C27" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
+      <c r="C27" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
       <c r="J27" s="85"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -20346,7 +20349,7 @@
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="86"/>
       <c r="C30" s="92" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D30" s="5">
         <v>0.79</v>
@@ -20443,7 +20446,7 @@
     </row>
     <row r="36" spans="2:34" ht="29" x14ac:dyDescent="0.2">
       <c r="Y36" s="113" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Z36" s="114"/>
       <c r="AA36" s="114"/>
@@ -20453,7 +20456,7 @@
       <c r="AE36" s="114"/>
       <c r="AF36" s="114"/>
       <c r="AG36" s="114"/>
-      <c r="AH36" s="109"/>
+      <c r="AH36" s="110"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="Y37" s="1" t="s">
@@ -20520,6 +20523,9 @@
       </c>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
       <c r="Y39" s="1" t="s">
         <v>11</v>
       </c>
@@ -20890,18 +20896,18 @@
       </c>
     </row>
     <row r="53" spans="25:34" ht="29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="110" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="110"/>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="110"/>
-      <c r="AE53" s="110"/>
-      <c r="AF53" s="110"/>
-      <c r="AG53" s="110"/>
-      <c r="AH53" s="110"/>
+      <c r="Y53" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z53" s="111"/>
+      <c r="AA53" s="111"/>
+      <c r="AB53" s="111"/>
+      <c r="AC53" s="111"/>
+      <c r="AD53" s="111"/>
+      <c r="AE53" s="111"/>
+      <c r="AF53" s="111"/>
+      <c r="AG53" s="111"/>
+      <c r="AH53" s="111"/>
     </row>
     <row r="54" spans="25:34" x14ac:dyDescent="0.2">
       <c r="Y54" s="1" t="s">
